--- a/data/graduation_requirements.xlsx
+++ b/data/graduation_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD4B443-613A-4463-A93F-CAFE53C145A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0969ED3A-17C8-49D1-84A4-25C12071576B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="83">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>입학연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,11 +641,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M579"/>
+  <dimension ref="A1:M868"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16738,6 +16740,6653 @@
         <v>27</v>
       </c>
     </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A580" t="s">
+        <v>82</v>
+      </c>
+      <c r="B580" t="s">
+        <v>2</v>
+      </c>
+      <c r="C580">
+        <v>2020</v>
+      </c>
+      <c r="D580">
+        <v>2020</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+      <c r="F580">
+        <v>9</v>
+      </c>
+      <c r="G580">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A581" t="s">
+        <v>82</v>
+      </c>
+      <c r="B581" t="s">
+        <v>55</v>
+      </c>
+      <c r="C581">
+        <v>2020</v>
+      </c>
+      <c r="D581">
+        <v>2020</v>
+      </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
+      <c r="F581">
+        <v>9</v>
+      </c>
+      <c r="G581">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A582" t="s">
+        <v>82</v>
+      </c>
+      <c r="B582" t="s">
+        <v>76</v>
+      </c>
+      <c r="C582">
+        <v>2020</v>
+      </c>
+      <c r="D582">
+        <v>2020</v>
+      </c>
+      <c r="E582">
+        <v>0</v>
+      </c>
+      <c r="F582">
+        <v>9</v>
+      </c>
+      <c r="G582">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A583" t="s">
+        <v>82</v>
+      </c>
+      <c r="B583" t="s">
+        <v>4</v>
+      </c>
+      <c r="C583">
+        <v>2020</v>
+      </c>
+      <c r="D583">
+        <v>2020</v>
+      </c>
+      <c r="E583">
+        <v>0</v>
+      </c>
+      <c r="F583">
+        <v>9</v>
+      </c>
+      <c r="G583">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A584" t="s">
+        <v>82</v>
+      </c>
+      <c r="B584" t="s">
+        <v>54</v>
+      </c>
+      <c r="C584">
+        <v>2020</v>
+      </c>
+      <c r="D584">
+        <v>2020</v>
+      </c>
+      <c r="E584">
+        <v>0</v>
+      </c>
+      <c r="F584">
+        <v>9</v>
+      </c>
+      <c r="G584">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A585" t="s">
+        <v>82</v>
+      </c>
+      <c r="B585" t="s">
+        <v>6</v>
+      </c>
+      <c r="C585">
+        <v>2020</v>
+      </c>
+      <c r="D585">
+        <v>2020</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+      <c r="F585">
+        <v>9</v>
+      </c>
+      <c r="G585">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A586" t="s">
+        <v>82</v>
+      </c>
+      <c r="B586" t="s">
+        <v>7</v>
+      </c>
+      <c r="C586">
+        <v>2020</v>
+      </c>
+      <c r="D586">
+        <v>2020</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+      <c r="F586">
+        <v>9</v>
+      </c>
+      <c r="G586">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A587" t="s">
+        <v>82</v>
+      </c>
+      <c r="B587" t="s">
+        <v>8</v>
+      </c>
+      <c r="C587">
+        <v>2020</v>
+      </c>
+      <c r="D587">
+        <v>2020</v>
+      </c>
+      <c r="E587">
+        <v>0</v>
+      </c>
+      <c r="F587">
+        <v>9</v>
+      </c>
+      <c r="G587">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A588" t="s">
+        <v>82</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588">
+        <v>2020</v>
+      </c>
+      <c r="D588">
+        <v>2020</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>9</v>
+      </c>
+      <c r="G588">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A589" t="s">
+        <v>82</v>
+      </c>
+      <c r="B589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C589">
+        <v>2020</v>
+      </c>
+      <c r="D589">
+        <v>2020</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>9</v>
+      </c>
+      <c r="G589">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A590" t="s">
+        <v>82</v>
+      </c>
+      <c r="B590" t="s">
+        <v>11</v>
+      </c>
+      <c r="C590">
+        <v>2020</v>
+      </c>
+      <c r="D590">
+        <v>2020</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+      <c r="F590">
+        <v>9</v>
+      </c>
+      <c r="G590">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A591" t="s">
+        <v>82</v>
+      </c>
+      <c r="B591" t="s">
+        <v>12</v>
+      </c>
+      <c r="C591">
+        <v>2020</v>
+      </c>
+      <c r="D591">
+        <v>2020</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+      <c r="F591">
+        <v>9</v>
+      </c>
+      <c r="G591">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A592" t="s">
+        <v>82</v>
+      </c>
+      <c r="B592" t="s">
+        <v>13</v>
+      </c>
+      <c r="C592">
+        <v>2020</v>
+      </c>
+      <c r="D592">
+        <v>2020</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="F592">
+        <v>9</v>
+      </c>
+      <c r="G592">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A593" t="s">
+        <v>82</v>
+      </c>
+      <c r="B593" t="s">
+        <v>14</v>
+      </c>
+      <c r="C593">
+        <v>2020</v>
+      </c>
+      <c r="D593">
+        <v>2020</v>
+      </c>
+      <c r="E593">
+        <v>0</v>
+      </c>
+      <c r="F593">
+        <v>9</v>
+      </c>
+      <c r="G593">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A594" t="s">
+        <v>82</v>
+      </c>
+      <c r="B594" t="s">
+        <v>15</v>
+      </c>
+      <c r="C594">
+        <v>2020</v>
+      </c>
+      <c r="D594">
+        <v>2020</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+      <c r="F594">
+        <v>9</v>
+      </c>
+      <c r="G594">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A595" t="s">
+        <v>82</v>
+      </c>
+      <c r="B595" t="s">
+        <v>16</v>
+      </c>
+      <c r="C595">
+        <v>2020</v>
+      </c>
+      <c r="D595">
+        <v>2020</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+      <c r="F595">
+        <v>9</v>
+      </c>
+      <c r="G595">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A596" t="s">
+        <v>82</v>
+      </c>
+      <c r="B596" t="s">
+        <v>17</v>
+      </c>
+      <c r="C596">
+        <v>2020</v>
+      </c>
+      <c r="D596">
+        <v>2020</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+      <c r="F596">
+        <v>9</v>
+      </c>
+      <c r="G596">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A597" t="s">
+        <v>82</v>
+      </c>
+      <c r="B597" t="s">
+        <v>34</v>
+      </c>
+      <c r="C597">
+        <v>2020</v>
+      </c>
+      <c r="D597">
+        <v>2020</v>
+      </c>
+      <c r="E597">
+        <v>0</v>
+      </c>
+      <c r="F597">
+        <v>9</v>
+      </c>
+      <c r="G597">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A598" t="s">
+        <v>82</v>
+      </c>
+      <c r="B598" t="s">
+        <v>18</v>
+      </c>
+      <c r="C598">
+        <v>2020</v>
+      </c>
+      <c r="D598">
+        <v>2020</v>
+      </c>
+      <c r="E598">
+        <v>0</v>
+      </c>
+      <c r="F598">
+        <v>9</v>
+      </c>
+      <c r="G598">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A599" t="s">
+        <v>82</v>
+      </c>
+      <c r="B599" t="s">
+        <v>19</v>
+      </c>
+      <c r="C599">
+        <v>2020</v>
+      </c>
+      <c r="D599">
+        <v>2020</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+      <c r="F599">
+        <v>9</v>
+      </c>
+      <c r="G599">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A600" t="s">
+        <v>82</v>
+      </c>
+      <c r="B600" t="s">
+        <v>20</v>
+      </c>
+      <c r="C600">
+        <v>2020</v>
+      </c>
+      <c r="D600">
+        <v>2020</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+      <c r="F600">
+        <v>9</v>
+      </c>
+      <c r="G600">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A601" t="s">
+        <v>82</v>
+      </c>
+      <c r="B601" t="s">
+        <v>21</v>
+      </c>
+      <c r="C601">
+        <v>2020</v>
+      </c>
+      <c r="D601">
+        <v>2020</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+      <c r="F601">
+        <v>9</v>
+      </c>
+      <c r="G601">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A602" t="s">
+        <v>82</v>
+      </c>
+      <c r="B602" t="s">
+        <v>22</v>
+      </c>
+      <c r="C602">
+        <v>2020</v>
+      </c>
+      <c r="D602">
+        <v>2020</v>
+      </c>
+      <c r="E602">
+        <v>0</v>
+      </c>
+      <c r="F602">
+        <v>9</v>
+      </c>
+      <c r="G602">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A603" t="s">
+        <v>82</v>
+      </c>
+      <c r="B603" t="s">
+        <v>23</v>
+      </c>
+      <c r="C603">
+        <v>2020</v>
+      </c>
+      <c r="D603">
+        <v>2020</v>
+      </c>
+      <c r="E603">
+        <v>0</v>
+      </c>
+      <c r="F603">
+        <v>9</v>
+      </c>
+      <c r="G603">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A604" t="s">
+        <v>82</v>
+      </c>
+      <c r="B604" t="s">
+        <v>24</v>
+      </c>
+      <c r="C604">
+        <v>2020</v>
+      </c>
+      <c r="D604">
+        <v>2020</v>
+      </c>
+      <c r="E604">
+        <v>0</v>
+      </c>
+      <c r="F604">
+        <v>9</v>
+      </c>
+      <c r="G604">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A605" t="s">
+        <v>82</v>
+      </c>
+      <c r="B605" t="s">
+        <v>25</v>
+      </c>
+      <c r="C605">
+        <v>2020</v>
+      </c>
+      <c r="D605">
+        <v>2020</v>
+      </c>
+      <c r="E605">
+        <v>0</v>
+      </c>
+      <c r="F605">
+        <v>9</v>
+      </c>
+      <c r="G605">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A606" t="s">
+        <v>82</v>
+      </c>
+      <c r="B606" t="s">
+        <v>26</v>
+      </c>
+      <c r="C606">
+        <v>2020</v>
+      </c>
+      <c r="D606">
+        <v>2020</v>
+      </c>
+      <c r="E606">
+        <v>0</v>
+      </c>
+      <c r="F606">
+        <v>9</v>
+      </c>
+      <c r="G606">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A607" t="s">
+        <v>82</v>
+      </c>
+      <c r="B607" t="s">
+        <v>27</v>
+      </c>
+      <c r="C607">
+        <v>2020</v>
+      </c>
+      <c r="D607">
+        <v>2020</v>
+      </c>
+      <c r="E607">
+        <v>0</v>
+      </c>
+      <c r="F607">
+        <v>9</v>
+      </c>
+      <c r="G607">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A608" t="s">
+        <v>82</v>
+      </c>
+      <c r="B608" t="s">
+        <v>44</v>
+      </c>
+      <c r="C608">
+        <v>2020</v>
+      </c>
+      <c r="D608">
+        <v>2020</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+      <c r="F608">
+        <v>9</v>
+      </c>
+      <c r="G608">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A609" t="s">
+        <v>82</v>
+      </c>
+      <c r="B609" t="s">
+        <v>28</v>
+      </c>
+      <c r="C609">
+        <v>2020</v>
+      </c>
+      <c r="D609">
+        <v>2020</v>
+      </c>
+      <c r="E609">
+        <v>0</v>
+      </c>
+      <c r="F609">
+        <v>9</v>
+      </c>
+      <c r="G609">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A610" t="s">
+        <v>82</v>
+      </c>
+      <c r="B610" t="s">
+        <v>29</v>
+      </c>
+      <c r="C610">
+        <v>2020</v>
+      </c>
+      <c r="D610">
+        <v>2020</v>
+      </c>
+      <c r="E610">
+        <v>0</v>
+      </c>
+      <c r="F610">
+        <v>9</v>
+      </c>
+      <c r="G610">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A611" t="s">
+        <v>82</v>
+      </c>
+      <c r="B611" t="s">
+        <v>2</v>
+      </c>
+      <c r="C611">
+        <v>2021</v>
+      </c>
+      <c r="D611">
+        <v>2021</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="F611">
+        <v>9</v>
+      </c>
+      <c r="G611">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A612" t="s">
+        <v>82</v>
+      </c>
+      <c r="B612" t="s">
+        <v>3</v>
+      </c>
+      <c r="C612">
+        <v>2021</v>
+      </c>
+      <c r="D612">
+        <v>2021</v>
+      </c>
+      <c r="E612">
+        <v>0</v>
+      </c>
+      <c r="F612">
+        <v>9</v>
+      </c>
+      <c r="G612">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A613" t="s">
+        <v>82</v>
+      </c>
+      <c r="B613" t="s">
+        <v>76</v>
+      </c>
+      <c r="C613">
+        <v>2021</v>
+      </c>
+      <c r="D613">
+        <v>2021</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+      <c r="F613">
+        <v>9</v>
+      </c>
+      <c r="G613">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A614" t="s">
+        <v>82</v>
+      </c>
+      <c r="B614" t="s">
+        <v>30</v>
+      </c>
+      <c r="C614">
+        <v>2021</v>
+      </c>
+      <c r="D614">
+        <v>2021</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="F614">
+        <v>9</v>
+      </c>
+      <c r="G614">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A615" t="s">
+        <v>82</v>
+      </c>
+      <c r="B615" t="s">
+        <v>31</v>
+      </c>
+      <c r="C615">
+        <v>2021</v>
+      </c>
+      <c r="D615">
+        <v>2021</v>
+      </c>
+      <c r="E615">
+        <v>0</v>
+      </c>
+      <c r="F615">
+        <v>9</v>
+      </c>
+      <c r="G615">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A616" t="s">
+        <v>82</v>
+      </c>
+      <c r="B616" t="s">
+        <v>4</v>
+      </c>
+      <c r="C616">
+        <v>2021</v>
+      </c>
+      <c r="D616">
+        <v>2021</v>
+      </c>
+      <c r="E616">
+        <v>0</v>
+      </c>
+      <c r="F616">
+        <v>9</v>
+      </c>
+      <c r="G616">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A617" t="s">
+        <v>82</v>
+      </c>
+      <c r="B617" t="s">
+        <v>5</v>
+      </c>
+      <c r="C617">
+        <v>2021</v>
+      </c>
+      <c r="D617">
+        <v>2021</v>
+      </c>
+      <c r="E617">
+        <v>0</v>
+      </c>
+      <c r="F617">
+        <v>9</v>
+      </c>
+      <c r="G617">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A618" t="s">
+        <v>82</v>
+      </c>
+      <c r="B618" t="s">
+        <v>32</v>
+      </c>
+      <c r="C618">
+        <v>2021</v>
+      </c>
+      <c r="D618">
+        <v>2021</v>
+      </c>
+      <c r="E618">
+        <v>0</v>
+      </c>
+      <c r="F618">
+        <v>9</v>
+      </c>
+      <c r="G618">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A619" t="s">
+        <v>82</v>
+      </c>
+      <c r="B619" t="s">
+        <v>6</v>
+      </c>
+      <c r="C619">
+        <v>2021</v>
+      </c>
+      <c r="D619">
+        <v>2021</v>
+      </c>
+      <c r="E619">
+        <v>0</v>
+      </c>
+      <c r="F619">
+        <v>9</v>
+      </c>
+      <c r="G619">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A620" t="s">
+        <v>82</v>
+      </c>
+      <c r="B620" t="s">
+        <v>7</v>
+      </c>
+      <c r="C620">
+        <v>2021</v>
+      </c>
+      <c r="D620">
+        <v>2021</v>
+      </c>
+      <c r="E620">
+        <v>0</v>
+      </c>
+      <c r="F620">
+        <v>9</v>
+      </c>
+      <c r="G620">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A621" t="s">
+        <v>82</v>
+      </c>
+      <c r="B621" t="s">
+        <v>8</v>
+      </c>
+      <c r="C621">
+        <v>2021</v>
+      </c>
+      <c r="D621">
+        <v>2021</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+      <c r="F621">
+        <v>9</v>
+      </c>
+      <c r="G621">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A622" t="s">
+        <v>82</v>
+      </c>
+      <c r="B622" t="s">
+        <v>9</v>
+      </c>
+      <c r="C622">
+        <v>2021</v>
+      </c>
+      <c r="D622">
+        <v>2021</v>
+      </c>
+      <c r="E622">
+        <v>0</v>
+      </c>
+      <c r="F622">
+        <v>9</v>
+      </c>
+      <c r="G622">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A623" t="s">
+        <v>82</v>
+      </c>
+      <c r="B623" t="s">
+        <v>33</v>
+      </c>
+      <c r="C623">
+        <v>2021</v>
+      </c>
+      <c r="D623">
+        <v>2021</v>
+      </c>
+      <c r="E623">
+        <v>0</v>
+      </c>
+      <c r="F623">
+        <v>9</v>
+      </c>
+      <c r="G623">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A624" t="s">
+        <v>82</v>
+      </c>
+      <c r="B624" t="s">
+        <v>10</v>
+      </c>
+      <c r="C624">
+        <v>2021</v>
+      </c>
+      <c r="D624">
+        <v>2021</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+      <c r="F624">
+        <v>9</v>
+      </c>
+      <c r="G624">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A625" t="s">
+        <v>82</v>
+      </c>
+      <c r="B625" t="s">
+        <v>11</v>
+      </c>
+      <c r="C625">
+        <v>2021</v>
+      </c>
+      <c r="D625">
+        <v>2021</v>
+      </c>
+      <c r="E625">
+        <v>0</v>
+      </c>
+      <c r="F625">
+        <v>9</v>
+      </c>
+      <c r="G625">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A626" t="s">
+        <v>82</v>
+      </c>
+      <c r="B626" t="s">
+        <v>12</v>
+      </c>
+      <c r="C626">
+        <v>2021</v>
+      </c>
+      <c r="D626">
+        <v>2021</v>
+      </c>
+      <c r="E626">
+        <v>0</v>
+      </c>
+      <c r="F626">
+        <v>9</v>
+      </c>
+      <c r="G626">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A627" t="s">
+        <v>82</v>
+      </c>
+      <c r="B627" t="s">
+        <v>13</v>
+      </c>
+      <c r="C627">
+        <v>2021</v>
+      </c>
+      <c r="D627">
+        <v>2021</v>
+      </c>
+      <c r="E627">
+        <v>0</v>
+      </c>
+      <c r="F627">
+        <v>9</v>
+      </c>
+      <c r="G627">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A628" t="s">
+        <v>82</v>
+      </c>
+      <c r="B628" t="s">
+        <v>14</v>
+      </c>
+      <c r="C628">
+        <v>2021</v>
+      </c>
+      <c r="D628">
+        <v>2021</v>
+      </c>
+      <c r="E628">
+        <v>0</v>
+      </c>
+      <c r="F628">
+        <v>9</v>
+      </c>
+      <c r="G628">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A629" t="s">
+        <v>82</v>
+      </c>
+      <c r="B629" t="s">
+        <v>15</v>
+      </c>
+      <c r="C629">
+        <v>2021</v>
+      </c>
+      <c r="D629">
+        <v>2021</v>
+      </c>
+      <c r="E629">
+        <v>0</v>
+      </c>
+      <c r="F629">
+        <v>9</v>
+      </c>
+      <c r="G629">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A630" t="s">
+        <v>82</v>
+      </c>
+      <c r="B630" t="s">
+        <v>16</v>
+      </c>
+      <c r="C630">
+        <v>2021</v>
+      </c>
+      <c r="D630">
+        <v>2021</v>
+      </c>
+      <c r="E630">
+        <v>0</v>
+      </c>
+      <c r="F630">
+        <v>9</v>
+      </c>
+      <c r="G630">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A631" t="s">
+        <v>82</v>
+      </c>
+      <c r="B631" t="s">
+        <v>17</v>
+      </c>
+      <c r="C631">
+        <v>2021</v>
+      </c>
+      <c r="D631">
+        <v>2021</v>
+      </c>
+      <c r="E631">
+        <v>0</v>
+      </c>
+      <c r="F631">
+        <v>9</v>
+      </c>
+      <c r="G631">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A632" t="s">
+        <v>82</v>
+      </c>
+      <c r="B632" t="s">
+        <v>34</v>
+      </c>
+      <c r="C632">
+        <v>2021</v>
+      </c>
+      <c r="D632">
+        <v>2021</v>
+      </c>
+      <c r="E632">
+        <v>0</v>
+      </c>
+      <c r="F632">
+        <v>9</v>
+      </c>
+      <c r="G632">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A633" t="s">
+        <v>82</v>
+      </c>
+      <c r="B633" t="s">
+        <v>18</v>
+      </c>
+      <c r="C633">
+        <v>2021</v>
+      </c>
+      <c r="D633">
+        <v>2021</v>
+      </c>
+      <c r="E633">
+        <v>0</v>
+      </c>
+      <c r="F633">
+        <v>9</v>
+      </c>
+      <c r="G633">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A634" t="s">
+        <v>82</v>
+      </c>
+      <c r="B634" t="s">
+        <v>19</v>
+      </c>
+      <c r="C634">
+        <v>2021</v>
+      </c>
+      <c r="D634">
+        <v>2021</v>
+      </c>
+      <c r="E634">
+        <v>0</v>
+      </c>
+      <c r="F634">
+        <v>9</v>
+      </c>
+      <c r="G634">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A635" t="s">
+        <v>82</v>
+      </c>
+      <c r="B635" t="s">
+        <v>20</v>
+      </c>
+      <c r="C635">
+        <v>2021</v>
+      </c>
+      <c r="D635">
+        <v>2021</v>
+      </c>
+      <c r="E635">
+        <v>0</v>
+      </c>
+      <c r="F635">
+        <v>9</v>
+      </c>
+      <c r="G635">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A636" t="s">
+        <v>82</v>
+      </c>
+      <c r="B636" t="s">
+        <v>21</v>
+      </c>
+      <c r="C636">
+        <v>2021</v>
+      </c>
+      <c r="D636">
+        <v>2021</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+      <c r="F636">
+        <v>9</v>
+      </c>
+      <c r="G636">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A637" t="s">
+        <v>82</v>
+      </c>
+      <c r="B637" t="s">
+        <v>22</v>
+      </c>
+      <c r="C637">
+        <v>2021</v>
+      </c>
+      <c r="D637">
+        <v>2021</v>
+      </c>
+      <c r="E637">
+        <v>0</v>
+      </c>
+      <c r="F637">
+        <v>9</v>
+      </c>
+      <c r="G637">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A638" t="s">
+        <v>82</v>
+      </c>
+      <c r="B638" t="s">
+        <v>23</v>
+      </c>
+      <c r="C638">
+        <v>2021</v>
+      </c>
+      <c r="D638">
+        <v>2021</v>
+      </c>
+      <c r="E638">
+        <v>0</v>
+      </c>
+      <c r="F638">
+        <v>9</v>
+      </c>
+      <c r="G638">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A639" t="s">
+        <v>82</v>
+      </c>
+      <c r="B639" t="s">
+        <v>24</v>
+      </c>
+      <c r="C639">
+        <v>2021</v>
+      </c>
+      <c r="D639">
+        <v>2021</v>
+      </c>
+      <c r="E639">
+        <v>0</v>
+      </c>
+      <c r="F639">
+        <v>9</v>
+      </c>
+      <c r="G639">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A640" t="s">
+        <v>82</v>
+      </c>
+      <c r="B640" t="s">
+        <v>25</v>
+      </c>
+      <c r="C640">
+        <v>2021</v>
+      </c>
+      <c r="D640">
+        <v>2021</v>
+      </c>
+      <c r="E640">
+        <v>0</v>
+      </c>
+      <c r="F640">
+        <v>9</v>
+      </c>
+      <c r="G640">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A641" t="s">
+        <v>82</v>
+      </c>
+      <c r="B641" t="s">
+        <v>26</v>
+      </c>
+      <c r="C641">
+        <v>2021</v>
+      </c>
+      <c r="D641">
+        <v>2021</v>
+      </c>
+      <c r="E641">
+        <v>0</v>
+      </c>
+      <c r="F641">
+        <v>9</v>
+      </c>
+      <c r="G641">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A642" t="s">
+        <v>82</v>
+      </c>
+      <c r="B642" t="s">
+        <v>27</v>
+      </c>
+      <c r="C642">
+        <v>2021</v>
+      </c>
+      <c r="D642">
+        <v>2021</v>
+      </c>
+      <c r="E642">
+        <v>0</v>
+      </c>
+      <c r="F642">
+        <v>9</v>
+      </c>
+      <c r="G642">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A643" t="s">
+        <v>82</v>
+      </c>
+      <c r="B643" t="s">
+        <v>44</v>
+      </c>
+      <c r="C643">
+        <v>2021</v>
+      </c>
+      <c r="D643">
+        <v>2021</v>
+      </c>
+      <c r="E643">
+        <v>0</v>
+      </c>
+      <c r="F643">
+        <v>9</v>
+      </c>
+      <c r="G643">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A644" t="s">
+        <v>82</v>
+      </c>
+      <c r="B644" t="s">
+        <v>28</v>
+      </c>
+      <c r="C644">
+        <v>2021</v>
+      </c>
+      <c r="D644">
+        <v>2021</v>
+      </c>
+      <c r="E644">
+        <v>0</v>
+      </c>
+      <c r="F644">
+        <v>9</v>
+      </c>
+      <c r="G644">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A645" t="s">
+        <v>82</v>
+      </c>
+      <c r="B645" t="s">
+        <v>29</v>
+      </c>
+      <c r="C645">
+        <v>2021</v>
+      </c>
+      <c r="D645">
+        <v>2021</v>
+      </c>
+      <c r="E645">
+        <v>0</v>
+      </c>
+      <c r="F645">
+        <v>9</v>
+      </c>
+      <c r="G645">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A646" t="s">
+        <v>82</v>
+      </c>
+      <c r="B646" t="s">
+        <v>2</v>
+      </c>
+      <c r="C646">
+        <v>2022</v>
+      </c>
+      <c r="D646">
+        <v>2022</v>
+      </c>
+      <c r="E646">
+        <v>0</v>
+      </c>
+      <c r="F646">
+        <v>9</v>
+      </c>
+      <c r="G646">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A647" t="s">
+        <v>82</v>
+      </c>
+      <c r="B647" t="s">
+        <v>3</v>
+      </c>
+      <c r="C647">
+        <v>2022</v>
+      </c>
+      <c r="D647">
+        <v>2022</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+      <c r="F647">
+        <v>9</v>
+      </c>
+      <c r="G647">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A648" t="s">
+        <v>82</v>
+      </c>
+      <c r="B648" t="s">
+        <v>76</v>
+      </c>
+      <c r="C648">
+        <v>2022</v>
+      </c>
+      <c r="D648">
+        <v>2022</v>
+      </c>
+      <c r="E648">
+        <v>0</v>
+      </c>
+      <c r="F648">
+        <v>9</v>
+      </c>
+      <c r="G648">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A649" t="s">
+        <v>82</v>
+      </c>
+      <c r="B649" t="s">
+        <v>30</v>
+      </c>
+      <c r="C649">
+        <v>2022</v>
+      </c>
+      <c r="D649">
+        <v>2022</v>
+      </c>
+      <c r="E649">
+        <v>0</v>
+      </c>
+      <c r="F649">
+        <v>9</v>
+      </c>
+      <c r="G649">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A650" t="s">
+        <v>82</v>
+      </c>
+      <c r="B650" t="s">
+        <v>31</v>
+      </c>
+      <c r="C650">
+        <v>2022</v>
+      </c>
+      <c r="D650">
+        <v>2022</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+      <c r="F650">
+        <v>9</v>
+      </c>
+      <c r="G650">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A651" t="s">
+        <v>82</v>
+      </c>
+      <c r="B651" t="s">
+        <v>4</v>
+      </c>
+      <c r="C651">
+        <v>2022</v>
+      </c>
+      <c r="D651">
+        <v>2022</v>
+      </c>
+      <c r="E651">
+        <v>0</v>
+      </c>
+      <c r="F651">
+        <v>9</v>
+      </c>
+      <c r="G651">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A652" t="s">
+        <v>82</v>
+      </c>
+      <c r="B652" t="s">
+        <v>5</v>
+      </c>
+      <c r="C652">
+        <v>2022</v>
+      </c>
+      <c r="D652">
+        <v>2022</v>
+      </c>
+      <c r="E652">
+        <v>0</v>
+      </c>
+      <c r="F652">
+        <v>9</v>
+      </c>
+      <c r="G652">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A653" t="s">
+        <v>82</v>
+      </c>
+      <c r="B653" t="s">
+        <v>32</v>
+      </c>
+      <c r="C653">
+        <v>2022</v>
+      </c>
+      <c r="D653">
+        <v>2022</v>
+      </c>
+      <c r="E653">
+        <v>0</v>
+      </c>
+      <c r="F653">
+        <v>9</v>
+      </c>
+      <c r="G653">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A654" t="s">
+        <v>82</v>
+      </c>
+      <c r="B654" t="s">
+        <v>6</v>
+      </c>
+      <c r="C654">
+        <v>2022</v>
+      </c>
+      <c r="D654">
+        <v>2022</v>
+      </c>
+      <c r="E654">
+        <v>0</v>
+      </c>
+      <c r="F654">
+        <v>9</v>
+      </c>
+      <c r="G654">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A655" t="s">
+        <v>82</v>
+      </c>
+      <c r="B655" t="s">
+        <v>7</v>
+      </c>
+      <c r="C655">
+        <v>2022</v>
+      </c>
+      <c r="D655">
+        <v>2022</v>
+      </c>
+      <c r="E655">
+        <v>0</v>
+      </c>
+      <c r="F655">
+        <v>9</v>
+      </c>
+      <c r="G655">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A656" t="s">
+        <v>82</v>
+      </c>
+      <c r="B656" t="s">
+        <v>8</v>
+      </c>
+      <c r="C656">
+        <v>2022</v>
+      </c>
+      <c r="D656">
+        <v>2022</v>
+      </c>
+      <c r="E656">
+        <v>0</v>
+      </c>
+      <c r="F656">
+        <v>9</v>
+      </c>
+      <c r="G656">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A657" t="s">
+        <v>82</v>
+      </c>
+      <c r="B657" t="s">
+        <v>9</v>
+      </c>
+      <c r="C657">
+        <v>2022</v>
+      </c>
+      <c r="D657">
+        <v>2022</v>
+      </c>
+      <c r="E657">
+        <v>0</v>
+      </c>
+      <c r="F657">
+        <v>9</v>
+      </c>
+      <c r="G657">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A658" t="s">
+        <v>82</v>
+      </c>
+      <c r="B658" t="s">
+        <v>33</v>
+      </c>
+      <c r="C658">
+        <v>2022</v>
+      </c>
+      <c r="D658">
+        <v>2022</v>
+      </c>
+      <c r="E658">
+        <v>0</v>
+      </c>
+      <c r="F658">
+        <v>9</v>
+      </c>
+      <c r="G658">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A659" t="s">
+        <v>82</v>
+      </c>
+      <c r="B659" t="s">
+        <v>10</v>
+      </c>
+      <c r="C659">
+        <v>2022</v>
+      </c>
+      <c r="D659">
+        <v>2022</v>
+      </c>
+      <c r="E659">
+        <v>0</v>
+      </c>
+      <c r="F659">
+        <v>9</v>
+      </c>
+      <c r="G659">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A660" t="s">
+        <v>82</v>
+      </c>
+      <c r="B660" t="s">
+        <v>11</v>
+      </c>
+      <c r="C660">
+        <v>2022</v>
+      </c>
+      <c r="D660">
+        <v>2022</v>
+      </c>
+      <c r="E660">
+        <v>0</v>
+      </c>
+      <c r="F660">
+        <v>9</v>
+      </c>
+      <c r="G660">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A661" t="s">
+        <v>82</v>
+      </c>
+      <c r="B661" t="s">
+        <v>12</v>
+      </c>
+      <c r="C661">
+        <v>2022</v>
+      </c>
+      <c r="D661">
+        <v>2022</v>
+      </c>
+      <c r="E661">
+        <v>0</v>
+      </c>
+      <c r="F661">
+        <v>9</v>
+      </c>
+      <c r="G661">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A662" t="s">
+        <v>82</v>
+      </c>
+      <c r="B662" t="s">
+        <v>13</v>
+      </c>
+      <c r="C662">
+        <v>2022</v>
+      </c>
+      <c r="D662">
+        <v>2022</v>
+      </c>
+      <c r="E662">
+        <v>0</v>
+      </c>
+      <c r="F662">
+        <v>9</v>
+      </c>
+      <c r="G662">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A663" t="s">
+        <v>82</v>
+      </c>
+      <c r="B663" t="s">
+        <v>14</v>
+      </c>
+      <c r="C663">
+        <v>2022</v>
+      </c>
+      <c r="D663">
+        <v>2022</v>
+      </c>
+      <c r="E663">
+        <v>0</v>
+      </c>
+      <c r="F663">
+        <v>9</v>
+      </c>
+      <c r="G663">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A664" t="s">
+        <v>82</v>
+      </c>
+      <c r="B664" t="s">
+        <v>15</v>
+      </c>
+      <c r="C664">
+        <v>2022</v>
+      </c>
+      <c r="D664">
+        <v>2022</v>
+      </c>
+      <c r="E664">
+        <v>0</v>
+      </c>
+      <c r="F664">
+        <v>9</v>
+      </c>
+      <c r="G664">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A665" t="s">
+        <v>82</v>
+      </c>
+      <c r="B665" t="s">
+        <v>16</v>
+      </c>
+      <c r="C665">
+        <v>2022</v>
+      </c>
+      <c r="D665">
+        <v>2022</v>
+      </c>
+      <c r="E665">
+        <v>0</v>
+      </c>
+      <c r="F665">
+        <v>9</v>
+      </c>
+      <c r="G665">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A666" t="s">
+        <v>82</v>
+      </c>
+      <c r="B666" t="s">
+        <v>17</v>
+      </c>
+      <c r="C666">
+        <v>2022</v>
+      </c>
+      <c r="D666">
+        <v>2022</v>
+      </c>
+      <c r="E666">
+        <v>0</v>
+      </c>
+      <c r="F666">
+        <v>9</v>
+      </c>
+      <c r="G666">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A667" t="s">
+        <v>82</v>
+      </c>
+      <c r="B667" t="s">
+        <v>34</v>
+      </c>
+      <c r="C667">
+        <v>2022</v>
+      </c>
+      <c r="D667">
+        <v>2022</v>
+      </c>
+      <c r="E667">
+        <v>0</v>
+      </c>
+      <c r="F667">
+        <v>9</v>
+      </c>
+      <c r="G667">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A668" t="s">
+        <v>82</v>
+      </c>
+      <c r="B668" t="s">
+        <v>35</v>
+      </c>
+      <c r="C668">
+        <v>2022</v>
+      </c>
+      <c r="D668">
+        <v>2022</v>
+      </c>
+      <c r="E668">
+        <v>0</v>
+      </c>
+      <c r="F668">
+        <v>9</v>
+      </c>
+      <c r="G668">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A669" t="s">
+        <v>82</v>
+      </c>
+      <c r="B669" t="s">
+        <v>19</v>
+      </c>
+      <c r="C669">
+        <v>2022</v>
+      </c>
+      <c r="D669">
+        <v>2022</v>
+      </c>
+      <c r="E669">
+        <v>0</v>
+      </c>
+      <c r="F669">
+        <v>9</v>
+      </c>
+      <c r="G669">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A670" t="s">
+        <v>82</v>
+      </c>
+      <c r="B670" t="s">
+        <v>20</v>
+      </c>
+      <c r="C670">
+        <v>2022</v>
+      </c>
+      <c r="D670">
+        <v>2022</v>
+      </c>
+      <c r="E670">
+        <v>0</v>
+      </c>
+      <c r="F670">
+        <v>9</v>
+      </c>
+      <c r="G670">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A671" t="s">
+        <v>82</v>
+      </c>
+      <c r="B671" t="s">
+        <v>21</v>
+      </c>
+      <c r="C671">
+        <v>2022</v>
+      </c>
+      <c r="D671">
+        <v>2022</v>
+      </c>
+      <c r="E671">
+        <v>0</v>
+      </c>
+      <c r="F671">
+        <v>9</v>
+      </c>
+      <c r="G671">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A672" t="s">
+        <v>82</v>
+      </c>
+      <c r="B672" t="s">
+        <v>22</v>
+      </c>
+      <c r="C672">
+        <v>2022</v>
+      </c>
+      <c r="D672">
+        <v>2022</v>
+      </c>
+      <c r="E672">
+        <v>0</v>
+      </c>
+      <c r="F672">
+        <v>9</v>
+      </c>
+      <c r="G672">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A673" t="s">
+        <v>82</v>
+      </c>
+      <c r="B673" t="s">
+        <v>23</v>
+      </c>
+      <c r="C673">
+        <v>2022</v>
+      </c>
+      <c r="D673">
+        <v>2022</v>
+      </c>
+      <c r="E673">
+        <v>0</v>
+      </c>
+      <c r="F673">
+        <v>9</v>
+      </c>
+      <c r="G673">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A674" t="s">
+        <v>82</v>
+      </c>
+      <c r="B674" t="s">
+        <v>24</v>
+      </c>
+      <c r="C674">
+        <v>2022</v>
+      </c>
+      <c r="D674">
+        <v>2022</v>
+      </c>
+      <c r="E674">
+        <v>0</v>
+      </c>
+      <c r="F674">
+        <v>9</v>
+      </c>
+      <c r="G674">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A675" t="s">
+        <v>82</v>
+      </c>
+      <c r="B675" t="s">
+        <v>25</v>
+      </c>
+      <c r="C675">
+        <v>2022</v>
+      </c>
+      <c r="D675">
+        <v>2022</v>
+      </c>
+      <c r="E675">
+        <v>0</v>
+      </c>
+      <c r="F675">
+        <v>9</v>
+      </c>
+      <c r="G675">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A676" t="s">
+        <v>82</v>
+      </c>
+      <c r="B676" t="s">
+        <v>26</v>
+      </c>
+      <c r="C676">
+        <v>2022</v>
+      </c>
+      <c r="D676">
+        <v>2022</v>
+      </c>
+      <c r="E676">
+        <v>0</v>
+      </c>
+      <c r="F676">
+        <v>9</v>
+      </c>
+      <c r="G676">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A677" t="s">
+        <v>82</v>
+      </c>
+      <c r="B677" t="s">
+        <v>27</v>
+      </c>
+      <c r="C677">
+        <v>2022</v>
+      </c>
+      <c r="D677">
+        <v>2022</v>
+      </c>
+      <c r="E677">
+        <v>0</v>
+      </c>
+      <c r="F677">
+        <v>9</v>
+      </c>
+      <c r="G677">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A678" t="s">
+        <v>82</v>
+      </c>
+      <c r="B678" t="s">
+        <v>44</v>
+      </c>
+      <c r="C678">
+        <v>2022</v>
+      </c>
+      <c r="D678">
+        <v>2022</v>
+      </c>
+      <c r="E678">
+        <v>0</v>
+      </c>
+      <c r="F678">
+        <v>9</v>
+      </c>
+      <c r="G678">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A679" t="s">
+        <v>82</v>
+      </c>
+      <c r="B679" t="s">
+        <v>28</v>
+      </c>
+      <c r="C679">
+        <v>2022</v>
+      </c>
+      <c r="D679">
+        <v>2022</v>
+      </c>
+      <c r="E679">
+        <v>0</v>
+      </c>
+      <c r="F679">
+        <v>9</v>
+      </c>
+      <c r="G679">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A680" t="s">
+        <v>82</v>
+      </c>
+      <c r="B680" t="s">
+        <v>29</v>
+      </c>
+      <c r="C680">
+        <v>2022</v>
+      </c>
+      <c r="D680">
+        <v>2022</v>
+      </c>
+      <c r="E680">
+        <v>0</v>
+      </c>
+      <c r="F680">
+        <v>9</v>
+      </c>
+      <c r="G680">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A681" t="s">
+        <v>82</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2</v>
+      </c>
+      <c r="C681">
+        <v>2023</v>
+      </c>
+      <c r="D681">
+        <v>2023</v>
+      </c>
+      <c r="E681">
+        <v>0</v>
+      </c>
+      <c r="F681">
+        <v>9</v>
+      </c>
+      <c r="G681">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A682" t="s">
+        <v>82</v>
+      </c>
+      <c r="B682" t="s">
+        <v>3</v>
+      </c>
+      <c r="C682">
+        <v>2023</v>
+      </c>
+      <c r="D682">
+        <v>2023</v>
+      </c>
+      <c r="E682">
+        <v>0</v>
+      </c>
+      <c r="F682">
+        <v>9</v>
+      </c>
+      <c r="G682">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A683" t="s">
+        <v>82</v>
+      </c>
+      <c r="B683" t="s">
+        <v>76</v>
+      </c>
+      <c r="C683">
+        <v>2023</v>
+      </c>
+      <c r="D683">
+        <v>2023</v>
+      </c>
+      <c r="E683">
+        <v>0</v>
+      </c>
+      <c r="F683">
+        <v>9</v>
+      </c>
+      <c r="G683">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A684" t="s">
+        <v>82</v>
+      </c>
+      <c r="B684" t="s">
+        <v>30</v>
+      </c>
+      <c r="C684">
+        <v>2023</v>
+      </c>
+      <c r="D684">
+        <v>2023</v>
+      </c>
+      <c r="E684">
+        <v>0</v>
+      </c>
+      <c r="F684">
+        <v>9</v>
+      </c>
+      <c r="G684">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A685" t="s">
+        <v>82</v>
+      </c>
+      <c r="B685" t="s">
+        <v>31</v>
+      </c>
+      <c r="C685">
+        <v>2023</v>
+      </c>
+      <c r="D685">
+        <v>2023</v>
+      </c>
+      <c r="E685">
+        <v>0</v>
+      </c>
+      <c r="F685">
+        <v>9</v>
+      </c>
+      <c r="G685">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A686" t="s">
+        <v>82</v>
+      </c>
+      <c r="B686" t="s">
+        <v>36</v>
+      </c>
+      <c r="C686">
+        <v>2023</v>
+      </c>
+      <c r="D686">
+        <v>2023</v>
+      </c>
+      <c r="E686">
+        <v>0</v>
+      </c>
+      <c r="F686">
+        <v>9</v>
+      </c>
+      <c r="G686">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A687" t="s">
+        <v>82</v>
+      </c>
+      <c r="B687" t="s">
+        <v>4</v>
+      </c>
+      <c r="C687">
+        <v>2023</v>
+      </c>
+      <c r="D687">
+        <v>2023</v>
+      </c>
+      <c r="E687">
+        <v>0</v>
+      </c>
+      <c r="F687">
+        <v>9</v>
+      </c>
+      <c r="G687">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A688" t="s">
+        <v>82</v>
+      </c>
+      <c r="B688" t="s">
+        <v>5</v>
+      </c>
+      <c r="C688">
+        <v>2023</v>
+      </c>
+      <c r="D688">
+        <v>2023</v>
+      </c>
+      <c r="E688">
+        <v>0</v>
+      </c>
+      <c r="F688">
+        <v>9</v>
+      </c>
+      <c r="G688">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A689" t="s">
+        <v>82</v>
+      </c>
+      <c r="B689" t="s">
+        <v>32</v>
+      </c>
+      <c r="C689">
+        <v>2023</v>
+      </c>
+      <c r="D689">
+        <v>2023</v>
+      </c>
+      <c r="E689">
+        <v>0</v>
+      </c>
+      <c r="F689">
+        <v>9</v>
+      </c>
+      <c r="G689">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A690" t="s">
+        <v>82</v>
+      </c>
+      <c r="B690" t="s">
+        <v>6</v>
+      </c>
+      <c r="C690">
+        <v>2023</v>
+      </c>
+      <c r="D690">
+        <v>2023</v>
+      </c>
+      <c r="E690">
+        <v>0</v>
+      </c>
+      <c r="F690">
+        <v>9</v>
+      </c>
+      <c r="G690">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A691" t="s">
+        <v>82</v>
+      </c>
+      <c r="B691" t="s">
+        <v>7</v>
+      </c>
+      <c r="C691">
+        <v>2023</v>
+      </c>
+      <c r="D691">
+        <v>2023</v>
+      </c>
+      <c r="E691">
+        <v>0</v>
+      </c>
+      <c r="F691">
+        <v>9</v>
+      </c>
+      <c r="G691">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A692" t="s">
+        <v>82</v>
+      </c>
+      <c r="B692" t="s">
+        <v>8</v>
+      </c>
+      <c r="C692">
+        <v>2023</v>
+      </c>
+      <c r="D692">
+        <v>2023</v>
+      </c>
+      <c r="E692">
+        <v>0</v>
+      </c>
+      <c r="F692">
+        <v>9</v>
+      </c>
+      <c r="G692">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A693" t="s">
+        <v>82</v>
+      </c>
+      <c r="B693" t="s">
+        <v>9</v>
+      </c>
+      <c r="C693">
+        <v>2023</v>
+      </c>
+      <c r="D693">
+        <v>2023</v>
+      </c>
+      <c r="E693">
+        <v>0</v>
+      </c>
+      <c r="F693">
+        <v>9</v>
+      </c>
+      <c r="G693">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A694" t="s">
+        <v>82</v>
+      </c>
+      <c r="B694" t="s">
+        <v>33</v>
+      </c>
+      <c r="C694">
+        <v>2023</v>
+      </c>
+      <c r="D694">
+        <v>2023</v>
+      </c>
+      <c r="E694">
+        <v>0</v>
+      </c>
+      <c r="F694">
+        <v>9</v>
+      </c>
+      <c r="G694">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A695" t="s">
+        <v>82</v>
+      </c>
+      <c r="B695" t="s">
+        <v>10</v>
+      </c>
+      <c r="C695">
+        <v>2023</v>
+      </c>
+      <c r="D695">
+        <v>2023</v>
+      </c>
+      <c r="E695">
+        <v>0</v>
+      </c>
+      <c r="F695">
+        <v>9</v>
+      </c>
+      <c r="G695">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A696" t="s">
+        <v>82</v>
+      </c>
+      <c r="B696" t="s">
+        <v>11</v>
+      </c>
+      <c r="C696">
+        <v>2023</v>
+      </c>
+      <c r="D696">
+        <v>2023</v>
+      </c>
+      <c r="E696">
+        <v>0</v>
+      </c>
+      <c r="F696">
+        <v>9</v>
+      </c>
+      <c r="G696">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A697" t="s">
+        <v>82</v>
+      </c>
+      <c r="B697" t="s">
+        <v>37</v>
+      </c>
+      <c r="C697">
+        <v>2023</v>
+      </c>
+      <c r="D697">
+        <v>2023</v>
+      </c>
+      <c r="E697">
+        <v>0</v>
+      </c>
+      <c r="F697">
+        <v>9</v>
+      </c>
+      <c r="G697">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A698" t="s">
+        <v>82</v>
+      </c>
+      <c r="B698" t="s">
+        <v>38</v>
+      </c>
+      <c r="C698">
+        <v>2023</v>
+      </c>
+      <c r="D698">
+        <v>2023</v>
+      </c>
+      <c r="E698">
+        <v>0</v>
+      </c>
+      <c r="F698">
+        <v>9</v>
+      </c>
+      <c r="G698">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A699" t="s">
+        <v>82</v>
+      </c>
+      <c r="B699" t="s">
+        <v>14</v>
+      </c>
+      <c r="C699">
+        <v>2023</v>
+      </c>
+      <c r="D699">
+        <v>2023</v>
+      </c>
+      <c r="E699">
+        <v>0</v>
+      </c>
+      <c r="F699">
+        <v>9</v>
+      </c>
+      <c r="G699">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A700" t="s">
+        <v>82</v>
+      </c>
+      <c r="B700" t="s">
+        <v>15</v>
+      </c>
+      <c r="C700">
+        <v>2023</v>
+      </c>
+      <c r="D700">
+        <v>2023</v>
+      </c>
+      <c r="E700">
+        <v>0</v>
+      </c>
+      <c r="F700">
+        <v>9</v>
+      </c>
+      <c r="G700">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A701" t="s">
+        <v>82</v>
+      </c>
+      <c r="B701" t="s">
+        <v>16</v>
+      </c>
+      <c r="C701">
+        <v>2023</v>
+      </c>
+      <c r="D701">
+        <v>2023</v>
+      </c>
+      <c r="E701">
+        <v>0</v>
+      </c>
+      <c r="F701">
+        <v>9</v>
+      </c>
+      <c r="G701">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A702" t="s">
+        <v>82</v>
+      </c>
+      <c r="B702" t="s">
+        <v>17</v>
+      </c>
+      <c r="C702">
+        <v>2023</v>
+      </c>
+      <c r="D702">
+        <v>2023</v>
+      </c>
+      <c r="E702">
+        <v>0</v>
+      </c>
+      <c r="F702">
+        <v>9</v>
+      </c>
+      <c r="G702">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A703" t="s">
+        <v>82</v>
+      </c>
+      <c r="B703" t="s">
+        <v>34</v>
+      </c>
+      <c r="C703">
+        <v>2023</v>
+      </c>
+      <c r="D703">
+        <v>2023</v>
+      </c>
+      <c r="E703">
+        <v>0</v>
+      </c>
+      <c r="F703">
+        <v>9</v>
+      </c>
+      <c r="G703">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A704" t="s">
+        <v>82</v>
+      </c>
+      <c r="B704" t="s">
+        <v>35</v>
+      </c>
+      <c r="C704">
+        <v>2023</v>
+      </c>
+      <c r="D704">
+        <v>2023</v>
+      </c>
+      <c r="E704">
+        <v>0</v>
+      </c>
+      <c r="F704">
+        <v>9</v>
+      </c>
+      <c r="G704">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A705" t="s">
+        <v>82</v>
+      </c>
+      <c r="B705" t="s">
+        <v>19</v>
+      </c>
+      <c r="C705">
+        <v>2023</v>
+      </c>
+      <c r="D705">
+        <v>2023</v>
+      </c>
+      <c r="E705">
+        <v>0</v>
+      </c>
+      <c r="F705">
+        <v>9</v>
+      </c>
+      <c r="G705">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A706" t="s">
+        <v>82</v>
+      </c>
+      <c r="B706" t="s">
+        <v>20</v>
+      </c>
+      <c r="C706">
+        <v>2023</v>
+      </c>
+      <c r="D706">
+        <v>2023</v>
+      </c>
+      <c r="E706">
+        <v>0</v>
+      </c>
+      <c r="F706">
+        <v>9</v>
+      </c>
+      <c r="G706">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A707" t="s">
+        <v>82</v>
+      </c>
+      <c r="B707" t="s">
+        <v>21</v>
+      </c>
+      <c r="C707">
+        <v>2023</v>
+      </c>
+      <c r="D707">
+        <v>2023</v>
+      </c>
+      <c r="E707">
+        <v>0</v>
+      </c>
+      <c r="F707">
+        <v>9</v>
+      </c>
+      <c r="G707">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A708" t="s">
+        <v>82</v>
+      </c>
+      <c r="B708" t="s">
+        <v>22</v>
+      </c>
+      <c r="C708">
+        <v>2023</v>
+      </c>
+      <c r="D708">
+        <v>2023</v>
+      </c>
+      <c r="E708">
+        <v>0</v>
+      </c>
+      <c r="F708">
+        <v>9</v>
+      </c>
+      <c r="G708">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A709" t="s">
+        <v>82</v>
+      </c>
+      <c r="B709" t="s">
+        <v>23</v>
+      </c>
+      <c r="C709">
+        <v>2023</v>
+      </c>
+      <c r="D709">
+        <v>2023</v>
+      </c>
+      <c r="E709">
+        <v>0</v>
+      </c>
+      <c r="F709">
+        <v>9</v>
+      </c>
+      <c r="G709">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A710" t="s">
+        <v>82</v>
+      </c>
+      <c r="B710" t="s">
+        <v>68</v>
+      </c>
+      <c r="C710">
+        <v>2023</v>
+      </c>
+      <c r="D710">
+        <v>2023</v>
+      </c>
+      <c r="E710">
+        <v>0</v>
+      </c>
+      <c r="F710">
+        <v>9</v>
+      </c>
+      <c r="G710">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A711" t="s">
+        <v>82</v>
+      </c>
+      <c r="B711" t="s">
+        <v>24</v>
+      </c>
+      <c r="C711">
+        <v>2023</v>
+      </c>
+      <c r="D711">
+        <v>2023</v>
+      </c>
+      <c r="E711">
+        <v>0</v>
+      </c>
+      <c r="F711">
+        <v>9</v>
+      </c>
+      <c r="G711">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A712" t="s">
+        <v>82</v>
+      </c>
+      <c r="B712" t="s">
+        <v>25</v>
+      </c>
+      <c r="C712">
+        <v>2023</v>
+      </c>
+      <c r="D712">
+        <v>2023</v>
+      </c>
+      <c r="E712">
+        <v>0</v>
+      </c>
+      <c r="F712">
+        <v>9</v>
+      </c>
+      <c r="G712">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A713" t="s">
+        <v>82</v>
+      </c>
+      <c r="B713" t="s">
+        <v>26</v>
+      </c>
+      <c r="C713">
+        <v>2023</v>
+      </c>
+      <c r="D713">
+        <v>2023</v>
+      </c>
+      <c r="E713">
+        <v>0</v>
+      </c>
+      <c r="F713">
+        <v>9</v>
+      </c>
+      <c r="G713">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A714" t="s">
+        <v>82</v>
+      </c>
+      <c r="B714" t="s">
+        <v>27</v>
+      </c>
+      <c r="C714">
+        <v>2023</v>
+      </c>
+      <c r="D714">
+        <v>2023</v>
+      </c>
+      <c r="E714">
+        <v>0</v>
+      </c>
+      <c r="F714">
+        <v>9</v>
+      </c>
+      <c r="G714">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A715" t="s">
+        <v>82</v>
+      </c>
+      <c r="B715" t="s">
+        <v>44</v>
+      </c>
+      <c r="C715">
+        <v>2023</v>
+      </c>
+      <c r="D715">
+        <v>2023</v>
+      </c>
+      <c r="E715">
+        <v>0</v>
+      </c>
+      <c r="F715">
+        <v>9</v>
+      </c>
+      <c r="G715">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A716" t="s">
+        <v>82</v>
+      </c>
+      <c r="B716" t="s">
+        <v>69</v>
+      </c>
+      <c r="C716">
+        <v>2023</v>
+      </c>
+      <c r="D716">
+        <v>2023</v>
+      </c>
+      <c r="E716">
+        <v>0</v>
+      </c>
+      <c r="F716">
+        <v>9</v>
+      </c>
+      <c r="G716">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A717" t="s">
+        <v>82</v>
+      </c>
+      <c r="B717" t="s">
+        <v>28</v>
+      </c>
+      <c r="C717">
+        <v>2023</v>
+      </c>
+      <c r="D717">
+        <v>2023</v>
+      </c>
+      <c r="E717">
+        <v>0</v>
+      </c>
+      <c r="F717">
+        <v>9</v>
+      </c>
+      <c r="G717">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A718" t="s">
+        <v>82</v>
+      </c>
+      <c r="B718" t="s">
+        <v>29</v>
+      </c>
+      <c r="C718">
+        <v>2023</v>
+      </c>
+      <c r="D718">
+        <v>2023</v>
+      </c>
+      <c r="E718">
+        <v>0</v>
+      </c>
+      <c r="F718">
+        <v>9</v>
+      </c>
+      <c r="G718">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A719" t="s">
+        <v>82</v>
+      </c>
+      <c r="B719" t="s">
+        <v>72</v>
+      </c>
+      <c r="C719">
+        <v>2023</v>
+      </c>
+      <c r="D719">
+        <v>2023</v>
+      </c>
+      <c r="E719">
+        <v>0</v>
+      </c>
+      <c r="F719">
+        <v>9</v>
+      </c>
+      <c r="G719">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A720" t="s">
+        <v>82</v>
+      </c>
+      <c r="B720" t="s">
+        <v>73</v>
+      </c>
+      <c r="C720">
+        <v>2023</v>
+      </c>
+      <c r="D720">
+        <v>2023</v>
+      </c>
+      <c r="E720">
+        <v>0</v>
+      </c>
+      <c r="F720">
+        <v>9</v>
+      </c>
+      <c r="G720">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A721" t="s">
+        <v>82</v>
+      </c>
+      <c r="B721" t="s">
+        <v>74</v>
+      </c>
+      <c r="C721">
+        <v>2023</v>
+      </c>
+      <c r="D721">
+        <v>2023</v>
+      </c>
+      <c r="E721">
+        <v>0</v>
+      </c>
+      <c r="F721">
+        <v>9</v>
+      </c>
+      <c r="G721">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A722" t="s">
+        <v>82</v>
+      </c>
+      <c r="B722" t="s">
+        <v>39</v>
+      </c>
+      <c r="C722">
+        <v>2023</v>
+      </c>
+      <c r="D722">
+        <v>2023</v>
+      </c>
+      <c r="E722">
+        <v>0</v>
+      </c>
+      <c r="F722">
+        <v>9</v>
+      </c>
+      <c r="G722">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A723" t="s">
+        <v>82</v>
+      </c>
+      <c r="B723" t="s">
+        <v>40</v>
+      </c>
+      <c r="C723">
+        <v>2023</v>
+      </c>
+      <c r="D723">
+        <v>2023</v>
+      </c>
+      <c r="E723">
+        <v>0</v>
+      </c>
+      <c r="F723">
+        <v>9</v>
+      </c>
+      <c r="G723">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A724" t="s">
+        <v>82</v>
+      </c>
+      <c r="B724" t="s">
+        <v>71</v>
+      </c>
+      <c r="C724">
+        <v>2023</v>
+      </c>
+      <c r="D724">
+        <v>2023</v>
+      </c>
+      <c r="E724">
+        <v>0</v>
+      </c>
+      <c r="F724">
+        <v>9</v>
+      </c>
+      <c r="G724">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A725" t="s">
+        <v>82</v>
+      </c>
+      <c r="B725" t="s">
+        <v>76</v>
+      </c>
+      <c r="C725">
+        <v>2023</v>
+      </c>
+      <c r="D725">
+        <v>2023</v>
+      </c>
+      <c r="E725">
+        <v>0</v>
+      </c>
+      <c r="F725">
+        <v>9</v>
+      </c>
+      <c r="G725">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A726" t="s">
+        <v>82</v>
+      </c>
+      <c r="B726" t="s">
+        <v>77</v>
+      </c>
+      <c r="C726">
+        <v>2023</v>
+      </c>
+      <c r="D726">
+        <v>2023</v>
+      </c>
+      <c r="E726">
+        <v>0</v>
+      </c>
+      <c r="F726">
+        <v>9</v>
+      </c>
+      <c r="G726">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A727" t="s">
+        <v>82</v>
+      </c>
+      <c r="B727" t="s">
+        <v>41</v>
+      </c>
+      <c r="C727">
+        <v>2023</v>
+      </c>
+      <c r="D727">
+        <v>2023</v>
+      </c>
+      <c r="E727">
+        <v>0</v>
+      </c>
+      <c r="F727">
+        <v>9</v>
+      </c>
+      <c r="G727">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A728" t="s">
+        <v>82</v>
+      </c>
+      <c r="B728" t="s">
+        <v>79</v>
+      </c>
+      <c r="C728">
+        <v>2023</v>
+      </c>
+      <c r="D728">
+        <v>2023</v>
+      </c>
+      <c r="E728">
+        <v>0</v>
+      </c>
+      <c r="F728">
+        <v>9</v>
+      </c>
+      <c r="G728">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A729" t="s">
+        <v>82</v>
+      </c>
+      <c r="B729" t="s">
+        <v>2</v>
+      </c>
+      <c r="C729">
+        <v>2024</v>
+      </c>
+      <c r="D729">
+        <v>2024</v>
+      </c>
+      <c r="E729">
+        <v>0</v>
+      </c>
+      <c r="F729">
+        <v>9</v>
+      </c>
+      <c r="G729">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A730" t="s">
+        <v>82</v>
+      </c>
+      <c r="B730" t="s">
+        <v>3</v>
+      </c>
+      <c r="C730">
+        <v>2024</v>
+      </c>
+      <c r="D730">
+        <v>2024</v>
+      </c>
+      <c r="E730">
+        <v>0</v>
+      </c>
+      <c r="F730">
+        <v>9</v>
+      </c>
+      <c r="G730">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A731" t="s">
+        <v>82</v>
+      </c>
+      <c r="B731" t="s">
+        <v>42</v>
+      </c>
+      <c r="C731">
+        <v>2024</v>
+      </c>
+      <c r="D731">
+        <v>2024</v>
+      </c>
+      <c r="E731">
+        <v>0</v>
+      </c>
+      <c r="F731">
+        <v>9</v>
+      </c>
+      <c r="G731">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A732" t="s">
+        <v>82</v>
+      </c>
+      <c r="B732" t="s">
+        <v>4</v>
+      </c>
+      <c r="C732">
+        <v>2024</v>
+      </c>
+      <c r="D732">
+        <v>2024</v>
+      </c>
+      <c r="E732">
+        <v>0</v>
+      </c>
+      <c r="F732">
+        <v>9</v>
+      </c>
+      <c r="G732">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A733" t="s">
+        <v>82</v>
+      </c>
+      <c r="B733" t="s">
+        <v>5</v>
+      </c>
+      <c r="C733">
+        <v>2024</v>
+      </c>
+      <c r="D733">
+        <v>2024</v>
+      </c>
+      <c r="E733">
+        <v>0</v>
+      </c>
+      <c r="F733">
+        <v>9</v>
+      </c>
+      <c r="G733">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A734" t="s">
+        <v>82</v>
+      </c>
+      <c r="B734" t="s">
+        <v>6</v>
+      </c>
+      <c r="C734">
+        <v>2024</v>
+      </c>
+      <c r="D734">
+        <v>2024</v>
+      </c>
+      <c r="E734">
+        <v>0</v>
+      </c>
+      <c r="F734">
+        <v>9</v>
+      </c>
+      <c r="G734">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A735" t="s">
+        <v>82</v>
+      </c>
+      <c r="B735" t="s">
+        <v>7</v>
+      </c>
+      <c r="C735">
+        <v>2024</v>
+      </c>
+      <c r="D735">
+        <v>2024</v>
+      </c>
+      <c r="E735">
+        <v>0</v>
+      </c>
+      <c r="F735">
+        <v>9</v>
+      </c>
+      <c r="G735">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A736" t="s">
+        <v>82</v>
+      </c>
+      <c r="B736" t="s">
+        <v>8</v>
+      </c>
+      <c r="C736">
+        <v>2024</v>
+      </c>
+      <c r="D736">
+        <v>2024</v>
+      </c>
+      <c r="E736">
+        <v>0</v>
+      </c>
+      <c r="F736">
+        <v>9</v>
+      </c>
+      <c r="G736">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A737" t="s">
+        <v>82</v>
+      </c>
+      <c r="B737" t="s">
+        <v>43</v>
+      </c>
+      <c r="C737">
+        <v>2024</v>
+      </c>
+      <c r="D737">
+        <v>2024</v>
+      </c>
+      <c r="E737">
+        <v>0</v>
+      </c>
+      <c r="F737">
+        <v>9</v>
+      </c>
+      <c r="G737">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A738" t="s">
+        <v>82</v>
+      </c>
+      <c r="B738" t="s">
+        <v>10</v>
+      </c>
+      <c r="C738">
+        <v>2024</v>
+      </c>
+      <c r="D738">
+        <v>2024</v>
+      </c>
+      <c r="E738">
+        <v>0</v>
+      </c>
+      <c r="F738">
+        <v>9</v>
+      </c>
+      <c r="G738">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A739" t="s">
+        <v>82</v>
+      </c>
+      <c r="B739" t="s">
+        <v>11</v>
+      </c>
+      <c r="C739">
+        <v>2024</v>
+      </c>
+      <c r="D739">
+        <v>2024</v>
+      </c>
+      <c r="E739">
+        <v>0</v>
+      </c>
+      <c r="F739">
+        <v>9</v>
+      </c>
+      <c r="G739">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A740" t="s">
+        <v>82</v>
+      </c>
+      <c r="B740" t="s">
+        <v>37</v>
+      </c>
+      <c r="C740">
+        <v>2024</v>
+      </c>
+      <c r="D740">
+        <v>2024</v>
+      </c>
+      <c r="E740">
+        <v>0</v>
+      </c>
+      <c r="F740">
+        <v>9</v>
+      </c>
+      <c r="G740">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A741" t="s">
+        <v>82</v>
+      </c>
+      <c r="B741" t="s">
+        <v>38</v>
+      </c>
+      <c r="C741">
+        <v>2024</v>
+      </c>
+      <c r="D741">
+        <v>2024</v>
+      </c>
+      <c r="E741">
+        <v>0</v>
+      </c>
+      <c r="F741">
+        <v>9</v>
+      </c>
+      <c r="G741">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A742" t="s">
+        <v>82</v>
+      </c>
+      <c r="B742" t="s">
+        <v>14</v>
+      </c>
+      <c r="C742">
+        <v>2024</v>
+      </c>
+      <c r="D742">
+        <v>2024</v>
+      </c>
+      <c r="E742">
+        <v>0</v>
+      </c>
+      <c r="F742">
+        <v>9</v>
+      </c>
+      <c r="G742">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A743" t="s">
+        <v>82</v>
+      </c>
+      <c r="B743" t="s">
+        <v>15</v>
+      </c>
+      <c r="C743">
+        <v>2024</v>
+      </c>
+      <c r="D743">
+        <v>2024</v>
+      </c>
+      <c r="E743">
+        <v>0</v>
+      </c>
+      <c r="F743">
+        <v>9</v>
+      </c>
+      <c r="G743">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A744" t="s">
+        <v>82</v>
+      </c>
+      <c r="B744" t="s">
+        <v>16</v>
+      </c>
+      <c r="C744">
+        <v>2024</v>
+      </c>
+      <c r="D744">
+        <v>2024</v>
+      </c>
+      <c r="E744">
+        <v>0</v>
+      </c>
+      <c r="F744">
+        <v>9</v>
+      </c>
+      <c r="G744">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A745" t="s">
+        <v>82</v>
+      </c>
+      <c r="B745" t="s">
+        <v>17</v>
+      </c>
+      <c r="C745">
+        <v>2024</v>
+      </c>
+      <c r="D745">
+        <v>2024</v>
+      </c>
+      <c r="E745">
+        <v>0</v>
+      </c>
+      <c r="F745">
+        <v>9</v>
+      </c>
+      <c r="G745">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A746" t="s">
+        <v>82</v>
+      </c>
+      <c r="B746" t="s">
+        <v>34</v>
+      </c>
+      <c r="C746">
+        <v>2024</v>
+      </c>
+      <c r="D746">
+        <v>2024</v>
+      </c>
+      <c r="E746">
+        <v>0</v>
+      </c>
+      <c r="F746">
+        <v>9</v>
+      </c>
+      <c r="G746">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A747" t="s">
+        <v>82</v>
+      </c>
+      <c r="B747" t="s">
+        <v>35</v>
+      </c>
+      <c r="C747">
+        <v>2024</v>
+      </c>
+      <c r="D747">
+        <v>2024</v>
+      </c>
+      <c r="E747">
+        <v>0</v>
+      </c>
+      <c r="F747">
+        <v>9</v>
+      </c>
+      <c r="G747">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A748" t="s">
+        <v>82</v>
+      </c>
+      <c r="B748" t="s">
+        <v>19</v>
+      </c>
+      <c r="C748">
+        <v>2024</v>
+      </c>
+      <c r="D748">
+        <v>2024</v>
+      </c>
+      <c r="E748">
+        <v>0</v>
+      </c>
+      <c r="F748">
+        <v>9</v>
+      </c>
+      <c r="G748">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A749" t="s">
+        <v>82</v>
+      </c>
+      <c r="B749" t="s">
+        <v>20</v>
+      </c>
+      <c r="C749">
+        <v>2024</v>
+      </c>
+      <c r="D749">
+        <v>2024</v>
+      </c>
+      <c r="E749">
+        <v>0</v>
+      </c>
+      <c r="F749">
+        <v>9</v>
+      </c>
+      <c r="G749">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A750" t="s">
+        <v>82</v>
+      </c>
+      <c r="B750" t="s">
+        <v>21</v>
+      </c>
+      <c r="C750">
+        <v>2024</v>
+      </c>
+      <c r="D750">
+        <v>2024</v>
+      </c>
+      <c r="E750">
+        <v>0</v>
+      </c>
+      <c r="F750">
+        <v>9</v>
+      </c>
+      <c r="G750">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A751" t="s">
+        <v>82</v>
+      </c>
+      <c r="B751" t="s">
+        <v>22</v>
+      </c>
+      <c r="C751">
+        <v>2024</v>
+      </c>
+      <c r="D751">
+        <v>2024</v>
+      </c>
+      <c r="E751">
+        <v>0</v>
+      </c>
+      <c r="F751">
+        <v>9</v>
+      </c>
+      <c r="G751">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A752" t="s">
+        <v>82</v>
+      </c>
+      <c r="B752" t="s">
+        <v>23</v>
+      </c>
+      <c r="C752">
+        <v>2024</v>
+      </c>
+      <c r="D752">
+        <v>2024</v>
+      </c>
+      <c r="E752">
+        <v>0</v>
+      </c>
+      <c r="F752">
+        <v>9</v>
+      </c>
+      <c r="G752">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A753" t="s">
+        <v>82</v>
+      </c>
+      <c r="B753" t="s">
+        <v>68</v>
+      </c>
+      <c r="C753">
+        <v>2024</v>
+      </c>
+      <c r="D753">
+        <v>2024</v>
+      </c>
+      <c r="E753">
+        <v>0</v>
+      </c>
+      <c r="F753">
+        <v>9</v>
+      </c>
+      <c r="G753">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A754" t="s">
+        <v>82</v>
+      </c>
+      <c r="B754" t="s">
+        <v>24</v>
+      </c>
+      <c r="C754">
+        <v>2024</v>
+      </c>
+      <c r="D754">
+        <v>2024</v>
+      </c>
+      <c r="E754">
+        <v>0</v>
+      </c>
+      <c r="F754">
+        <v>9</v>
+      </c>
+      <c r="G754">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A755" t="s">
+        <v>82</v>
+      </c>
+      <c r="B755" t="s">
+        <v>25</v>
+      </c>
+      <c r="C755">
+        <v>2024</v>
+      </c>
+      <c r="D755">
+        <v>2024</v>
+      </c>
+      <c r="E755">
+        <v>0</v>
+      </c>
+      <c r="F755">
+        <v>9</v>
+      </c>
+      <c r="G755">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A756" t="s">
+        <v>82</v>
+      </c>
+      <c r="B756" t="s">
+        <v>26</v>
+      </c>
+      <c r="C756">
+        <v>2024</v>
+      </c>
+      <c r="D756">
+        <v>2024</v>
+      </c>
+      <c r="E756">
+        <v>0</v>
+      </c>
+      <c r="F756">
+        <v>9</v>
+      </c>
+      <c r="G756">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A757" t="s">
+        <v>82</v>
+      </c>
+      <c r="B757" t="s">
+        <v>27</v>
+      </c>
+      <c r="C757">
+        <v>2024</v>
+      </c>
+      <c r="D757">
+        <v>2024</v>
+      </c>
+      <c r="E757">
+        <v>0</v>
+      </c>
+      <c r="F757">
+        <v>9</v>
+      </c>
+      <c r="G757">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A758" t="s">
+        <v>82</v>
+      </c>
+      <c r="B758" t="s">
+        <v>44</v>
+      </c>
+      <c r="C758">
+        <v>2024</v>
+      </c>
+      <c r="D758">
+        <v>2024</v>
+      </c>
+      <c r="E758">
+        <v>0</v>
+      </c>
+      <c r="F758">
+        <v>9</v>
+      </c>
+      <c r="G758">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A759" t="s">
+        <v>82</v>
+      </c>
+      <c r="B759" t="s">
+        <v>69</v>
+      </c>
+      <c r="C759">
+        <v>2024</v>
+      </c>
+      <c r="D759">
+        <v>2024</v>
+      </c>
+      <c r="E759">
+        <v>0</v>
+      </c>
+      <c r="F759">
+        <v>9</v>
+      </c>
+      <c r="G759">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A760" t="s">
+        <v>82</v>
+      </c>
+      <c r="B760" t="s">
+        <v>28</v>
+      </c>
+      <c r="C760">
+        <v>2024</v>
+      </c>
+      <c r="D760">
+        <v>2024</v>
+      </c>
+      <c r="E760">
+        <v>0</v>
+      </c>
+      <c r="F760">
+        <v>9</v>
+      </c>
+      <c r="G760">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A761" t="s">
+        <v>82</v>
+      </c>
+      <c r="B761" t="s">
+        <v>29</v>
+      </c>
+      <c r="C761">
+        <v>2024</v>
+      </c>
+      <c r="D761">
+        <v>2024</v>
+      </c>
+      <c r="E761">
+        <v>0</v>
+      </c>
+      <c r="F761">
+        <v>9</v>
+      </c>
+      <c r="G761">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A762" t="s">
+        <v>82</v>
+      </c>
+      <c r="B762" t="s">
+        <v>72</v>
+      </c>
+      <c r="C762">
+        <v>2024</v>
+      </c>
+      <c r="D762">
+        <v>2024</v>
+      </c>
+      <c r="E762">
+        <v>0</v>
+      </c>
+      <c r="F762">
+        <v>9</v>
+      </c>
+      <c r="G762">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A763" t="s">
+        <v>82</v>
+      </c>
+      <c r="B763" t="s">
+        <v>73</v>
+      </c>
+      <c r="C763">
+        <v>2024</v>
+      </c>
+      <c r="D763">
+        <v>2024</v>
+      </c>
+      <c r="E763">
+        <v>0</v>
+      </c>
+      <c r="F763">
+        <v>9</v>
+      </c>
+      <c r="G763">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A764" t="s">
+        <v>82</v>
+      </c>
+      <c r="B764" t="s">
+        <v>74</v>
+      </c>
+      <c r="C764">
+        <v>2024</v>
+      </c>
+      <c r="D764">
+        <v>2024</v>
+      </c>
+      <c r="E764">
+        <v>0</v>
+      </c>
+      <c r="F764">
+        <v>9</v>
+      </c>
+      <c r="G764">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A765" t="s">
+        <v>82</v>
+      </c>
+      <c r="B765" t="s">
+        <v>75</v>
+      </c>
+      <c r="C765">
+        <v>2024</v>
+      </c>
+      <c r="D765">
+        <v>2024</v>
+      </c>
+      <c r="E765">
+        <v>0</v>
+      </c>
+      <c r="F765">
+        <v>9</v>
+      </c>
+      <c r="G765">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A766" t="s">
+        <v>82</v>
+      </c>
+      <c r="B766" t="s">
+        <v>70</v>
+      </c>
+      <c r="C766">
+        <v>2024</v>
+      </c>
+      <c r="D766">
+        <v>2024</v>
+      </c>
+      <c r="E766">
+        <v>0</v>
+      </c>
+      <c r="F766">
+        <v>9</v>
+      </c>
+      <c r="G766">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A767" t="s">
+        <v>82</v>
+      </c>
+      <c r="B767" t="s">
+        <v>71</v>
+      </c>
+      <c r="C767">
+        <v>2024</v>
+      </c>
+      <c r="D767">
+        <v>2024</v>
+      </c>
+      <c r="E767">
+        <v>0</v>
+      </c>
+      <c r="F767">
+        <v>9</v>
+      </c>
+      <c r="G767">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A768" t="s">
+        <v>82</v>
+      </c>
+      <c r="B768" t="s">
+        <v>76</v>
+      </c>
+      <c r="C768">
+        <v>2024</v>
+      </c>
+      <c r="D768">
+        <v>2024</v>
+      </c>
+      <c r="E768">
+        <v>0</v>
+      </c>
+      <c r="F768">
+        <v>9</v>
+      </c>
+      <c r="G768">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A769" t="s">
+        <v>82</v>
+      </c>
+      <c r="B769" t="s">
+        <v>77</v>
+      </c>
+      <c r="C769">
+        <v>2024</v>
+      </c>
+      <c r="D769">
+        <v>2024</v>
+      </c>
+      <c r="E769">
+        <v>0</v>
+      </c>
+      <c r="F769">
+        <v>9</v>
+      </c>
+      <c r="G769">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A770" t="s">
+        <v>82</v>
+      </c>
+      <c r="B770" t="s">
+        <v>78</v>
+      </c>
+      <c r="C770">
+        <v>2024</v>
+      </c>
+      <c r="D770">
+        <v>2024</v>
+      </c>
+      <c r="E770">
+        <v>0</v>
+      </c>
+      <c r="F770">
+        <v>9</v>
+      </c>
+      <c r="G770">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A771" t="s">
+        <v>82</v>
+      </c>
+      <c r="B771" t="s">
+        <v>79</v>
+      </c>
+      <c r="C771">
+        <v>2024</v>
+      </c>
+      <c r="D771">
+        <v>2024</v>
+      </c>
+      <c r="E771">
+        <v>0</v>
+      </c>
+      <c r="F771">
+        <v>9</v>
+      </c>
+      <c r="G771">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A772" t="s">
+        <v>82</v>
+      </c>
+      <c r="B772" t="s">
+        <v>45</v>
+      </c>
+      <c r="C772">
+        <v>2024</v>
+      </c>
+      <c r="D772">
+        <v>2024</v>
+      </c>
+      <c r="E772">
+        <v>0</v>
+      </c>
+      <c r="F772">
+        <v>9</v>
+      </c>
+      <c r="G772">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A773" t="s">
+        <v>82</v>
+      </c>
+      <c r="B773" t="s">
+        <v>46</v>
+      </c>
+      <c r="C773">
+        <v>2024</v>
+      </c>
+      <c r="D773">
+        <v>2024</v>
+      </c>
+      <c r="E773">
+        <v>0</v>
+      </c>
+      <c r="F773">
+        <v>9</v>
+      </c>
+      <c r="G773">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A774" t="s">
+        <v>82</v>
+      </c>
+      <c r="B774" t="s">
+        <v>31</v>
+      </c>
+      <c r="C774">
+        <v>2024</v>
+      </c>
+      <c r="D774">
+        <v>2024</v>
+      </c>
+      <c r="E774">
+        <v>0</v>
+      </c>
+      <c r="F774">
+        <v>9</v>
+      </c>
+      <c r="G774">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A775" t="s">
+        <v>82</v>
+      </c>
+      <c r="B775" t="s">
+        <v>36</v>
+      </c>
+      <c r="C775">
+        <v>2024</v>
+      </c>
+      <c r="D775">
+        <v>2024</v>
+      </c>
+      <c r="E775">
+        <v>0</v>
+      </c>
+      <c r="F775">
+        <v>9</v>
+      </c>
+      <c r="G775">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A776" t="s">
+        <v>82</v>
+      </c>
+      <c r="B776" t="s">
+        <v>32</v>
+      </c>
+      <c r="C776">
+        <v>2024</v>
+      </c>
+      <c r="D776">
+        <v>2024</v>
+      </c>
+      <c r="E776">
+        <v>0</v>
+      </c>
+      <c r="F776">
+        <v>9</v>
+      </c>
+      <c r="G776">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A777" t="s">
+        <v>82</v>
+      </c>
+      <c r="B777" t="s">
+        <v>33</v>
+      </c>
+      <c r="C777">
+        <v>2024</v>
+      </c>
+      <c r="D777">
+        <v>2024</v>
+      </c>
+      <c r="E777">
+        <v>0</v>
+      </c>
+      <c r="F777">
+        <v>9</v>
+      </c>
+      <c r="G777">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A778" t="s">
+        <v>82</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2</v>
+      </c>
+      <c r="C778">
+        <v>2025</v>
+      </c>
+      <c r="D778">
+        <v>2025</v>
+      </c>
+      <c r="E778">
+        <v>0</v>
+      </c>
+      <c r="F778">
+        <v>9</v>
+      </c>
+      <c r="G778">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A779" t="s">
+        <v>82</v>
+      </c>
+      <c r="B779" t="s">
+        <v>3</v>
+      </c>
+      <c r="C779">
+        <v>2025</v>
+      </c>
+      <c r="D779">
+        <v>2025</v>
+      </c>
+      <c r="E779">
+        <v>0</v>
+      </c>
+      <c r="F779">
+        <v>9</v>
+      </c>
+      <c r="G779">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A780" t="s">
+        <v>82</v>
+      </c>
+      <c r="B780" t="s">
+        <v>42</v>
+      </c>
+      <c r="C780">
+        <v>2025</v>
+      </c>
+      <c r="D780">
+        <v>2025</v>
+      </c>
+      <c r="E780">
+        <v>0</v>
+      </c>
+      <c r="F780">
+        <v>9</v>
+      </c>
+      <c r="G780">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A781" t="s">
+        <v>82</v>
+      </c>
+      <c r="B781" t="s">
+        <v>4</v>
+      </c>
+      <c r="C781">
+        <v>2025</v>
+      </c>
+      <c r="D781">
+        <v>2025</v>
+      </c>
+      <c r="E781">
+        <v>0</v>
+      </c>
+      <c r="F781">
+        <v>9</v>
+      </c>
+      <c r="G781">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A782" t="s">
+        <v>82</v>
+      </c>
+      <c r="B782" t="s">
+        <v>5</v>
+      </c>
+      <c r="C782">
+        <v>2025</v>
+      </c>
+      <c r="D782">
+        <v>2025</v>
+      </c>
+      <c r="E782">
+        <v>0</v>
+      </c>
+      <c r="F782">
+        <v>9</v>
+      </c>
+      <c r="G782">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A783" t="s">
+        <v>82</v>
+      </c>
+      <c r="B783" t="s">
+        <v>6</v>
+      </c>
+      <c r="C783">
+        <v>2025</v>
+      </c>
+      <c r="D783">
+        <v>2025</v>
+      </c>
+      <c r="E783">
+        <v>0</v>
+      </c>
+      <c r="F783">
+        <v>9</v>
+      </c>
+      <c r="G783">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A784" t="s">
+        <v>82</v>
+      </c>
+      <c r="B784" t="s">
+        <v>47</v>
+      </c>
+      <c r="C784">
+        <v>2025</v>
+      </c>
+      <c r="D784">
+        <v>2025</v>
+      </c>
+      <c r="E784">
+        <v>0</v>
+      </c>
+      <c r="F784">
+        <v>9</v>
+      </c>
+      <c r="G784">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A785" t="s">
+        <v>82</v>
+      </c>
+      <c r="B785" t="s">
+        <v>8</v>
+      </c>
+      <c r="C785">
+        <v>2025</v>
+      </c>
+      <c r="D785">
+        <v>2025</v>
+      </c>
+      <c r="E785">
+        <v>0</v>
+      </c>
+      <c r="F785">
+        <v>9</v>
+      </c>
+      <c r="G785">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A786" t="s">
+        <v>82</v>
+      </c>
+      <c r="B786" t="s">
+        <v>10</v>
+      </c>
+      <c r="C786">
+        <v>2025</v>
+      </c>
+      <c r="D786">
+        <v>2025</v>
+      </c>
+      <c r="E786">
+        <v>0</v>
+      </c>
+      <c r="F786">
+        <v>9</v>
+      </c>
+      <c r="G786">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A787" t="s">
+        <v>82</v>
+      </c>
+      <c r="B787" t="s">
+        <v>11</v>
+      </c>
+      <c r="C787">
+        <v>2025</v>
+      </c>
+      <c r="D787">
+        <v>2025</v>
+      </c>
+      <c r="E787">
+        <v>0</v>
+      </c>
+      <c r="F787">
+        <v>9</v>
+      </c>
+      <c r="G787">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A788" t="s">
+        <v>82</v>
+      </c>
+      <c r="B788" t="s">
+        <v>37</v>
+      </c>
+      <c r="C788">
+        <v>2025</v>
+      </c>
+      <c r="D788">
+        <v>2025</v>
+      </c>
+      <c r="E788">
+        <v>0</v>
+      </c>
+      <c r="F788">
+        <v>9</v>
+      </c>
+      <c r="G788">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A789" t="s">
+        <v>82</v>
+      </c>
+      <c r="B789" t="s">
+        <v>38</v>
+      </c>
+      <c r="C789">
+        <v>2025</v>
+      </c>
+      <c r="D789">
+        <v>2025</v>
+      </c>
+      <c r="E789">
+        <v>0</v>
+      </c>
+      <c r="F789">
+        <v>9</v>
+      </c>
+      <c r="G789">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A790" t="s">
+        <v>82</v>
+      </c>
+      <c r="B790" t="s">
+        <v>14</v>
+      </c>
+      <c r="C790">
+        <v>2025</v>
+      </c>
+      <c r="D790">
+        <v>2025</v>
+      </c>
+      <c r="E790">
+        <v>0</v>
+      </c>
+      <c r="F790">
+        <v>9</v>
+      </c>
+      <c r="G790">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A791" t="s">
+        <v>82</v>
+      </c>
+      <c r="B791" t="s">
+        <v>15</v>
+      </c>
+      <c r="C791">
+        <v>2025</v>
+      </c>
+      <c r="D791">
+        <v>2025</v>
+      </c>
+      <c r="E791">
+        <v>0</v>
+      </c>
+      <c r="F791">
+        <v>9</v>
+      </c>
+      <c r="G791">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A792" t="s">
+        <v>82</v>
+      </c>
+      <c r="B792" t="s">
+        <v>16</v>
+      </c>
+      <c r="C792">
+        <v>2025</v>
+      </c>
+      <c r="D792">
+        <v>2025</v>
+      </c>
+      <c r="E792">
+        <v>0</v>
+      </c>
+      <c r="F792">
+        <v>9</v>
+      </c>
+      <c r="G792">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A793" t="s">
+        <v>82</v>
+      </c>
+      <c r="B793" t="s">
+        <v>17</v>
+      </c>
+      <c r="C793">
+        <v>2025</v>
+      </c>
+      <c r="D793">
+        <v>2025</v>
+      </c>
+      <c r="E793">
+        <v>0</v>
+      </c>
+      <c r="F793">
+        <v>9</v>
+      </c>
+      <c r="G793">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A794" t="s">
+        <v>82</v>
+      </c>
+      <c r="B794" t="s">
+        <v>35</v>
+      </c>
+      <c r="C794">
+        <v>2025</v>
+      </c>
+      <c r="D794">
+        <v>2025</v>
+      </c>
+      <c r="E794">
+        <v>0</v>
+      </c>
+      <c r="F794">
+        <v>9</v>
+      </c>
+      <c r="G794">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A795" t="s">
+        <v>82</v>
+      </c>
+      <c r="B795" t="s">
+        <v>34</v>
+      </c>
+      <c r="C795">
+        <v>2025</v>
+      </c>
+      <c r="D795">
+        <v>2025</v>
+      </c>
+      <c r="E795">
+        <v>0</v>
+      </c>
+      <c r="F795">
+        <v>9</v>
+      </c>
+      <c r="G795">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A796" t="s">
+        <v>82</v>
+      </c>
+      <c r="B796" t="s">
+        <v>19</v>
+      </c>
+      <c r="C796">
+        <v>2025</v>
+      </c>
+      <c r="D796">
+        <v>2025</v>
+      </c>
+      <c r="E796">
+        <v>0</v>
+      </c>
+      <c r="F796">
+        <v>9</v>
+      </c>
+      <c r="G796">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A797" t="s">
+        <v>82</v>
+      </c>
+      <c r="B797" t="s">
+        <v>20</v>
+      </c>
+      <c r="C797">
+        <v>2025</v>
+      </c>
+      <c r="D797">
+        <v>2025</v>
+      </c>
+      <c r="E797">
+        <v>0</v>
+      </c>
+      <c r="F797">
+        <v>9</v>
+      </c>
+      <c r="G797">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A798" t="s">
+        <v>82</v>
+      </c>
+      <c r="B798" t="s">
+        <v>21</v>
+      </c>
+      <c r="C798">
+        <v>2025</v>
+      </c>
+      <c r="D798">
+        <v>2025</v>
+      </c>
+      <c r="E798">
+        <v>0</v>
+      </c>
+      <c r="F798">
+        <v>9</v>
+      </c>
+      <c r="G798">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A799" t="s">
+        <v>82</v>
+      </c>
+      <c r="B799" t="s">
+        <v>22</v>
+      </c>
+      <c r="C799">
+        <v>2025</v>
+      </c>
+      <c r="D799">
+        <v>2025</v>
+      </c>
+      <c r="E799">
+        <v>0</v>
+      </c>
+      <c r="F799">
+        <v>9</v>
+      </c>
+      <c r="G799">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A800" t="s">
+        <v>82</v>
+      </c>
+      <c r="B800" t="s">
+        <v>68</v>
+      </c>
+      <c r="C800">
+        <v>2025</v>
+      </c>
+      <c r="D800">
+        <v>2025</v>
+      </c>
+      <c r="E800">
+        <v>0</v>
+      </c>
+      <c r="F800">
+        <v>9</v>
+      </c>
+      <c r="G800">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A801" t="s">
+        <v>82</v>
+      </c>
+      <c r="B801" t="s">
+        <v>23</v>
+      </c>
+      <c r="C801">
+        <v>2025</v>
+      </c>
+      <c r="D801">
+        <v>2025</v>
+      </c>
+      <c r="E801">
+        <v>0</v>
+      </c>
+      <c r="F801">
+        <v>9</v>
+      </c>
+      <c r="G801">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A802" t="s">
+        <v>82</v>
+      </c>
+      <c r="B802" t="s">
+        <v>24</v>
+      </c>
+      <c r="C802">
+        <v>2025</v>
+      </c>
+      <c r="D802">
+        <v>2025</v>
+      </c>
+      <c r="E802">
+        <v>0</v>
+      </c>
+      <c r="F802">
+        <v>9</v>
+      </c>
+      <c r="G802">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A803" t="s">
+        <v>82</v>
+      </c>
+      <c r="B803" t="s">
+        <v>25</v>
+      </c>
+      <c r="C803">
+        <v>2025</v>
+      </c>
+      <c r="D803">
+        <v>2025</v>
+      </c>
+      <c r="E803">
+        <v>0</v>
+      </c>
+      <c r="F803">
+        <v>9</v>
+      </c>
+      <c r="G803">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A804" t="s">
+        <v>82</v>
+      </c>
+      <c r="B804" t="s">
+        <v>26</v>
+      </c>
+      <c r="C804">
+        <v>2025</v>
+      </c>
+      <c r="D804">
+        <v>2025</v>
+      </c>
+      <c r="E804">
+        <v>0</v>
+      </c>
+      <c r="F804">
+        <v>9</v>
+      </c>
+      <c r="G804">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A805" t="s">
+        <v>82</v>
+      </c>
+      <c r="B805" t="s">
+        <v>27</v>
+      </c>
+      <c r="C805">
+        <v>2025</v>
+      </c>
+      <c r="D805">
+        <v>2025</v>
+      </c>
+      <c r="E805">
+        <v>0</v>
+      </c>
+      <c r="F805">
+        <v>9</v>
+      </c>
+      <c r="G805">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A806" t="s">
+        <v>82</v>
+      </c>
+      <c r="B806" t="s">
+        <v>28</v>
+      </c>
+      <c r="C806">
+        <v>2025</v>
+      </c>
+      <c r="D806">
+        <v>2025</v>
+      </c>
+      <c r="E806">
+        <v>0</v>
+      </c>
+      <c r="F806">
+        <v>9</v>
+      </c>
+      <c r="G806">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A807" t="s">
+        <v>82</v>
+      </c>
+      <c r="B807" t="s">
+        <v>29</v>
+      </c>
+      <c r="C807">
+        <v>2025</v>
+      </c>
+      <c r="D807">
+        <v>2025</v>
+      </c>
+      <c r="E807">
+        <v>0</v>
+      </c>
+      <c r="F807">
+        <v>9</v>
+      </c>
+      <c r="G807">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A808" t="s">
+        <v>82</v>
+      </c>
+      <c r="B808" t="s">
+        <v>43</v>
+      </c>
+      <c r="C808">
+        <v>2025</v>
+      </c>
+      <c r="D808">
+        <v>2025</v>
+      </c>
+      <c r="E808">
+        <v>0</v>
+      </c>
+      <c r="F808">
+        <v>9</v>
+      </c>
+      <c r="G808">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A809" t="s">
+        <v>82</v>
+      </c>
+      <c r="B809" t="s">
+        <v>44</v>
+      </c>
+      <c r="C809">
+        <v>2025</v>
+      </c>
+      <c r="D809">
+        <v>2025</v>
+      </c>
+      <c r="E809">
+        <v>0</v>
+      </c>
+      <c r="F809">
+        <v>9</v>
+      </c>
+      <c r="G809">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A810" t="s">
+        <v>82</v>
+      </c>
+      <c r="B810" t="s">
+        <v>69</v>
+      </c>
+      <c r="C810">
+        <v>2025</v>
+      </c>
+      <c r="D810">
+        <v>2025</v>
+      </c>
+      <c r="E810">
+        <v>0</v>
+      </c>
+      <c r="F810">
+        <v>9</v>
+      </c>
+      <c r="G810">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A811" t="s">
+        <v>82</v>
+      </c>
+      <c r="B811" t="s">
+        <v>70</v>
+      </c>
+      <c r="C811">
+        <v>2025</v>
+      </c>
+      <c r="D811">
+        <v>2025</v>
+      </c>
+      <c r="E811">
+        <v>0</v>
+      </c>
+      <c r="F811">
+        <v>9</v>
+      </c>
+      <c r="G811">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A812" t="s">
+        <v>82</v>
+      </c>
+      <c r="B812" t="s">
+        <v>71</v>
+      </c>
+      <c r="C812">
+        <v>2025</v>
+      </c>
+      <c r="D812">
+        <v>2025</v>
+      </c>
+      <c r="E812">
+        <v>0</v>
+      </c>
+      <c r="F812">
+        <v>9</v>
+      </c>
+      <c r="G812">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A813" t="s">
+        <v>82</v>
+      </c>
+      <c r="B813" t="s">
+        <v>72</v>
+      </c>
+      <c r="C813">
+        <v>2025</v>
+      </c>
+      <c r="D813">
+        <v>2025</v>
+      </c>
+      <c r="E813">
+        <v>0</v>
+      </c>
+      <c r="F813">
+        <v>9</v>
+      </c>
+      <c r="G813">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A814" t="s">
+        <v>82</v>
+      </c>
+      <c r="B814" t="s">
+        <v>73</v>
+      </c>
+      <c r="C814">
+        <v>2025</v>
+      </c>
+      <c r="D814">
+        <v>2025</v>
+      </c>
+      <c r="E814">
+        <v>0</v>
+      </c>
+      <c r="F814">
+        <v>9</v>
+      </c>
+      <c r="G814">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A815" t="s">
+        <v>82</v>
+      </c>
+      <c r="B815" t="s">
+        <v>74</v>
+      </c>
+      <c r="C815">
+        <v>2025</v>
+      </c>
+      <c r="D815">
+        <v>2025</v>
+      </c>
+      <c r="E815">
+        <v>0</v>
+      </c>
+      <c r="F815">
+        <v>9</v>
+      </c>
+      <c r="G815">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A816" t="s">
+        <v>82</v>
+      </c>
+      <c r="B816" t="s">
+        <v>75</v>
+      </c>
+      <c r="C816">
+        <v>2025</v>
+      </c>
+      <c r="D816">
+        <v>2025</v>
+      </c>
+      <c r="E816">
+        <v>0</v>
+      </c>
+      <c r="F816">
+        <v>9</v>
+      </c>
+      <c r="G816">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A817" t="s">
+        <v>82</v>
+      </c>
+      <c r="B817" t="s">
+        <v>76</v>
+      </c>
+      <c r="C817">
+        <v>2025</v>
+      </c>
+      <c r="D817">
+        <v>2025</v>
+      </c>
+      <c r="E817">
+        <v>0</v>
+      </c>
+      <c r="F817">
+        <v>9</v>
+      </c>
+      <c r="G817">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A818" t="s">
+        <v>82</v>
+      </c>
+      <c r="B818" t="s">
+        <v>77</v>
+      </c>
+      <c r="C818">
+        <v>2025</v>
+      </c>
+      <c r="D818">
+        <v>2025</v>
+      </c>
+      <c r="E818">
+        <v>0</v>
+      </c>
+      <c r="F818">
+        <v>9</v>
+      </c>
+      <c r="G818">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A819" t="s">
+        <v>82</v>
+      </c>
+      <c r="B819" t="s">
+        <v>78</v>
+      </c>
+      <c r="C819">
+        <v>2025</v>
+      </c>
+      <c r="D819">
+        <v>2025</v>
+      </c>
+      <c r="E819">
+        <v>0</v>
+      </c>
+      <c r="F819">
+        <v>9</v>
+      </c>
+      <c r="G819">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A820" t="s">
+        <v>82</v>
+      </c>
+      <c r="B820" t="s">
+        <v>79</v>
+      </c>
+      <c r="C820">
+        <v>2025</v>
+      </c>
+      <c r="D820">
+        <v>2025</v>
+      </c>
+      <c r="E820">
+        <v>0</v>
+      </c>
+      <c r="F820">
+        <v>9</v>
+      </c>
+      <c r="G820">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A821" t="s">
+        <v>82</v>
+      </c>
+      <c r="B821" t="s">
+        <v>45</v>
+      </c>
+      <c r="C821">
+        <v>2025</v>
+      </c>
+      <c r="D821">
+        <v>2025</v>
+      </c>
+      <c r="E821">
+        <v>0</v>
+      </c>
+      <c r="F821">
+        <v>9</v>
+      </c>
+      <c r="G821">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A822" t="s">
+        <v>82</v>
+      </c>
+      <c r="B822" t="s">
+        <v>46</v>
+      </c>
+      <c r="C822">
+        <v>2025</v>
+      </c>
+      <c r="D822">
+        <v>2025</v>
+      </c>
+      <c r="E822">
+        <v>0</v>
+      </c>
+      <c r="F822">
+        <v>9</v>
+      </c>
+      <c r="G822">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A823" t="s">
+        <v>82</v>
+      </c>
+      <c r="B823" t="s">
+        <v>31</v>
+      </c>
+      <c r="C823">
+        <v>2025</v>
+      </c>
+      <c r="D823">
+        <v>2025</v>
+      </c>
+      <c r="E823">
+        <v>0</v>
+      </c>
+      <c r="F823">
+        <v>9</v>
+      </c>
+      <c r="G823">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A824" t="s">
+        <v>82</v>
+      </c>
+      <c r="B824" t="s">
+        <v>36</v>
+      </c>
+      <c r="C824">
+        <v>2025</v>
+      </c>
+      <c r="D824">
+        <v>2025</v>
+      </c>
+      <c r="E824">
+        <v>0</v>
+      </c>
+      <c r="F824">
+        <v>9</v>
+      </c>
+      <c r="G824">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A825" t="s">
+        <v>82</v>
+      </c>
+      <c r="B825" t="s">
+        <v>32</v>
+      </c>
+      <c r="C825">
+        <v>2025</v>
+      </c>
+      <c r="D825">
+        <v>2025</v>
+      </c>
+      <c r="E825">
+        <v>0</v>
+      </c>
+      <c r="F825">
+        <v>9</v>
+      </c>
+      <c r="G825">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A826" t="s">
+        <v>82</v>
+      </c>
+      <c r="B826" t="s">
+        <v>33</v>
+      </c>
+      <c r="C826">
+        <v>2025</v>
+      </c>
+      <c r="D826">
+        <v>2025</v>
+      </c>
+      <c r="E826">
+        <v>0</v>
+      </c>
+      <c r="F826">
+        <v>9</v>
+      </c>
+      <c r="G826">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A827" t="s">
+        <v>82</v>
+      </c>
+      <c r="B827" t="s">
+        <v>56</v>
+      </c>
+      <c r="C827">
+        <v>2020</v>
+      </c>
+      <c r="D827">
+        <v>2020</v>
+      </c>
+      <c r="E827">
+        <v>0</v>
+      </c>
+      <c r="F827">
+        <v>9</v>
+      </c>
+      <c r="G827">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A828" t="s">
+        <v>82</v>
+      </c>
+      <c r="B828" t="s">
+        <v>57</v>
+      </c>
+      <c r="C828">
+        <v>2020</v>
+      </c>
+      <c r="D828">
+        <v>2020</v>
+      </c>
+      <c r="E828">
+        <v>0</v>
+      </c>
+      <c r="F828">
+        <v>9</v>
+      </c>
+      <c r="G828">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A829" t="s">
+        <v>82</v>
+      </c>
+      <c r="B829" t="s">
+        <v>58</v>
+      </c>
+      <c r="C829">
+        <v>2020</v>
+      </c>
+      <c r="D829">
+        <v>2020</v>
+      </c>
+      <c r="E829">
+        <v>0</v>
+      </c>
+      <c r="F829">
+        <v>9</v>
+      </c>
+      <c r="G829">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A830" t="s">
+        <v>82</v>
+      </c>
+      <c r="B830" t="s">
+        <v>59</v>
+      </c>
+      <c r="C830">
+        <v>2020</v>
+      </c>
+      <c r="D830">
+        <v>2020</v>
+      </c>
+      <c r="E830">
+        <v>0</v>
+      </c>
+      <c r="F830">
+        <v>9</v>
+      </c>
+      <c r="G830">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A831" t="s">
+        <v>82</v>
+      </c>
+      <c r="B831" t="s">
+        <v>60</v>
+      </c>
+      <c r="C831">
+        <v>2020</v>
+      </c>
+      <c r="D831">
+        <v>2020</v>
+      </c>
+      <c r="E831">
+        <v>0</v>
+      </c>
+      <c r="F831">
+        <v>9</v>
+      </c>
+      <c r="G831">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A832" t="s">
+        <v>82</v>
+      </c>
+      <c r="B832" t="s">
+        <v>61</v>
+      </c>
+      <c r="C832">
+        <v>2020</v>
+      </c>
+      <c r="D832">
+        <v>2020</v>
+      </c>
+      <c r="E832">
+        <v>0</v>
+      </c>
+      <c r="F832">
+        <v>9</v>
+      </c>
+      <c r="G832">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A833" t="s">
+        <v>82</v>
+      </c>
+      <c r="B833" t="s">
+        <v>62</v>
+      </c>
+      <c r="C833">
+        <v>2020</v>
+      </c>
+      <c r="D833">
+        <v>2020</v>
+      </c>
+      <c r="E833">
+        <v>0</v>
+      </c>
+      <c r="F833">
+        <v>9</v>
+      </c>
+      <c r="G833">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A834" t="s">
+        <v>82</v>
+      </c>
+      <c r="B834" t="s">
+        <v>56</v>
+      </c>
+      <c r="C834">
+        <v>2021</v>
+      </c>
+      <c r="D834">
+        <v>2021</v>
+      </c>
+      <c r="E834">
+        <v>0</v>
+      </c>
+      <c r="F834">
+        <v>9</v>
+      </c>
+      <c r="G834">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A835" t="s">
+        <v>82</v>
+      </c>
+      <c r="B835" t="s">
+        <v>57</v>
+      </c>
+      <c r="C835">
+        <v>2021</v>
+      </c>
+      <c r="D835">
+        <v>2021</v>
+      </c>
+      <c r="E835">
+        <v>0</v>
+      </c>
+      <c r="F835">
+        <v>9</v>
+      </c>
+      <c r="G835">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A836" t="s">
+        <v>82</v>
+      </c>
+      <c r="B836" t="s">
+        <v>58</v>
+      </c>
+      <c r="C836">
+        <v>2021</v>
+      </c>
+      <c r="D836">
+        <v>2021</v>
+      </c>
+      <c r="E836">
+        <v>0</v>
+      </c>
+      <c r="F836">
+        <v>9</v>
+      </c>
+      <c r="G836">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A837" t="s">
+        <v>82</v>
+      </c>
+      <c r="B837" t="s">
+        <v>59</v>
+      </c>
+      <c r="C837">
+        <v>2021</v>
+      </c>
+      <c r="D837">
+        <v>2021</v>
+      </c>
+      <c r="E837">
+        <v>0</v>
+      </c>
+      <c r="F837">
+        <v>9</v>
+      </c>
+      <c r="G837">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A838" t="s">
+        <v>82</v>
+      </c>
+      <c r="B838" t="s">
+        <v>60</v>
+      </c>
+      <c r="C838">
+        <v>2021</v>
+      </c>
+      <c r="D838">
+        <v>2021</v>
+      </c>
+      <c r="E838">
+        <v>0</v>
+      </c>
+      <c r="F838">
+        <v>9</v>
+      </c>
+      <c r="G838">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A839" t="s">
+        <v>82</v>
+      </c>
+      <c r="B839" t="s">
+        <v>61</v>
+      </c>
+      <c r="C839">
+        <v>2021</v>
+      </c>
+      <c r="D839">
+        <v>2021</v>
+      </c>
+      <c r="E839">
+        <v>0</v>
+      </c>
+      <c r="F839">
+        <v>9</v>
+      </c>
+      <c r="G839">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A840" t="s">
+        <v>82</v>
+      </c>
+      <c r="B840" t="s">
+        <v>62</v>
+      </c>
+      <c r="C840">
+        <v>2021</v>
+      </c>
+      <c r="D840">
+        <v>2021</v>
+      </c>
+      <c r="E840">
+        <v>0</v>
+      </c>
+      <c r="F840">
+        <v>9</v>
+      </c>
+      <c r="G840">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A841" t="s">
+        <v>82</v>
+      </c>
+      <c r="B841" t="s">
+        <v>56</v>
+      </c>
+      <c r="C841">
+        <v>2022</v>
+      </c>
+      <c r="D841">
+        <v>2022</v>
+      </c>
+      <c r="E841">
+        <v>0</v>
+      </c>
+      <c r="F841">
+        <v>9</v>
+      </c>
+      <c r="G841">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A842" t="s">
+        <v>82</v>
+      </c>
+      <c r="B842" t="s">
+        <v>57</v>
+      </c>
+      <c r="C842">
+        <v>2022</v>
+      </c>
+      <c r="D842">
+        <v>2022</v>
+      </c>
+      <c r="E842">
+        <v>0</v>
+      </c>
+      <c r="F842">
+        <v>9</v>
+      </c>
+      <c r="G842">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A843" t="s">
+        <v>82</v>
+      </c>
+      <c r="B843" t="s">
+        <v>58</v>
+      </c>
+      <c r="C843">
+        <v>2022</v>
+      </c>
+      <c r="D843">
+        <v>2022</v>
+      </c>
+      <c r="E843">
+        <v>0</v>
+      </c>
+      <c r="F843">
+        <v>9</v>
+      </c>
+      <c r="G843">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A844" t="s">
+        <v>82</v>
+      </c>
+      <c r="B844" t="s">
+        <v>59</v>
+      </c>
+      <c r="C844">
+        <v>2022</v>
+      </c>
+      <c r="D844">
+        <v>2022</v>
+      </c>
+      <c r="E844">
+        <v>0</v>
+      </c>
+      <c r="F844">
+        <v>9</v>
+      </c>
+      <c r="G844">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A845" t="s">
+        <v>82</v>
+      </c>
+      <c r="B845" t="s">
+        <v>60</v>
+      </c>
+      <c r="C845">
+        <v>2022</v>
+      </c>
+      <c r="D845">
+        <v>2022</v>
+      </c>
+      <c r="E845">
+        <v>0</v>
+      </c>
+      <c r="F845">
+        <v>9</v>
+      </c>
+      <c r="G845">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A846" t="s">
+        <v>82</v>
+      </c>
+      <c r="B846" t="s">
+        <v>61</v>
+      </c>
+      <c r="C846">
+        <v>2022</v>
+      </c>
+      <c r="D846">
+        <v>2022</v>
+      </c>
+      <c r="E846">
+        <v>0</v>
+      </c>
+      <c r="F846">
+        <v>9</v>
+      </c>
+      <c r="G846">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A847" t="s">
+        <v>82</v>
+      </c>
+      <c r="B847" t="s">
+        <v>62</v>
+      </c>
+      <c r="C847">
+        <v>2022</v>
+      </c>
+      <c r="D847">
+        <v>2022</v>
+      </c>
+      <c r="E847">
+        <v>0</v>
+      </c>
+      <c r="F847">
+        <v>9</v>
+      </c>
+      <c r="G847">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A848" t="s">
+        <v>82</v>
+      </c>
+      <c r="B848" t="s">
+        <v>56</v>
+      </c>
+      <c r="C848">
+        <v>2023</v>
+      </c>
+      <c r="D848">
+        <v>2023</v>
+      </c>
+      <c r="E848">
+        <v>0</v>
+      </c>
+      <c r="F848">
+        <v>9</v>
+      </c>
+      <c r="G848">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A849" t="s">
+        <v>82</v>
+      </c>
+      <c r="B849" t="s">
+        <v>57</v>
+      </c>
+      <c r="C849">
+        <v>2023</v>
+      </c>
+      <c r="D849">
+        <v>2023</v>
+      </c>
+      <c r="E849">
+        <v>0</v>
+      </c>
+      <c r="F849">
+        <v>9</v>
+      </c>
+      <c r="G849">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A850" t="s">
+        <v>82</v>
+      </c>
+      <c r="B850" t="s">
+        <v>58</v>
+      </c>
+      <c r="C850">
+        <v>2023</v>
+      </c>
+      <c r="D850">
+        <v>2023</v>
+      </c>
+      <c r="E850">
+        <v>0</v>
+      </c>
+      <c r="F850">
+        <v>9</v>
+      </c>
+      <c r="G850">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A851" t="s">
+        <v>82</v>
+      </c>
+      <c r="B851" t="s">
+        <v>59</v>
+      </c>
+      <c r="C851">
+        <v>2023</v>
+      </c>
+      <c r="D851">
+        <v>2023</v>
+      </c>
+      <c r="E851">
+        <v>0</v>
+      </c>
+      <c r="F851">
+        <v>9</v>
+      </c>
+      <c r="G851">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A852" t="s">
+        <v>82</v>
+      </c>
+      <c r="B852" t="s">
+        <v>60</v>
+      </c>
+      <c r="C852">
+        <v>2023</v>
+      </c>
+      <c r="D852">
+        <v>2023</v>
+      </c>
+      <c r="E852">
+        <v>0</v>
+      </c>
+      <c r="F852">
+        <v>9</v>
+      </c>
+      <c r="G852">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A853" t="s">
+        <v>82</v>
+      </c>
+      <c r="B853" t="s">
+        <v>61</v>
+      </c>
+      <c r="C853">
+        <v>2023</v>
+      </c>
+      <c r="D853">
+        <v>2023</v>
+      </c>
+      <c r="E853">
+        <v>0</v>
+      </c>
+      <c r="F853">
+        <v>9</v>
+      </c>
+      <c r="G853">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A854" t="s">
+        <v>82</v>
+      </c>
+      <c r="B854" t="s">
+        <v>62</v>
+      </c>
+      <c r="C854">
+        <v>2023</v>
+      </c>
+      <c r="D854">
+        <v>2023</v>
+      </c>
+      <c r="E854">
+        <v>0</v>
+      </c>
+      <c r="F854">
+        <v>9</v>
+      </c>
+      <c r="G854">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A855" t="s">
+        <v>82</v>
+      </c>
+      <c r="B855" t="s">
+        <v>56</v>
+      </c>
+      <c r="C855">
+        <v>2024</v>
+      </c>
+      <c r="D855">
+        <v>2024</v>
+      </c>
+      <c r="E855">
+        <v>0</v>
+      </c>
+      <c r="F855">
+        <v>9</v>
+      </c>
+      <c r="G855">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A856" t="s">
+        <v>82</v>
+      </c>
+      <c r="B856" t="s">
+        <v>57</v>
+      </c>
+      <c r="C856">
+        <v>2024</v>
+      </c>
+      <c r="D856">
+        <v>2024</v>
+      </c>
+      <c r="E856">
+        <v>0</v>
+      </c>
+      <c r="F856">
+        <v>9</v>
+      </c>
+      <c r="G856">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A857" t="s">
+        <v>82</v>
+      </c>
+      <c r="B857" t="s">
+        <v>58</v>
+      </c>
+      <c r="C857">
+        <v>2024</v>
+      </c>
+      <c r="D857">
+        <v>2024</v>
+      </c>
+      <c r="E857">
+        <v>0</v>
+      </c>
+      <c r="F857">
+        <v>9</v>
+      </c>
+      <c r="G857">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A858" t="s">
+        <v>82</v>
+      </c>
+      <c r="B858" t="s">
+        <v>59</v>
+      </c>
+      <c r="C858">
+        <v>2024</v>
+      </c>
+      <c r="D858">
+        <v>2024</v>
+      </c>
+      <c r="E858">
+        <v>0</v>
+      </c>
+      <c r="F858">
+        <v>9</v>
+      </c>
+      <c r="G858">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A859" t="s">
+        <v>82</v>
+      </c>
+      <c r="B859" t="s">
+        <v>60</v>
+      </c>
+      <c r="C859">
+        <v>2024</v>
+      </c>
+      <c r="D859">
+        <v>2024</v>
+      </c>
+      <c r="E859">
+        <v>0</v>
+      </c>
+      <c r="F859">
+        <v>9</v>
+      </c>
+      <c r="G859">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A860" t="s">
+        <v>82</v>
+      </c>
+      <c r="B860" t="s">
+        <v>61</v>
+      </c>
+      <c r="C860">
+        <v>2024</v>
+      </c>
+      <c r="D860">
+        <v>2024</v>
+      </c>
+      <c r="E860">
+        <v>0</v>
+      </c>
+      <c r="F860">
+        <v>9</v>
+      </c>
+      <c r="G860">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A861" t="s">
+        <v>82</v>
+      </c>
+      <c r="B861" t="s">
+        <v>62</v>
+      </c>
+      <c r="C861">
+        <v>2024</v>
+      </c>
+      <c r="D861">
+        <v>2024</v>
+      </c>
+      <c r="E861">
+        <v>0</v>
+      </c>
+      <c r="F861">
+        <v>9</v>
+      </c>
+      <c r="G861">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A862" t="s">
+        <v>82</v>
+      </c>
+      <c r="B862" t="s">
+        <v>56</v>
+      </c>
+      <c r="C862">
+        <v>2025</v>
+      </c>
+      <c r="D862">
+        <v>2025</v>
+      </c>
+      <c r="E862">
+        <v>0</v>
+      </c>
+      <c r="F862">
+        <v>9</v>
+      </c>
+      <c r="G862">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A863" t="s">
+        <v>82</v>
+      </c>
+      <c r="B863" t="s">
+        <v>57</v>
+      </c>
+      <c r="C863">
+        <v>2025</v>
+      </c>
+      <c r="D863">
+        <v>2025</v>
+      </c>
+      <c r="E863">
+        <v>0</v>
+      </c>
+      <c r="F863">
+        <v>9</v>
+      </c>
+      <c r="G863">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A864" t="s">
+        <v>82</v>
+      </c>
+      <c r="B864" t="s">
+        <v>58</v>
+      </c>
+      <c r="C864">
+        <v>2025</v>
+      </c>
+      <c r="D864">
+        <v>2025</v>
+      </c>
+      <c r="E864">
+        <v>0</v>
+      </c>
+      <c r="F864">
+        <v>9</v>
+      </c>
+      <c r="G864">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A865" t="s">
+        <v>82</v>
+      </c>
+      <c r="B865" t="s">
+        <v>59</v>
+      </c>
+      <c r="C865">
+        <v>2025</v>
+      </c>
+      <c r="D865">
+        <v>2025</v>
+      </c>
+      <c r="E865">
+        <v>0</v>
+      </c>
+      <c r="F865">
+        <v>9</v>
+      </c>
+      <c r="G865">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A866" t="s">
+        <v>82</v>
+      </c>
+      <c r="B866" t="s">
+        <v>60</v>
+      </c>
+      <c r="C866">
+        <v>2025</v>
+      </c>
+      <c r="D866">
+        <v>2025</v>
+      </c>
+      <c r="E866">
+        <v>0</v>
+      </c>
+      <c r="F866">
+        <v>9</v>
+      </c>
+      <c r="G866">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A867" t="s">
+        <v>82</v>
+      </c>
+      <c r="B867" t="s">
+        <v>61</v>
+      </c>
+      <c r="C867">
+        <v>2025</v>
+      </c>
+      <c r="D867">
+        <v>2025</v>
+      </c>
+      <c r="E867">
+        <v>0</v>
+      </c>
+      <c r="F867">
+        <v>9</v>
+      </c>
+      <c r="G867">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A868" t="s">
+        <v>82</v>
+      </c>
+      <c r="B868" t="s">
+        <v>62</v>
+      </c>
+      <c r="C868">
+        <v>2025</v>
+      </c>
+      <c r="D868">
+        <v>2025</v>
+      </c>
+      <c r="E868">
+        <v>0</v>
+      </c>
+      <c r="F868">
+        <v>9</v>
+      </c>
+      <c r="G868">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/graduation_requirements.xlsx
+++ b/data/graduation_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70446E4B-84D4-4213-AF66-9026C6BF788B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24CD16-7D04-46B2-BB82-B49D4E331700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$868</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="82">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,9 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M868"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7881,12 +7879,6 @@
       <c r="G249">
         <v>48</v>
       </c>
-      <c r="H249">
-        <v>120</v>
-      </c>
-      <c r="I249" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
@@ -7910,12 +7902,6 @@
       <c r="G250">
         <v>48</v>
       </c>
-      <c r="H250">
-        <v>120</v>
-      </c>
-      <c r="I250" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
@@ -7939,12 +7925,6 @@
       <c r="G251">
         <v>48</v>
       </c>
-      <c r="H251">
-        <v>120</v>
-      </c>
-      <c r="I251" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
@@ -7968,12 +7948,6 @@
       <c r="G252">
         <v>51</v>
       </c>
-      <c r="H252">
-        <v>120</v>
-      </c>
-      <c r="I252" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
@@ -7997,12 +7971,6 @@
       <c r="G253">
         <v>48</v>
       </c>
-      <c r="H253">
-        <v>120</v>
-      </c>
-      <c r="I253" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
@@ -8026,12 +7994,6 @@
       <c r="G254">
         <v>51</v>
       </c>
-      <c r="H254">
-        <v>130</v>
-      </c>
-      <c r="I254" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
@@ -8055,12 +8017,6 @@
       <c r="G255">
         <v>51</v>
       </c>
-      <c r="H255">
-        <v>130</v>
-      </c>
-      <c r="I255" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
@@ -8084,14 +8040,8 @@
       <c r="G256">
         <v>51</v>
       </c>
-      <c r="H256">
-        <v>130</v>
-      </c>
-      <c r="I256" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>44</v>
       </c>
@@ -8113,14 +8063,8 @@
       <c r="G257">
         <v>51</v>
       </c>
-      <c r="H257">
-        <v>130</v>
-      </c>
-      <c r="I257" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>44</v>
       </c>
@@ -8142,14 +8086,8 @@
       <c r="G258">
         <v>51</v>
       </c>
-      <c r="H258">
-        <v>130</v>
-      </c>
-      <c r="I258" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>44</v>
       </c>
@@ -8171,14 +8109,8 @@
       <c r="G259">
         <v>51</v>
       </c>
-      <c r="H259">
-        <v>130</v>
-      </c>
-      <c r="I259" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>44</v>
       </c>
@@ -8200,14 +8132,8 @@
       <c r="G260">
         <v>51</v>
       </c>
-      <c r="H260">
-        <v>130</v>
-      </c>
-      <c r="I260" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>44</v>
       </c>
@@ -8229,14 +8155,8 @@
       <c r="G261">
         <v>51</v>
       </c>
-      <c r="H261">
-        <v>130</v>
-      </c>
-      <c r="I261" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>44</v>
       </c>
@@ -8258,14 +8178,8 @@
       <c r="G262">
         <v>51</v>
       </c>
-      <c r="H262">
-        <v>130</v>
-      </c>
-      <c r="I262" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -8287,14 +8201,8 @@
       <c r="G263">
         <v>51</v>
       </c>
-      <c r="H263">
-        <v>130</v>
-      </c>
-      <c r="I263" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>44</v>
       </c>
@@ -8316,14 +8224,8 @@
       <c r="G264">
         <v>51</v>
       </c>
-      <c r="H264">
-        <v>130</v>
-      </c>
-      <c r="I264" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -8345,14 +8247,8 @@
       <c r="G265">
         <v>51</v>
       </c>
-      <c r="H265">
-        <v>130</v>
-      </c>
-      <c r="I265" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>44</v>
       </c>
@@ -8374,14 +8270,8 @@
       <c r="G266">
         <v>51</v>
       </c>
-      <c r="H266">
-        <v>130</v>
-      </c>
-      <c r="I266" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>44</v>
       </c>
@@ -8403,14 +8293,8 @@
       <c r="G267">
         <v>51</v>
       </c>
-      <c r="H267">
-        <v>130</v>
-      </c>
-      <c r="I267" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>44</v>
       </c>
@@ -8432,14 +8316,8 @@
       <c r="G268">
         <v>51</v>
       </c>
-      <c r="H268">
-        <v>130</v>
-      </c>
-      <c r="I268" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>44</v>
       </c>
@@ -8461,14 +8339,8 @@
       <c r="G269">
         <v>51</v>
       </c>
-      <c r="H269">
-        <v>130</v>
-      </c>
-      <c r="I269" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>44</v>
       </c>
@@ -8490,14 +8362,8 @@
       <c r="G270">
         <v>51</v>
       </c>
-      <c r="H270">
-        <v>130</v>
-      </c>
-      <c r="I270" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>44</v>
       </c>
@@ -8519,14 +8385,8 @@
       <c r="G271">
         <v>51</v>
       </c>
-      <c r="H271">
-        <v>130</v>
-      </c>
-      <c r="I271" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>44</v>
       </c>
@@ -8548,14 +8408,8 @@
       <c r="G272">
         <v>51</v>
       </c>
-      <c r="H272">
-        <v>130</v>
-      </c>
-      <c r="I272" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>44</v>
       </c>
@@ -8577,14 +8431,8 @@
       <c r="G273">
         <v>51</v>
       </c>
-      <c r="H273">
-        <v>130</v>
-      </c>
-      <c r="I273" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>44</v>
       </c>
@@ -8606,14 +8454,8 @@
       <c r="G274">
         <v>51</v>
       </c>
-      <c r="H274">
-        <v>130</v>
-      </c>
-      <c r="I274" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>44</v>
       </c>
@@ -8635,14 +8477,8 @@
       <c r="G275">
         <v>51</v>
       </c>
-      <c r="H275">
-        <v>130</v>
-      </c>
-      <c r="I275" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>44</v>
       </c>
@@ -8664,14 +8500,8 @@
       <c r="G276">
         <v>51</v>
       </c>
-      <c r="H276">
-        <v>130</v>
-      </c>
-      <c r="I276" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>44</v>
       </c>
@@ -8693,14 +8523,8 @@
       <c r="G277">
         <v>51</v>
       </c>
-      <c r="H277">
-        <v>130</v>
-      </c>
-      <c r="I277" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>44</v>
       </c>
@@ -8722,14 +8546,8 @@
       <c r="G278">
         <v>51</v>
       </c>
-      <c r="H278">
-        <v>164</v>
-      </c>
-      <c r="I278" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>44</v>
       </c>
@@ -8751,14 +8569,8 @@
       <c r="G279">
         <v>51</v>
       </c>
-      <c r="H279">
-        <v>130</v>
-      </c>
-      <c r="I279" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>44</v>
       </c>
@@ -8780,14 +8592,8 @@
       <c r="G280">
         <v>48</v>
       </c>
-      <c r="H280">
-        <v>120</v>
-      </c>
-      <c r="I280" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>44</v>
       </c>
@@ -8809,14 +8615,8 @@
       <c r="G281">
         <v>48</v>
       </c>
-      <c r="H281">
-        <v>120</v>
-      </c>
-      <c r="I281" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>44</v>
       </c>
@@ -8838,14 +8638,8 @@
       <c r="G282">
         <v>48</v>
       </c>
-      <c r="H282">
-        <v>120</v>
-      </c>
-      <c r="I282" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>44</v>
       </c>
@@ -8867,14 +8661,8 @@
       <c r="G283">
         <v>48</v>
       </c>
-      <c r="H283">
-        <v>120</v>
-      </c>
-      <c r="I283" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>44</v>
       </c>
@@ -8896,14 +8684,8 @@
       <c r="G284">
         <v>48</v>
       </c>
-      <c r="H284">
-        <v>120</v>
-      </c>
-      <c r="I284" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>44</v>
       </c>
@@ -8925,14 +8707,8 @@
       <c r="G285">
         <v>51</v>
       </c>
-      <c r="H285">
-        <v>120</v>
-      </c>
-      <c r="I285" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>44</v>
       </c>
@@ -8954,14 +8730,8 @@
       <c r="G286">
         <v>48</v>
       </c>
-      <c r="H286">
-        <v>120</v>
-      </c>
-      <c r="I286" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>44</v>
       </c>
@@ -8983,14 +8753,8 @@
       <c r="G287">
         <v>48</v>
       </c>
-      <c r="H287">
-        <v>120</v>
-      </c>
-      <c r="I287" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>44</v>
       </c>
@@ -9012,14 +8776,8 @@
       <c r="G288">
         <v>51</v>
       </c>
-      <c r="H288">
-        <v>130</v>
-      </c>
-      <c r="I288" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>44</v>
       </c>
@@ -9041,14 +8799,8 @@
       <c r="G289">
         <v>51</v>
       </c>
-      <c r="H289">
-        <v>130</v>
-      </c>
-      <c r="I289" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>44</v>
       </c>
@@ -9070,14 +8822,8 @@
       <c r="G290">
         <v>51</v>
       </c>
-      <c r="H290">
-        <v>130</v>
-      </c>
-      <c r="I290" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>44</v>
       </c>
@@ -9099,14 +8845,8 @@
       <c r="G291">
         <v>51</v>
       </c>
-      <c r="H291">
-        <v>130</v>
-      </c>
-      <c r="I291" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>44</v>
       </c>
@@ -9128,14 +8868,8 @@
       <c r="G292">
         <v>51</v>
       </c>
-      <c r="H292">
-        <v>130</v>
-      </c>
-      <c r="I292" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>44</v>
       </c>
@@ -9157,14 +8891,8 @@
       <c r="G293">
         <v>51</v>
       </c>
-      <c r="H293">
-        <v>130</v>
-      </c>
-      <c r="I293" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>44</v>
       </c>
@@ -9186,14 +8914,8 @@
       <c r="G294">
         <v>51</v>
       </c>
-      <c r="H294">
-        <v>130</v>
-      </c>
-      <c r="I294" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -9215,14 +8937,8 @@
       <c r="G295">
         <v>51</v>
       </c>
-      <c r="H295">
-        <v>130</v>
-      </c>
-      <c r="I295" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>44</v>
       </c>
@@ -9244,14 +8960,8 @@
       <c r="G296">
         <v>51</v>
       </c>
-      <c r="H296">
-        <v>130</v>
-      </c>
-      <c r="I296" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>44</v>
       </c>
@@ -9273,14 +8983,8 @@
       <c r="G297">
         <v>51</v>
       </c>
-      <c r="H297">
-        <v>130</v>
-      </c>
-      <c r="I297" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>44</v>
       </c>
@@ -9302,14 +9006,8 @@
       <c r="G298">
         <v>51</v>
       </c>
-      <c r="H298">
-        <v>130</v>
-      </c>
-      <c r="I298" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>44</v>
       </c>
@@ -9331,14 +9029,8 @@
       <c r="G299">
         <v>51</v>
       </c>
-      <c r="H299">
-        <v>130</v>
-      </c>
-      <c r="I299" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>44</v>
       </c>
@@ -9360,14 +9052,8 @@
       <c r="G300">
         <v>51</v>
       </c>
-      <c r="H300">
-        <v>130</v>
-      </c>
-      <c r="I300" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>44</v>
       </c>
@@ -9389,14 +9075,8 @@
       <c r="G301">
         <v>51</v>
       </c>
-      <c r="H301">
-        <v>130</v>
-      </c>
-      <c r="I301" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>44</v>
       </c>
@@ -9418,14 +9098,8 @@
       <c r="G302">
         <v>51</v>
       </c>
-      <c r="H302">
-        <v>130</v>
-      </c>
-      <c r="I302" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>44</v>
       </c>
@@ -9447,14 +9121,8 @@
       <c r="G303">
         <v>51</v>
       </c>
-      <c r="H303">
-        <v>130</v>
-      </c>
-      <c r="I303" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>44</v>
       </c>
@@ -9476,14 +9144,8 @@
       <c r="G304">
         <v>51</v>
       </c>
-      <c r="H304">
-        <v>130</v>
-      </c>
-      <c r="I304" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>44</v>
       </c>
@@ -9505,14 +9167,8 @@
       <c r="G305">
         <v>51</v>
       </c>
-      <c r="H305">
-        <v>130</v>
-      </c>
-      <c r="I305" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>44</v>
       </c>
@@ -9534,14 +9190,8 @@
       <c r="G306">
         <v>51</v>
       </c>
-      <c r="H306">
-        <v>130</v>
-      </c>
-      <c r="I306" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>44</v>
       </c>
@@ -9563,14 +9213,8 @@
       <c r="G307">
         <v>51</v>
       </c>
-      <c r="H307">
-        <v>130</v>
-      </c>
-      <c r="I307" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>44</v>
       </c>
@@ -9592,14 +9236,8 @@
       <c r="G308">
         <v>51</v>
       </c>
-      <c r="H308">
-        <v>130</v>
-      </c>
-      <c r="I308" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>44</v>
       </c>
@@ -9621,14 +9259,8 @@
       <c r="G309">
         <v>51</v>
       </c>
-      <c r="H309">
-        <v>130</v>
-      </c>
-      <c r="I309" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>44</v>
       </c>
@@ -9650,14 +9282,8 @@
       <c r="G310">
         <v>51</v>
       </c>
-      <c r="H310">
-        <v>130</v>
-      </c>
-      <c r="I310" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>44</v>
       </c>
@@ -9679,14 +9305,8 @@
       <c r="G311">
         <v>51</v>
       </c>
-      <c r="H311">
-        <v>130</v>
-      </c>
-      <c r="I311" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>44</v>
       </c>
@@ -9708,14 +9328,8 @@
       <c r="G312">
         <v>51</v>
       </c>
-      <c r="H312">
-        <v>130</v>
-      </c>
-      <c r="I312" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>44</v>
       </c>
@@ -9737,14 +9351,8 @@
       <c r="G313">
         <v>51</v>
       </c>
-      <c r="H313">
-        <v>164</v>
-      </c>
-      <c r="I313" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>44</v>
       </c>
@@ -9766,14 +9374,8 @@
       <c r="G314">
         <v>51</v>
       </c>
-      <c r="H314">
-        <v>130</v>
-      </c>
-      <c r="I314" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>44</v>
       </c>
@@ -9795,14 +9397,8 @@
       <c r="G315">
         <v>48</v>
       </c>
-      <c r="H315">
-        <v>120</v>
-      </c>
-      <c r="I315" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>44</v>
       </c>
@@ -9824,14 +9420,8 @@
       <c r="G316">
         <v>48</v>
       </c>
-      <c r="H316">
-        <v>120</v>
-      </c>
-      <c r="I316" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -9853,14 +9443,8 @@
       <c r="G317">
         <v>48</v>
       </c>
-      <c r="H317">
-        <v>120</v>
-      </c>
-      <c r="I317" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>44</v>
       </c>
@@ -9882,14 +9466,8 @@
       <c r="G318">
         <v>48</v>
       </c>
-      <c r="H318">
-        <v>120</v>
-      </c>
-      <c r="I318" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>44</v>
       </c>
@@ -9911,14 +9489,8 @@
       <c r="G319">
         <v>48</v>
       </c>
-      <c r="H319">
-        <v>120</v>
-      </c>
-      <c r="I319" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>44</v>
       </c>
@@ -9940,14 +9512,8 @@
       <c r="G320">
         <v>51</v>
       </c>
-      <c r="H320">
-        <v>120</v>
-      </c>
-      <c r="I320" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>44</v>
       </c>
@@ -9969,14 +9535,8 @@
       <c r="G321">
         <v>48</v>
       </c>
-      <c r="H321">
-        <v>120</v>
-      </c>
-      <c r="I321" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>44</v>
       </c>
@@ -9998,14 +9558,8 @@
       <c r="G322">
         <v>48</v>
       </c>
-      <c r="H322">
-        <v>120</v>
-      </c>
-      <c r="I322" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>44</v>
       </c>
@@ -10027,14 +9581,8 @@
       <c r="G323">
         <v>51</v>
       </c>
-      <c r="H323">
-        <v>130</v>
-      </c>
-      <c r="I323" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>44</v>
       </c>
@@ -10056,14 +9604,8 @@
       <c r="G324">
         <v>51</v>
       </c>
-      <c r="H324">
-        <v>130</v>
-      </c>
-      <c r="I324" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>44</v>
       </c>
@@ -10085,14 +9627,8 @@
       <c r="G325">
         <v>51</v>
       </c>
-      <c r="H325">
-        <v>130</v>
-      </c>
-      <c r="I325" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>44</v>
       </c>
@@ -10114,14 +9650,8 @@
       <c r="G326">
         <v>51</v>
       </c>
-      <c r="H326">
-        <v>130</v>
-      </c>
-      <c r="I326" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -10143,14 +9673,8 @@
       <c r="G327">
         <v>51</v>
       </c>
-      <c r="H327">
-        <v>130</v>
-      </c>
-      <c r="I327" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>44</v>
       </c>
@@ -10172,14 +9696,8 @@
       <c r="G328">
         <v>51</v>
       </c>
-      <c r="H328">
-        <v>130</v>
-      </c>
-      <c r="I328" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>44</v>
       </c>
@@ -10201,14 +9719,8 @@
       <c r="G329">
         <v>51</v>
       </c>
-      <c r="H329">
-        <v>130</v>
-      </c>
-      <c r="I329" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>44</v>
       </c>
@@ -10230,14 +9742,8 @@
       <c r="G330">
         <v>51</v>
       </c>
-      <c r="H330">
-        <v>130</v>
-      </c>
-      <c r="I330" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>44</v>
       </c>
@@ -10259,14 +9765,8 @@
       <c r="G331">
         <v>51</v>
       </c>
-      <c r="H331">
-        <v>130</v>
-      </c>
-      <c r="I331" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>44</v>
       </c>
@@ -10288,14 +9788,8 @@
       <c r="G332">
         <v>51</v>
       </c>
-      <c r="H332">
-        <v>130</v>
-      </c>
-      <c r="I332" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>44</v>
       </c>
@@ -10317,14 +9811,8 @@
       <c r="G333">
         <v>51</v>
       </c>
-      <c r="H333">
-        <v>130</v>
-      </c>
-      <c r="I333" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>44</v>
       </c>
@@ -10346,14 +9834,8 @@
       <c r="G334">
         <v>51</v>
       </c>
-      <c r="H334">
-        <v>130</v>
-      </c>
-      <c r="I334" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>44</v>
       </c>
@@ -10375,14 +9857,8 @@
       <c r="G335">
         <v>51</v>
       </c>
-      <c r="H335">
-        <v>130</v>
-      </c>
-      <c r="I335" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>44</v>
       </c>
@@ -10404,14 +9880,8 @@
       <c r="G336">
         <v>51</v>
       </c>
-      <c r="H336">
-        <v>130</v>
-      </c>
-      <c r="I336" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>44</v>
       </c>
@@ -10433,14 +9903,8 @@
       <c r="G337">
         <v>51</v>
       </c>
-      <c r="H337">
-        <v>130</v>
-      </c>
-      <c r="I337" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>44</v>
       </c>
@@ -10462,14 +9926,8 @@
       <c r="G338">
         <v>51</v>
       </c>
-      <c r="H338">
-        <v>130</v>
-      </c>
-      <c r="I338" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>44</v>
       </c>
@@ -10491,14 +9949,8 @@
       <c r="G339">
         <v>51</v>
       </c>
-      <c r="H339">
-        <v>130</v>
-      </c>
-      <c r="I339" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>44</v>
       </c>
@@ -10520,14 +9972,8 @@
       <c r="G340">
         <v>51</v>
       </c>
-      <c r="H340">
-        <v>130</v>
-      </c>
-      <c r="I340" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>44</v>
       </c>
@@ -10549,14 +9995,8 @@
       <c r="G341">
         <v>51</v>
       </c>
-      <c r="H341">
-        <v>130</v>
-      </c>
-      <c r="I341" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>44</v>
       </c>
@@ -10578,14 +10018,8 @@
       <c r="G342">
         <v>51</v>
       </c>
-      <c r="H342">
-        <v>130</v>
-      </c>
-      <c r="I342" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>44</v>
       </c>
@@ -10607,14 +10041,8 @@
       <c r="G343">
         <v>51</v>
       </c>
-      <c r="H343">
-        <v>130</v>
-      </c>
-      <c r="I343" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>44</v>
       </c>
@@ -10636,14 +10064,8 @@
       <c r="G344">
         <v>51</v>
       </c>
-      <c r="H344">
-        <v>130</v>
-      </c>
-      <c r="I344" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>44</v>
       </c>
@@ -10665,14 +10087,8 @@
       <c r="G345">
         <v>51</v>
       </c>
-      <c r="H345">
-        <v>130</v>
-      </c>
-      <c r="I345" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>44</v>
       </c>
@@ -10694,14 +10110,8 @@
       <c r="G346">
         <v>51</v>
       </c>
-      <c r="H346">
-        <v>130</v>
-      </c>
-      <c r="I346" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>44</v>
       </c>
@@ -10723,14 +10133,8 @@
       <c r="G347">
         <v>51</v>
       </c>
-      <c r="H347">
-        <v>130</v>
-      </c>
-      <c r="I347" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>44</v>
       </c>
@@ -10752,14 +10156,8 @@
       <c r="G348">
         <v>51</v>
       </c>
-      <c r="H348">
-        <v>164</v>
-      </c>
-      <c r="I348" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>44</v>
       </c>
@@ -10781,14 +10179,8 @@
       <c r="G349">
         <v>51</v>
       </c>
-      <c r="H349">
-        <v>130</v>
-      </c>
-      <c r="I349" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>44</v>
       </c>
@@ -10810,14 +10202,8 @@
       <c r="G350">
         <v>48</v>
       </c>
-      <c r="H350">
-        <v>120</v>
-      </c>
-      <c r="I350" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>44</v>
       </c>
@@ -10839,14 +10225,8 @@
       <c r="G351">
         <v>48</v>
       </c>
-      <c r="H351">
-        <v>120</v>
-      </c>
-      <c r="I351" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>44</v>
       </c>
@@ -10868,14 +10248,8 @@
       <c r="G352">
         <v>48</v>
       </c>
-      <c r="H352">
-        <v>120</v>
-      </c>
-      <c r="I352" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>44</v>
       </c>
@@ -10897,14 +10271,8 @@
       <c r="G353">
         <v>48</v>
       </c>
-      <c r="H353">
-        <v>120</v>
-      </c>
-      <c r="I353" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>44</v>
       </c>
@@ -10926,14 +10294,8 @@
       <c r="G354">
         <v>48</v>
       </c>
-      <c r="H354">
-        <v>120</v>
-      </c>
-      <c r="I354" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>44</v>
       </c>
@@ -10955,14 +10317,8 @@
       <c r="G355">
         <v>48</v>
       </c>
-      <c r="H355">
-        <v>120</v>
-      </c>
-      <c r="I355" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>44</v>
       </c>
@@ -10984,14 +10340,8 @@
       <c r="G356">
         <v>51</v>
       </c>
-      <c r="H356">
-        <v>120</v>
-      </c>
-      <c r="I356" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>44</v>
       </c>
@@ -11013,14 +10363,8 @@
       <c r="G357">
         <v>48</v>
       </c>
-      <c r="H357">
-        <v>120</v>
-      </c>
-      <c r="I357" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>44</v>
       </c>
@@ -11042,14 +10386,8 @@
       <c r="G358">
         <v>48</v>
       </c>
-      <c r="H358">
-        <v>120</v>
-      </c>
-      <c r="I358" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -11071,14 +10409,8 @@
       <c r="G359">
         <v>51</v>
       </c>
-      <c r="H359">
-        <v>130</v>
-      </c>
-      <c r="I359" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>44</v>
       </c>
@@ -11100,14 +10432,8 @@
       <c r="G360">
         <v>51</v>
       </c>
-      <c r="H360">
-        <v>130</v>
-      </c>
-      <c r="I360" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>44</v>
       </c>
@@ -11129,14 +10455,8 @@
       <c r="G361">
         <v>51</v>
       </c>
-      <c r="H361">
-        <v>130</v>
-      </c>
-      <c r="I361" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>44</v>
       </c>
@@ -11158,14 +10478,8 @@
       <c r="G362">
         <v>51</v>
       </c>
-      <c r="H362">
-        <v>130</v>
-      </c>
-      <c r="I362" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>44</v>
       </c>
@@ -11187,14 +10501,8 @@
       <c r="G363">
         <v>51</v>
       </c>
-      <c r="H363">
-        <v>130</v>
-      </c>
-      <c r="I363" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>44</v>
       </c>
@@ -11216,14 +10524,8 @@
       <c r="G364">
         <v>51</v>
       </c>
-      <c r="H364">
-        <v>130</v>
-      </c>
-      <c r="I364" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>44</v>
       </c>
@@ -11245,14 +10547,8 @@
       <c r="G365">
         <v>51</v>
       </c>
-      <c r="H365">
-        <v>130</v>
-      </c>
-      <c r="I365" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>44</v>
       </c>
@@ -11274,14 +10570,8 @@
       <c r="G366">
         <v>51</v>
       </c>
-      <c r="H366">
-        <v>130</v>
-      </c>
-      <c r="I366" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>44</v>
       </c>
@@ -11303,14 +10593,8 @@
       <c r="G367">
         <v>51</v>
       </c>
-      <c r="H367">
-        <v>130</v>
-      </c>
-      <c r="I367" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>44</v>
       </c>
@@ -11332,14 +10616,8 @@
       <c r="G368">
         <v>51</v>
       </c>
-      <c r="H368">
-        <v>130</v>
-      </c>
-      <c r="I368" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>44</v>
       </c>
@@ -11361,14 +10639,8 @@
       <c r="G369">
         <v>51</v>
       </c>
-      <c r="H369">
-        <v>130</v>
-      </c>
-      <c r="I369" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>44</v>
       </c>
@@ -11390,14 +10662,8 @@
       <c r="G370">
         <v>51</v>
       </c>
-      <c r="H370">
-        <v>130</v>
-      </c>
-      <c r="I370" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>44</v>
       </c>
@@ -11419,14 +10685,8 @@
       <c r="G371">
         <v>51</v>
       </c>
-      <c r="H371">
-        <v>130</v>
-      </c>
-      <c r="I371" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>44</v>
       </c>
@@ -11448,14 +10708,8 @@
       <c r="G372">
         <v>51</v>
       </c>
-      <c r="H372">
-        <v>130</v>
-      </c>
-      <c r="I372" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>44</v>
       </c>
@@ -11477,14 +10731,8 @@
       <c r="G373">
         <v>51</v>
       </c>
-      <c r="H373">
-        <v>130</v>
-      </c>
-      <c r="I373" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>44</v>
       </c>
@@ -11506,14 +10754,8 @@
       <c r="G374">
         <v>51</v>
       </c>
-      <c r="H374">
-        <v>130</v>
-      </c>
-      <c r="I374" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>44</v>
       </c>
@@ -11535,14 +10777,8 @@
       <c r="G375">
         <v>51</v>
       </c>
-      <c r="H375">
-        <v>130</v>
-      </c>
-      <c r="I375" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>44</v>
       </c>
@@ -11564,14 +10800,8 @@
       <c r="G376">
         <v>51</v>
       </c>
-      <c r="H376">
-        <v>130</v>
-      </c>
-      <c r="I376" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>44</v>
       </c>
@@ -11593,14 +10823,8 @@
       <c r="G377">
         <v>51</v>
       </c>
-      <c r="H377">
-        <v>130</v>
-      </c>
-      <c r="I377" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>44</v>
       </c>
@@ -11622,14 +10846,8 @@
       <c r="G378">
         <v>51</v>
       </c>
-      <c r="H378">
-        <v>130</v>
-      </c>
-      <c r="I378" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>44</v>
       </c>
@@ -11651,14 +10869,8 @@
       <c r="G379">
         <v>51</v>
       </c>
-      <c r="H379">
-        <v>130</v>
-      </c>
-      <c r="I379" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>44</v>
       </c>
@@ -11680,14 +10892,8 @@
       <c r="G380">
         <v>51</v>
       </c>
-      <c r="H380">
-        <v>130</v>
-      </c>
-      <c r="I380" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>44</v>
       </c>
@@ -11709,14 +10915,8 @@
       <c r="G381">
         <v>51</v>
       </c>
-      <c r="H381">
-        <v>130</v>
-      </c>
-      <c r="I381" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>44</v>
       </c>
@@ -11738,14 +10938,8 @@
       <c r="G382">
         <v>51</v>
       </c>
-      <c r="H382">
-        <v>130</v>
-      </c>
-      <c r="I382" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>44</v>
       </c>
@@ -11767,14 +10961,8 @@
       <c r="G383">
         <v>51</v>
       </c>
-      <c r="H383">
-        <v>130</v>
-      </c>
-      <c r="I383" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>44</v>
       </c>
@@ -11796,14 +10984,8 @@
       <c r="G384">
         <v>51</v>
       </c>
-      <c r="H384">
-        <v>130</v>
-      </c>
-      <c r="I384" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>44</v>
       </c>
@@ -11825,14 +11007,8 @@
       <c r="G385">
         <v>51</v>
       </c>
-      <c r="H385">
-        <v>130</v>
-      </c>
-      <c r="I385" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>44</v>
       </c>
@@ -11854,14 +11030,8 @@
       <c r="G386">
         <v>51</v>
       </c>
-      <c r="H386">
-        <v>164</v>
-      </c>
-      <c r="I386" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>44</v>
       </c>
@@ -11883,14 +11053,8 @@
       <c r="G387">
         <v>51</v>
       </c>
-      <c r="H387">
-        <v>130</v>
-      </c>
-      <c r="I387" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>44</v>
       </c>
@@ -11912,14 +11076,8 @@
       <c r="G388">
         <v>48</v>
       </c>
-      <c r="H388">
-        <v>120</v>
-      </c>
-      <c r="I388" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>44</v>
       </c>
@@ -11941,14 +11099,8 @@
       <c r="G389">
         <v>48</v>
       </c>
-      <c r="H389">
-        <v>120</v>
-      </c>
-      <c r="I389" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>44</v>
       </c>
@@ -11970,14 +11122,8 @@
       <c r="G390">
         <v>48</v>
       </c>
-      <c r="H390">
-        <v>120</v>
-      </c>
-      <c r="I390" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -11999,14 +11145,8 @@
       <c r="G391">
         <v>51</v>
       </c>
-      <c r="H391">
-        <v>130</v>
-      </c>
-      <c r="I391" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>44</v>
       </c>
@@ -12028,14 +11168,8 @@
       <c r="G392">
         <v>51</v>
       </c>
-      <c r="H392">
-        <v>130</v>
-      </c>
-      <c r="I392" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>44</v>
       </c>
@@ -12057,14 +11191,8 @@
       <c r="G393">
         <v>51</v>
       </c>
-      <c r="H393">
-        <v>130</v>
-      </c>
-      <c r="I393" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>44</v>
       </c>
@@ -12086,14 +11214,8 @@
       <c r="G394">
         <v>48</v>
       </c>
-      <c r="H394">
-        <v>120</v>
-      </c>
-      <c r="I394" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>44</v>
       </c>
@@ -12115,14 +11237,8 @@
       <c r="G395">
         <v>48</v>
       </c>
-      <c r="H395">
-        <v>120</v>
-      </c>
-      <c r="I395" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>44</v>
       </c>
@@ -12144,14 +11260,8 @@
       <c r="G396">
         <v>51</v>
       </c>
-      <c r="H396">
-        <v>130</v>
-      </c>
-      <c r="I396" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>44</v>
       </c>
@@ -12173,14 +11283,8 @@
       <c r="G397">
         <v>51</v>
       </c>
-      <c r="H397">
-        <v>130</v>
-      </c>
-      <c r="I397" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>44</v>
       </c>
@@ -12202,14 +11306,8 @@
       <c r="G398">
         <v>48</v>
       </c>
-      <c r="H398">
-        <v>120</v>
-      </c>
-      <c r="I398" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>44</v>
       </c>
@@ -12231,14 +11329,8 @@
       <c r="G399">
         <v>48</v>
       </c>
-      <c r="H399">
-        <v>120</v>
-      </c>
-      <c r="I399" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>44</v>
       </c>
@@ -12260,14 +11352,8 @@
       <c r="G400">
         <v>48</v>
       </c>
-      <c r="H400">
-        <v>120</v>
-      </c>
-      <c r="I400" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>44</v>
       </c>
@@ -12289,14 +11375,8 @@
       <c r="G401">
         <v>51</v>
       </c>
-      <c r="H401">
-        <v>120</v>
-      </c>
-      <c r="I401" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>44</v>
       </c>
@@ -12318,14 +11398,8 @@
       <c r="G402">
         <v>48</v>
       </c>
-      <c r="H402">
-        <v>120</v>
-      </c>
-      <c r="I402" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>44</v>
       </c>
@@ -12347,14 +11421,8 @@
       <c r="G403">
         <v>51</v>
       </c>
-      <c r="H403">
-        <v>130</v>
-      </c>
-      <c r="I403" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>44</v>
       </c>
@@ -12376,14 +11444,8 @@
       <c r="G404">
         <v>51</v>
       </c>
-      <c r="H404">
-        <v>130</v>
-      </c>
-      <c r="I404" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>44</v>
       </c>
@@ -12405,14 +11467,8 @@
       <c r="G405">
         <v>51</v>
       </c>
-      <c r="H405">
-        <v>130</v>
-      </c>
-      <c r="I405" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>44</v>
       </c>
@@ -12434,14 +11490,8 @@
       <c r="G406">
         <v>51</v>
       </c>
-      <c r="H406">
-        <v>130</v>
-      </c>
-      <c r="I406" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>44</v>
       </c>
@@ -12463,14 +11513,8 @@
       <c r="G407">
         <v>51</v>
       </c>
-      <c r="H407">
-        <v>130</v>
-      </c>
-      <c r="I407" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>44</v>
       </c>
@@ -12492,14 +11536,8 @@
       <c r="G408">
         <v>51</v>
       </c>
-      <c r="H408">
-        <v>130</v>
-      </c>
-      <c r="I408" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>44</v>
       </c>
@@ -12521,14 +11559,8 @@
       <c r="G409">
         <v>51</v>
       </c>
-      <c r="H409">
-        <v>130</v>
-      </c>
-      <c r="I409" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>44</v>
       </c>
@@ -12550,14 +11582,8 @@
       <c r="G410">
         <v>51</v>
       </c>
-      <c r="H410">
-        <v>130</v>
-      </c>
-      <c r="I410" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>44</v>
       </c>
@@ -12579,14 +11605,8 @@
       <c r="G411">
         <v>51</v>
       </c>
-      <c r="H411">
-        <v>130</v>
-      </c>
-      <c r="I411" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>44</v>
       </c>
@@ -12608,14 +11628,8 @@
       <c r="G412">
         <v>51</v>
       </c>
-      <c r="H412">
-        <v>130</v>
-      </c>
-      <c r="I412" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>44</v>
       </c>
@@ -12637,14 +11651,8 @@
       <c r="G413">
         <v>51</v>
       </c>
-      <c r="H413">
-        <v>130</v>
-      </c>
-      <c r="I413" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>44</v>
       </c>
@@ -12666,14 +11674,8 @@
       <c r="G414">
         <v>51</v>
       </c>
-      <c r="H414">
-        <v>130</v>
-      </c>
-      <c r="I414" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>44</v>
       </c>
@@ -12695,14 +11697,8 @@
       <c r="G415">
         <v>51</v>
       </c>
-      <c r="H415">
-        <v>130</v>
-      </c>
-      <c r="I415" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>44</v>
       </c>
@@ -12724,14 +11720,8 @@
       <c r="G416">
         <v>51</v>
       </c>
-      <c r="H416">
-        <v>130</v>
-      </c>
-      <c r="I416" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>44</v>
       </c>
@@ -12753,14 +11743,8 @@
       <c r="G417">
         <v>51</v>
       </c>
-      <c r="H417">
-        <v>130</v>
-      </c>
-      <c r="I417" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>44</v>
       </c>
@@ -12782,14 +11766,8 @@
       <c r="G418">
         <v>51</v>
       </c>
-      <c r="H418">
-        <v>130</v>
-      </c>
-      <c r="I418" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>44</v>
       </c>
@@ -12811,14 +11789,8 @@
       <c r="G419">
         <v>51</v>
       </c>
-      <c r="H419">
-        <v>130</v>
-      </c>
-      <c r="I419" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>44</v>
       </c>
@@ -12840,14 +11812,8 @@
       <c r="G420">
         <v>51</v>
       </c>
-      <c r="H420">
-        <v>130</v>
-      </c>
-      <c r="I420" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>44</v>
       </c>
@@ -12869,14 +11835,8 @@
       <c r="G421">
         <v>51</v>
       </c>
-      <c r="H421">
-        <v>130</v>
-      </c>
-      <c r="I421" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>44</v>
       </c>
@@ -12898,14 +11858,8 @@
       <c r="G422">
         <v>51</v>
       </c>
-      <c r="H422">
-        <v>130</v>
-      </c>
-      <c r="I422" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -12927,14 +11881,8 @@
       <c r="G423">
         <v>51</v>
       </c>
-      <c r="H423">
-        <v>130</v>
-      </c>
-      <c r="I423" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>44</v>
       </c>
@@ -12956,14 +11904,8 @@
       <c r="G424">
         <v>51</v>
       </c>
-      <c r="H424">
-        <v>130</v>
-      </c>
-      <c r="I424" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>44</v>
       </c>
@@ -12985,14 +11927,8 @@
       <c r="G425">
         <v>51</v>
       </c>
-      <c r="H425">
-        <v>130</v>
-      </c>
-      <c r="I425" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>44</v>
       </c>
@@ -13014,14 +11950,8 @@
       <c r="G426">
         <v>51</v>
       </c>
-      <c r="H426">
-        <v>130</v>
-      </c>
-      <c r="I426" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>44</v>
       </c>
@@ -13043,14 +11973,8 @@
       <c r="G427">
         <v>51</v>
       </c>
-      <c r="H427">
-        <v>130</v>
-      </c>
-      <c r="I427" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>44</v>
       </c>
@@ -13072,14 +11996,8 @@
       <c r="G428">
         <v>51</v>
       </c>
-      <c r="H428">
-        <v>130</v>
-      </c>
-      <c r="I428" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>44</v>
       </c>
@@ -13101,14 +12019,8 @@
       <c r="G429">
         <v>51</v>
       </c>
-      <c r="H429">
-        <v>164</v>
-      </c>
-      <c r="I429" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>44</v>
       </c>
@@ -13130,14 +12042,8 @@
       <c r="G430">
         <v>51</v>
       </c>
-      <c r="H430">
-        <v>130</v>
-      </c>
-      <c r="I430" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>44</v>
       </c>
@@ -13159,14 +12065,8 @@
       <c r="G431">
         <v>48</v>
       </c>
-      <c r="H431">
-        <v>120</v>
-      </c>
-      <c r="I431" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>44</v>
       </c>
@@ -13188,14 +12088,8 @@
       <c r="G432">
         <v>48</v>
       </c>
-      <c r="H432">
-        <v>120</v>
-      </c>
-      <c r="I432" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>44</v>
       </c>
@@ -13217,14 +12111,8 @@
       <c r="G433">
         <v>48</v>
       </c>
-      <c r="H433">
-        <v>120</v>
-      </c>
-      <c r="I433" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>44</v>
       </c>
@@ -13246,14 +12134,8 @@
       <c r="G434">
         <v>51</v>
       </c>
-      <c r="H434">
-        <v>130</v>
-      </c>
-      <c r="I434" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>44</v>
       </c>
@@ -13275,14 +12157,8 @@
       <c r="G435">
         <v>51</v>
       </c>
-      <c r="H435">
-        <v>130</v>
-      </c>
-      <c r="I435" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>44</v>
       </c>
@@ -13304,14 +12180,8 @@
       <c r="G436">
         <v>51</v>
       </c>
-      <c r="H436">
-        <v>130</v>
-      </c>
-      <c r="I436" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>44</v>
       </c>
@@ -13333,14 +12203,8 @@
       <c r="G437">
         <v>48</v>
       </c>
-      <c r="H437">
-        <v>120</v>
-      </c>
-      <c r="I437" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>44</v>
       </c>
@@ -13362,14 +12226,8 @@
       <c r="G438">
         <v>48</v>
       </c>
-      <c r="H438">
-        <v>120</v>
-      </c>
-      <c r="I438" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>44</v>
       </c>
@@ -13391,14 +12249,8 @@
       <c r="G439">
         <v>51</v>
       </c>
-      <c r="H439">
-        <v>130</v>
-      </c>
-      <c r="I439" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>44</v>
       </c>
@@ -13420,14 +12272,8 @@
       <c r="G440">
         <v>51</v>
       </c>
-      <c r="H440">
-        <v>130</v>
-      </c>
-      <c r="I440" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>44</v>
       </c>
@@ -13449,14 +12295,8 @@
       <c r="G441">
         <v>48</v>
       </c>
-      <c r="H441">
-        <v>120</v>
-      </c>
-      <c r="I441" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>44</v>
       </c>
@@ -13478,14 +12318,8 @@
       <c r="G442">
         <v>48</v>
       </c>
-      <c r="H442">
-        <v>120</v>
-      </c>
-      <c r="I442" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>44</v>
       </c>
@@ -13507,14 +12341,8 @@
       <c r="G443">
         <v>48</v>
       </c>
-      <c r="H443">
-        <v>120</v>
-      </c>
-      <c r="I443" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>44</v>
       </c>
@@ -13536,14 +12364,8 @@
       <c r="G444">
         <v>48</v>
       </c>
-      <c r="H444">
-        <v>120</v>
-      </c>
-      <c r="I444" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>44</v>
       </c>
@@ -13565,14 +12387,8 @@
       <c r="G445">
         <v>48</v>
       </c>
-      <c r="H445">
-        <v>120</v>
-      </c>
-      <c r="I445" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>44</v>
       </c>
@@ -13594,14 +12410,8 @@
       <c r="G446">
         <v>51</v>
       </c>
-      <c r="H446">
-        <v>130</v>
-      </c>
-      <c r="I446" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>44</v>
       </c>
@@ -13623,14 +12433,8 @@
       <c r="G447">
         <v>48</v>
       </c>
-      <c r="H447">
-        <v>120</v>
-      </c>
-      <c r="I447" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>44</v>
       </c>
@@ -13652,14 +12456,8 @@
       <c r="G448">
         <v>48</v>
       </c>
-      <c r="H448">
-        <v>120</v>
-      </c>
-      <c r="I448" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>44</v>
       </c>
@@ -13681,14 +12479,8 @@
       <c r="G449">
         <v>48</v>
       </c>
-      <c r="H449">
-        <v>120</v>
-      </c>
-      <c r="I449" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>44</v>
       </c>
@@ -13710,14 +12502,8 @@
       <c r="G450">
         <v>51</v>
       </c>
-      <c r="H450">
-        <v>120</v>
-      </c>
-      <c r="I450" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>44</v>
       </c>
@@ -13739,14 +12525,8 @@
       <c r="G451">
         <v>48</v>
       </c>
-      <c r="H451">
-        <v>120</v>
-      </c>
-      <c r="I451" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>44</v>
       </c>
@@ -13768,14 +12548,8 @@
       <c r="G452">
         <v>51</v>
       </c>
-      <c r="H452">
-        <v>130</v>
-      </c>
-      <c r="I452" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>44</v>
       </c>
@@ -13797,14 +12571,8 @@
       <c r="G453">
         <v>51</v>
       </c>
-      <c r="H453">
-        <v>130</v>
-      </c>
-      <c r="I453" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>44</v>
       </c>
@@ -13826,14 +12594,8 @@
       <c r="G454">
         <v>51</v>
       </c>
-      <c r="H454">
-        <v>130</v>
-      </c>
-      <c r="I454" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>44</v>
       </c>
@@ -13855,14 +12617,8 @@
       <c r="G455">
         <v>51</v>
       </c>
-      <c r="H455">
-        <v>130</v>
-      </c>
-      <c r="I455" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>44</v>
       </c>
@@ -13884,14 +12640,8 @@
       <c r="G456">
         <v>51</v>
       </c>
-      <c r="H456">
-        <v>130</v>
-      </c>
-      <c r="I456" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>44</v>
       </c>
@@ -13913,14 +12663,8 @@
       <c r="G457">
         <v>51</v>
       </c>
-      <c r="H457">
-        <v>130</v>
-      </c>
-      <c r="I457" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>44</v>
       </c>
@@ -13942,14 +12686,8 @@
       <c r="G458">
         <v>51</v>
       </c>
-      <c r="H458">
-        <v>130</v>
-      </c>
-      <c r="I458" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>44</v>
       </c>
@@ -13971,14 +12709,8 @@
       <c r="G459">
         <v>51</v>
       </c>
-      <c r="H459">
-        <v>130</v>
-      </c>
-      <c r="I459" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>44</v>
       </c>
@@ -14000,14 +12732,8 @@
       <c r="G460">
         <v>51</v>
       </c>
-      <c r="H460">
-        <v>130</v>
-      </c>
-      <c r="I460" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>44</v>
       </c>
@@ -14029,14 +12755,8 @@
       <c r="G461">
         <v>51</v>
       </c>
-      <c r="H461">
-        <v>130</v>
-      </c>
-      <c r="I461" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>44</v>
       </c>
@@ -14058,14 +12778,8 @@
       <c r="G462">
         <v>51</v>
       </c>
-      <c r="H462">
-        <v>130</v>
-      </c>
-      <c r="I462" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>44</v>
       </c>
@@ -14087,14 +12801,8 @@
       <c r="G463">
         <v>51</v>
       </c>
-      <c r="H463">
-        <v>130</v>
-      </c>
-      <c r="I463" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>44</v>
       </c>
@@ -14116,14 +12824,8 @@
       <c r="G464">
         <v>51</v>
       </c>
-      <c r="H464">
-        <v>130</v>
-      </c>
-      <c r="I464" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>44</v>
       </c>
@@ -14145,14 +12847,8 @@
       <c r="G465">
         <v>51</v>
       </c>
-      <c r="H465">
-        <v>130</v>
-      </c>
-      <c r="I465" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>44</v>
       </c>
@@ -14174,14 +12870,8 @@
       <c r="G466">
         <v>51</v>
       </c>
-      <c r="H466">
-        <v>130</v>
-      </c>
-      <c r="I466" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>44</v>
       </c>
@@ -14203,14 +12893,8 @@
       <c r="G467">
         <v>51</v>
       </c>
-      <c r="H467">
-        <v>130</v>
-      </c>
-      <c r="I467" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -14232,14 +12916,8 @@
       <c r="G468">
         <v>51</v>
       </c>
-      <c r="H468">
-        <v>130</v>
-      </c>
-      <c r="I468" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>44</v>
       </c>
@@ -14261,14 +12939,8 @@
       <c r="G469">
         <v>51</v>
       </c>
-      <c r="H469">
-        <v>130</v>
-      </c>
-      <c r="I469" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -14290,14 +12962,8 @@
       <c r="G470">
         <v>51</v>
       </c>
-      <c r="H470">
-        <v>130</v>
-      </c>
-      <c r="I470" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>44</v>
       </c>
@@ -14319,14 +12985,8 @@
       <c r="G471">
         <v>51</v>
       </c>
-      <c r="H471">
-        <v>130</v>
-      </c>
-      <c r="I471" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -14348,14 +13008,8 @@
       <c r="G472">
         <v>51</v>
       </c>
-      <c r="H472">
-        <v>130</v>
-      </c>
-      <c r="I472" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -14377,14 +13031,8 @@
       <c r="G473">
         <v>51</v>
       </c>
-      <c r="H473">
-        <v>130</v>
-      </c>
-      <c r="I473" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>44</v>
       </c>
@@ -14406,14 +13054,8 @@
       <c r="G474">
         <v>51</v>
       </c>
-      <c r="H474">
-        <v>130</v>
-      </c>
-      <c r="I474" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>44</v>
       </c>
@@ -14435,14 +13077,8 @@
       <c r="G475">
         <v>51</v>
       </c>
-      <c r="H475">
-        <v>164</v>
-      </c>
-      <c r="I475" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>44</v>
       </c>
@@ -14464,14 +13100,8 @@
       <c r="G476">
         <v>51</v>
       </c>
-      <c r="H476">
-        <v>130</v>
-      </c>
-      <c r="I476" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>44</v>
       </c>
@@ -14493,14 +13123,8 @@
       <c r="G477">
         <v>51</v>
       </c>
-      <c r="H477">
-        <v>130</v>
-      </c>
-      <c r="I477" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>44</v>
       </c>
@@ -14522,14 +13146,8 @@
       <c r="G478">
         <v>51</v>
       </c>
-      <c r="H478">
-        <v>130</v>
-      </c>
-      <c r="I478" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>44</v>
       </c>
@@ -14551,14 +13169,8 @@
       <c r="G479">
         <v>51</v>
       </c>
-      <c r="H479">
-        <v>130</v>
-      </c>
-      <c r="I479" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>44</v>
       </c>
@@ -14580,14 +13192,8 @@
       <c r="G480">
         <v>51</v>
       </c>
-      <c r="H480">
-        <v>130</v>
-      </c>
-      <c r="I480" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>44</v>
       </c>
@@ -14609,14 +13215,8 @@
       <c r="G481">
         <v>51</v>
       </c>
-      <c r="H481">
-        <v>130</v>
-      </c>
-      <c r="I481" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>44</v>
       </c>
@@ -14638,14 +13238,8 @@
       <c r="G482">
         <v>48</v>
       </c>
-      <c r="H482">
-        <v>120</v>
-      </c>
-      <c r="I482" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>44</v>
       </c>
@@ -14667,14 +13261,8 @@
       <c r="G483">
         <v>48</v>
       </c>
-      <c r="H483">
-        <v>120</v>
-      </c>
-      <c r="I483" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>44</v>
       </c>
@@ -14696,14 +13284,8 @@
       <c r="G484">
         <v>48</v>
       </c>
-      <c r="H484">
-        <v>120</v>
-      </c>
-      <c r="I484" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>44</v>
       </c>
@@ -14725,14 +13307,8 @@
       <c r="G485">
         <v>51</v>
       </c>
-      <c r="H485">
-        <v>130</v>
-      </c>
-      <c r="I485" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>44</v>
       </c>
@@ -14754,14 +13330,8 @@
       <c r="G486">
         <v>48</v>
       </c>
-      <c r="H486">
-        <v>120</v>
-      </c>
-      <c r="I486" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>44</v>
       </c>
@@ -14783,14 +13353,8 @@
       <c r="G487">
         <v>48</v>
       </c>
-      <c r="H487">
-        <v>120</v>
-      </c>
-      <c r="I487" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>44</v>
       </c>
@@ -14812,14 +13376,8 @@
       <c r="G488">
         <v>51</v>
       </c>
-      <c r="H488">
-        <v>130</v>
-      </c>
-      <c r="I488" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>44</v>
       </c>
@@ -14841,14 +13399,8 @@
       <c r="G489">
         <v>51</v>
       </c>
-      <c r="H489">
-        <v>130</v>
-      </c>
-      <c r="I489" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>44</v>
       </c>
@@ -14870,14 +13422,8 @@
       <c r="G490">
         <v>48</v>
       </c>
-      <c r="H490">
-        <v>120</v>
-      </c>
-      <c r="I490" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>44</v>
       </c>
@@ -14899,14 +13445,8 @@
       <c r="G491">
         <v>48</v>
       </c>
-      <c r="H491">
-        <v>120</v>
-      </c>
-      <c r="I491" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>44</v>
       </c>
@@ -14928,14 +13468,8 @@
       <c r="G492">
         <v>48</v>
       </c>
-      <c r="H492">
-        <v>120</v>
-      </c>
-      <c r="I492" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>44</v>
       </c>
@@ -14957,14 +13491,8 @@
       <c r="G493">
         <v>48</v>
       </c>
-      <c r="H493">
-        <v>120</v>
-      </c>
-      <c r="I493" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>44</v>
       </c>
@@ -14986,14 +13514,8 @@
       <c r="G494">
         <v>48</v>
       </c>
-      <c r="H494">
-        <v>120</v>
-      </c>
-      <c r="I494" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>44</v>
       </c>
@@ -15015,14 +13537,8 @@
       <c r="G495">
         <v>51</v>
       </c>
-      <c r="H495">
-        <v>130</v>
-      </c>
-      <c r="I495" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>57</v>
       </c>

--- a/data/graduation_requirements.xlsx
+++ b/data/graduation_requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24CD16-7D04-46B2-BB82-B49D4E331700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3A0CD-07D6-41B3-8D53-F3874F861184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$868</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -645,23 +645,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M868"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -694,7 +696,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -723,7 +725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -752,7 +754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -781,7 +783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -810,7 +812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -839,7 +841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -868,7 +870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -897,7 +899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -926,7 +928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -955,7 +957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -984,7 +986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1042,7 +1044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1390,7 +1392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1506,7 +1508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1767,7 +1769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1796,7 +1798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1970,7 +1972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -2028,7 +2030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2057,7 +2059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -2115,7 +2117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -2260,7 +2262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -2318,7 +2320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -2695,7 +2697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -2898,7 +2900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -2956,7 +2958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -3275,7 +3277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -3304,7 +3306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>42</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>42</v>
       </c>
@@ -3536,7 +3538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -3594,7 +3596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>42</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>42</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>42</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -3739,7 +3741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>42</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>42</v>
       </c>
@@ -3855,7 +3857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>42</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>42</v>
       </c>
@@ -3913,7 +3915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>42</v>
       </c>
@@ -3942,7 +3944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>42</v>
       </c>
@@ -4029,7 +4031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>42</v>
       </c>
@@ -4058,7 +4060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>42</v>
       </c>
@@ -4087,7 +4089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -4116,7 +4118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>42</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>42</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -4319,7 +4321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -4348,7 +4350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>42</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>42</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -4464,7 +4466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>42</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>42</v>
       </c>
@@ -4551,7 +4553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>42</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>42</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -4638,7 +4640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>42</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -4725,7 +4727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>42</v>
       </c>
@@ -4783,7 +4785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>42</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -4986,7 +4988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>42</v>
       </c>
@@ -5131,7 +5133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>42</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -5247,7 +5249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -5276,7 +5278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -5421,7 +5423,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -5479,7 +5481,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -5508,7 +5510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -5537,7 +5539,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -5566,7 +5568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>42</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -5624,7 +5626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -5682,7 +5684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -5711,7 +5713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>42</v>
       </c>
@@ -5827,7 +5829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>42</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -5972,7 +5974,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>42</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -6088,7 +6090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>42</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>42</v>
       </c>
@@ -6146,7 +6148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>42</v>
       </c>
@@ -6175,7 +6177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>42</v>
       </c>
@@ -6204,7 +6206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>42</v>
       </c>
@@ -6233,7 +6235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>42</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>42</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>42</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>42</v>
       </c>
@@ -6407,7 +6409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>42</v>
       </c>
@@ -6436,7 +6438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -6465,7 +6467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -6494,7 +6496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>42</v>
       </c>
@@ -6523,7 +6525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -6552,7 +6554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>42</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>42</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>42</v>
       </c>
@@ -6697,7 +6699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>42</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>42</v>
       </c>
@@ -6755,7 +6757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -6784,7 +6786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>42</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>42</v>
       </c>
@@ -6842,7 +6844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>42</v>
       </c>
@@ -6871,7 +6873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -6900,7 +6902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>42</v>
       </c>
@@ -6929,7 +6931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>42</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>42</v>
       </c>
@@ -7045,7 +7047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>42</v>
       </c>
@@ -7103,7 +7105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>42</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>42</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>42</v>
       </c>
@@ -7277,7 +7279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>42</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>42</v>
       </c>
@@ -7335,7 +7337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>42</v>
       </c>
@@ -7364,7 +7366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>42</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>42</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>42</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>42</v>
       </c>
@@ -7509,7 +7511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>42</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>42</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -7596,7 +7598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>42</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>42</v>
       </c>
@@ -7654,7 +7656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>42</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>42</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>42</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>42</v>
       </c>
@@ -7770,7 +7772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>42</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>42</v>
       </c>
@@ -7828,7 +7830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>42</v>
       </c>
@@ -7857,7 +7859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>44</v>
       </c>
@@ -7880,7 +7882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>44</v>
       </c>
@@ -7903,7 +7905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>44</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>44</v>
       </c>
@@ -7949,7 +7951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>44</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>44</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>44</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>44</v>
       </c>
@@ -8064,7 +8066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>44</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>44</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>44</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>44</v>
       </c>
@@ -8156,7 +8158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>44</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -8202,7 +8204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>44</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -8248,7 +8250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>44</v>
       </c>
@@ -8271,7 +8273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>44</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>44</v>
       </c>
@@ -8317,7 +8319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>44</v>
       </c>
@@ -8340,7 +8342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>44</v>
       </c>
@@ -8363,7 +8365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>44</v>
       </c>
@@ -8386,7 +8388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>44</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>44</v>
       </c>
@@ -8432,7 +8434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>44</v>
       </c>
@@ -8455,7 +8457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>44</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>44</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>44</v>
       </c>
@@ -8524,7 +8526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>44</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>44</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>44</v>
       </c>
@@ -8593,7 +8595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>44</v>
       </c>
@@ -8616,7 +8618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>44</v>
       </c>
@@ -8639,7 +8641,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>44</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>44</v>
       </c>
@@ -8685,7 +8687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>44</v>
       </c>
@@ -8708,7 +8710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>44</v>
       </c>
@@ -8731,7 +8733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>44</v>
       </c>
@@ -8754,7 +8756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>44</v>
       </c>
@@ -8777,7 +8779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>44</v>
       </c>
@@ -8800,7 +8802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>44</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>44</v>
       </c>
@@ -8846,7 +8848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>44</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>44</v>
       </c>
@@ -8892,7 +8894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>44</v>
       </c>
@@ -8915,7 +8917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -8938,7 +8940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>44</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>44</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>44</v>
       </c>
@@ -9007,7 +9009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>44</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>44</v>
       </c>
@@ -9053,7 +9055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>44</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>44</v>
       </c>
@@ -9099,7 +9101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>44</v>
       </c>
@@ -9122,7 +9124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>44</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>44</v>
       </c>
@@ -9168,7 +9170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>44</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>44</v>
       </c>
@@ -9214,7 +9216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>44</v>
       </c>
@@ -9237,7 +9239,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>44</v>
       </c>
@@ -9260,7 +9262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>44</v>
       </c>
@@ -9283,7 +9285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>44</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>44</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>44</v>
       </c>
@@ -9352,7 +9354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>44</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>44</v>
       </c>
@@ -9398,7 +9400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>44</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -9444,7 +9446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>44</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>44</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>44</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>44</v>
       </c>
@@ -9536,7 +9538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>44</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>44</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>44</v>
       </c>
@@ -9605,7 +9607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>44</v>
       </c>
@@ -9628,7 +9630,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>44</v>
       </c>
@@ -9651,7 +9653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -9674,7 +9676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>44</v>
       </c>
@@ -9697,7 +9699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>44</v>
       </c>
@@ -9720,7 +9722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>44</v>
       </c>
@@ -9743,7 +9745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>44</v>
       </c>
@@ -9766,7 +9768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>44</v>
       </c>
@@ -9789,7 +9791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>44</v>
       </c>
@@ -9812,7 +9814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>44</v>
       </c>
@@ -9835,7 +9837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>44</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>44</v>
       </c>
@@ -9881,7 +9883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>44</v>
       </c>
@@ -9904,7 +9906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>44</v>
       </c>
@@ -9927,7 +9929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>44</v>
       </c>
@@ -9950,7 +9952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>44</v>
       </c>
@@ -9973,7 +9975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>44</v>
       </c>
@@ -9996,7 +9998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>44</v>
       </c>
@@ -10019,7 +10021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>44</v>
       </c>
@@ -10042,7 +10044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>44</v>
       </c>
@@ -10065,7 +10067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>44</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>44</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>44</v>
       </c>
@@ -10134,7 +10136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>44</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>44</v>
       </c>
@@ -10180,7 +10182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>44</v>
       </c>
@@ -10203,7 +10205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>44</v>
       </c>
@@ -10226,7 +10228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>44</v>
       </c>
@@ -10249,7 +10251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>44</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>44</v>
       </c>
@@ -10295,7 +10297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>44</v>
       </c>
@@ -10318,7 +10320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>44</v>
       </c>
@@ -10341,7 +10343,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>44</v>
       </c>
@@ -10364,7 +10366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>44</v>
       </c>
@@ -10387,7 +10389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -10410,7 +10412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>44</v>
       </c>
@@ -10433,7 +10435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>44</v>
       </c>
@@ -10456,7 +10458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>44</v>
       </c>
@@ -10479,7 +10481,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>44</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>44</v>
       </c>
@@ -10525,7 +10527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>44</v>
       </c>
@@ -10548,7 +10550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>44</v>
       </c>
@@ -10571,7 +10573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>44</v>
       </c>
@@ -10594,7 +10596,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>44</v>
       </c>
@@ -10617,7 +10619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>44</v>
       </c>
@@ -10640,7 +10642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>44</v>
       </c>
@@ -10663,7 +10665,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>44</v>
       </c>
@@ -10686,7 +10688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>44</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>44</v>
       </c>
@@ -10732,7 +10734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>44</v>
       </c>
@@ -10755,7 +10757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>44</v>
       </c>
@@ -10778,7 +10780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>44</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>44</v>
       </c>
@@ -10824,7 +10826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>44</v>
       </c>
@@ -10847,7 +10849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>44</v>
       </c>
@@ -10870,7 +10872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>44</v>
       </c>
@@ -10893,7 +10895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>44</v>
       </c>
@@ -10916,7 +10918,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>44</v>
       </c>
@@ -10939,7 +10941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>44</v>
       </c>
@@ -10962,7 +10964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>44</v>
       </c>
@@ -10985,7 +10987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>44</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>44</v>
       </c>
@@ -11031,7 +11033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>44</v>
       </c>
@@ -11054,7 +11056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>44</v>
       </c>
@@ -11077,7 +11079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>44</v>
       </c>
@@ -11100,7 +11102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>44</v>
       </c>
@@ -11123,7 +11125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -11146,7 +11148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>44</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>44</v>
       </c>
@@ -11192,7 +11194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>44</v>
       </c>
@@ -11215,7 +11217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>44</v>
       </c>
@@ -11238,7 +11240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>44</v>
       </c>
@@ -11261,7 +11263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>44</v>
       </c>
@@ -11284,7 +11286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>44</v>
       </c>
@@ -11307,7 +11309,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>44</v>
       </c>
@@ -11330,7 +11332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>44</v>
       </c>
@@ -11353,7 +11355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>44</v>
       </c>
@@ -11376,7 +11378,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>44</v>
       </c>
@@ -11399,7 +11401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>44</v>
       </c>
@@ -11422,7 +11424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>44</v>
       </c>
@@ -11445,7 +11447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>44</v>
       </c>
@@ -11468,7 +11470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>44</v>
       </c>
@@ -11491,7 +11493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>44</v>
       </c>
@@ -11514,7 +11516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>44</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>44</v>
       </c>
@@ -11560,7 +11562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>44</v>
       </c>
@@ -11583,7 +11585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>44</v>
       </c>
@@ -11606,7 +11608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>44</v>
       </c>
@@ -11629,7 +11631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>44</v>
       </c>
@@ -11652,7 +11654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>44</v>
       </c>
@@ -11675,7 +11677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>44</v>
       </c>
@@ -11698,7 +11700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>44</v>
       </c>
@@ -11721,7 +11723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>44</v>
       </c>
@@ -11744,7 +11746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>44</v>
       </c>
@@ -11767,7 +11769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>44</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>44</v>
       </c>
@@ -11813,7 +11815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>44</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>44</v>
       </c>
@@ -11859,7 +11861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -11882,7 +11884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>44</v>
       </c>
@@ -11905,7 +11907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>44</v>
       </c>
@@ -11928,7 +11930,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>44</v>
       </c>
@@ -11951,7 +11953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>44</v>
       </c>
@@ -11974,7 +11976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>44</v>
       </c>
@@ -11997,7 +11999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>44</v>
       </c>
@@ -12020,7 +12022,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>44</v>
       </c>
@@ -12043,7 +12045,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>44</v>
       </c>
@@ -12066,7 +12068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>44</v>
       </c>
@@ -12089,7 +12091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>44</v>
       </c>
@@ -12112,7 +12114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>44</v>
       </c>
@@ -12135,7 +12137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>44</v>
       </c>
@@ -12158,7 +12160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>44</v>
       </c>
@@ -12181,7 +12183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>44</v>
       </c>
@@ -12204,7 +12206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>44</v>
       </c>
@@ -12227,7 +12229,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>44</v>
       </c>
@@ -12250,7 +12252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>44</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>44</v>
       </c>
@@ -12296,7 +12298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>44</v>
       </c>
@@ -12319,7 +12321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>44</v>
       </c>
@@ -12342,7 +12344,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>44</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>44</v>
       </c>
@@ -12388,7 +12390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>44</v>
       </c>
@@ -12411,7 +12413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>44</v>
       </c>
@@ -12434,7 +12436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>44</v>
       </c>
@@ -12457,7 +12459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>44</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>44</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>44</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>44</v>
       </c>
@@ -12549,7 +12551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>44</v>
       </c>
@@ -12572,7 +12574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>44</v>
       </c>
@@ -12595,7 +12597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>44</v>
       </c>
@@ -12618,7 +12620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>44</v>
       </c>
@@ -12641,7 +12643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>44</v>
       </c>
@@ -12664,7 +12666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>44</v>
       </c>
@@ -12687,7 +12689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>44</v>
       </c>
@@ -12710,7 +12712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>44</v>
       </c>
@@ -12733,7 +12735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>44</v>
       </c>
@@ -12756,7 +12758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>44</v>
       </c>
@@ -12779,7 +12781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>44</v>
       </c>
@@ -12802,7 +12804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>44</v>
       </c>
@@ -12825,7 +12827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>44</v>
       </c>
@@ -12848,7 +12850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>44</v>
       </c>
@@ -12871,7 +12873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>44</v>
       </c>
@@ -12894,7 +12896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -12917,7 +12919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>44</v>
       </c>
@@ -12940,7 +12942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -12963,7 +12965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>44</v>
       </c>
@@ -12986,7 +12988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -13009,7 +13011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -13032,7 +13034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>44</v>
       </c>
@@ -13055,7 +13057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>44</v>
       </c>
@@ -13078,7 +13080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>44</v>
       </c>
@@ -13101,7 +13103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>44</v>
       </c>
@@ -13124,7 +13126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>44</v>
       </c>
@@ -13147,7 +13149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>44</v>
       </c>
@@ -13170,7 +13172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>44</v>
       </c>
@@ -13193,7 +13195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>44</v>
       </c>
@@ -13216,7 +13218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>44</v>
       </c>
@@ -13239,7 +13241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>44</v>
       </c>
@@ -13262,7 +13264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>44</v>
       </c>
@@ -13285,7 +13287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>44</v>
       </c>
@@ -13308,7 +13310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>44</v>
       </c>
@@ -13331,7 +13333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>44</v>
       </c>
@@ -13354,7 +13356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>44</v>
       </c>
@@ -13377,7 +13379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>44</v>
       </c>
@@ -13400,7 +13402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>44</v>
       </c>
@@ -13423,7 +13425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>44</v>
       </c>
@@ -13446,7 +13448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>44</v>
       </c>
@@ -13469,7 +13471,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>44</v>
       </c>
@@ -13492,7 +13494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>44</v>
       </c>
@@ -13515,7 +13517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>44</v>
       </c>
@@ -13538,7 +13540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>57</v>
       </c>
@@ -13561,7 +13563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>57</v>
       </c>
@@ -13584,7 +13586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>57</v>
       </c>
@@ -13607,7 +13609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>57</v>
       </c>
@@ -13630,7 +13632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>57</v>
       </c>
@@ -13653,7 +13655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>57</v>
       </c>
@@ -13676,7 +13678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>57</v>
       </c>
@@ -13699,7 +13701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>58</v>
       </c>
@@ -13722,7 +13724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>58</v>
       </c>
@@ -13745,7 +13747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>58</v>
       </c>
@@ -13768,7 +13770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>58</v>
       </c>
@@ -13791,7 +13793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>58</v>
       </c>
@@ -13814,7 +13816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>58</v>
       </c>
@@ -13837,7 +13839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>58</v>
       </c>
@@ -13860,7 +13862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>57</v>
       </c>
@@ -13883,7 +13885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>57</v>
       </c>
@@ -13906,7 +13908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>57</v>
       </c>
@@ -13929,7 +13931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>57</v>
       </c>
@@ -13952,7 +13954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>57</v>
       </c>
@@ -13975,7 +13977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>57</v>
       </c>
@@ -13998,7 +14000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>57</v>
       </c>
@@ -14021,7 +14023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>58</v>
       </c>
@@ -14044,7 +14046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>58</v>
       </c>
@@ -14067,7 +14069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>58</v>
       </c>
@@ -14090,7 +14092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>58</v>
       </c>
@@ -14113,7 +14115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>58</v>
       </c>
@@ -14136,7 +14138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>58</v>
       </c>
@@ -14159,7 +14161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>58</v>
       </c>
@@ -14182,7 +14184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>57</v>
       </c>
@@ -14205,7 +14207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>57</v>
       </c>
@@ -14228,7 +14230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>57</v>
       </c>
@@ -14251,7 +14253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>57</v>
       </c>
@@ -14274,7 +14276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>57</v>
       </c>
@@ -14297,7 +14299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>57</v>
       </c>
@@ -14320,7 +14322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>57</v>
       </c>
@@ -14343,7 +14345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>58</v>
       </c>
@@ -14366,7 +14368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>58</v>
       </c>
@@ -14389,7 +14391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>58</v>
       </c>
@@ -14412,7 +14414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>58</v>
       </c>
@@ -14435,7 +14437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>58</v>
       </c>
@@ -14458,7 +14460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>58</v>
       </c>
@@ -14481,7 +14483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>58</v>
       </c>
@@ -14504,7 +14506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>57</v>
       </c>
@@ -14527,7 +14529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>57</v>
       </c>
@@ -14550,7 +14552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>57</v>
       </c>
@@ -14573,7 +14575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>57</v>
       </c>
@@ -14596,7 +14598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>57</v>
       </c>
@@ -14619,7 +14621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>57</v>
       </c>
@@ -14642,7 +14644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>57</v>
       </c>
@@ -14665,7 +14667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>58</v>
       </c>
@@ -14688,7 +14690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>58</v>
       </c>
@@ -14711,7 +14713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>58</v>
       </c>
@@ -14734,7 +14736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>58</v>
       </c>
@@ -14757,7 +14759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>58</v>
       </c>
@@ -14780,7 +14782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>58</v>
       </c>
@@ -14803,7 +14805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>58</v>
       </c>
@@ -14826,7 +14828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>57</v>
       </c>
@@ -14849,7 +14851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>57</v>
       </c>
@@ -14872,7 +14874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>57</v>
       </c>
@@ -14895,7 +14897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>57</v>
       </c>
@@ -14918,7 +14920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>57</v>
       </c>
@@ -14941,7 +14943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>57</v>
       </c>
@@ -14964,7 +14966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>57</v>
       </c>
@@ -14987,7 +14989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>58</v>
       </c>
@@ -15010,7 +15012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>58</v>
       </c>
@@ -15033,7 +15035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>58</v>
       </c>
@@ -15056,7 +15058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>58</v>
       </c>
@@ -15079,7 +15081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>58</v>
       </c>
@@ -15102,7 +15104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>58</v>
       </c>
@@ -15125,7 +15127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>58</v>
       </c>
@@ -15148,7 +15150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>57</v>
       </c>
@@ -15171,7 +15173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>57</v>
       </c>
@@ -15194,7 +15196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>57</v>
       </c>
@@ -15217,7 +15219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>57</v>
       </c>
@@ -15240,7 +15242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>57</v>
       </c>
@@ -15263,7 +15265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>57</v>
       </c>
@@ -15286,7 +15288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>57</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>58</v>
       </c>
@@ -15332,7 +15334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>58</v>
       </c>
@@ -15355,7 +15357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>58</v>
       </c>
@@ -15378,7 +15380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>58</v>
       </c>
@@ -15401,7 +15403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>58</v>
       </c>
@@ -15424,7 +15426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>58</v>
       </c>
@@ -15447,7 +15449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>58</v>
       </c>
@@ -15470,7 +15472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>76</v>
       </c>
@@ -15493,7 +15495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>76</v>
       </c>
@@ -15516,7 +15518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>76</v>
       </c>
@@ -15539,7 +15541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>76</v>
       </c>
@@ -15562,7 +15564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>76</v>
       </c>
@@ -15585,7 +15587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>76</v>
       </c>
@@ -15608,7 +15610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>76</v>
       </c>
@@ -15631,7 +15633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>76</v>
       </c>
@@ -15654,7 +15656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>76</v>
       </c>
@@ -15677,7 +15679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>76</v>
       </c>
@@ -15700,7 +15702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>76</v>
       </c>
@@ -15723,7 +15725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>76</v>
       </c>
@@ -15746,7 +15748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>76</v>
       </c>
@@ -15769,7 +15771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>76</v>
       </c>
@@ -15792,7 +15794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>76</v>
       </c>
@@ -15815,7 +15817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>76</v>
       </c>
@@ -15838,7 +15840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>76</v>
       </c>
@@ -15861,7 +15863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>76</v>
       </c>
@@ -15884,7 +15886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>76</v>
       </c>
@@ -15907,7 +15909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>76</v>
       </c>
@@ -15930,7 +15932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>76</v>
       </c>
@@ -15953,7 +15955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>76</v>
       </c>
@@ -15976,7 +15978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>76</v>
       </c>
@@ -15999,7 +16001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>76</v>
       </c>
@@ -16022,7 +16024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>76</v>
       </c>
@@ -16045,7 +16047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>76</v>
       </c>
@@ -16068,7 +16070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>76</v>
       </c>
@@ -16091,7 +16093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>76</v>
       </c>
@@ -16114,7 +16116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>76</v>
       </c>
@@ -16137,7 +16139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>76</v>
       </c>
@@ -16160,7 +16162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>76</v>
       </c>
@@ -16183,7 +16185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>76</v>
       </c>
@@ -16206,7 +16208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>76</v>
       </c>
@@ -16229,7 +16231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>76</v>
       </c>
@@ -16252,7 +16254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>76</v>
       </c>
@@ -16275,7 +16277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>76</v>
       </c>
@@ -16298,7 +16300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>76</v>
       </c>
@@ -16321,7 +16323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>76</v>
       </c>
@@ -16344,7 +16346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>76</v>
       </c>
@@ -16367,7 +16369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>76</v>
       </c>
@@ -16390,7 +16392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>76</v>
       </c>
@@ -16413,7 +16415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>76</v>
       </c>
@@ -16436,7 +16438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>76</v>
       </c>
@@ -16459,7 +16461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>76</v>
       </c>
@@ -16482,7 +16484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>76</v>
       </c>
@@ -16505,7 +16507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>76</v>
       </c>
@@ -16528,7 +16530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>76</v>
       </c>
@@ -16551,7 +16553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>76</v>
       </c>
@@ -16574,7 +16576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>76</v>
       </c>
@@ -16597,7 +16599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>76</v>
       </c>
@@ -16620,7 +16622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>76</v>
       </c>
@@ -16643,7 +16645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>76</v>
       </c>
@@ -16666,7 +16668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>76</v>
       </c>
@@ -16689,7 +16691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>76</v>
       </c>
@@ -16712,7 +16714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>76</v>
       </c>
@@ -16735,7 +16737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>76</v>
       </c>
@@ -16758,7 +16760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>76</v>
       </c>
@@ -16781,7 +16783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>76</v>
       </c>
@@ -16804,7 +16806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>76</v>
       </c>
@@ -16827,7 +16829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>76</v>
       </c>
@@ -16850,7 +16852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>76</v>
       </c>
@@ -16873,7 +16875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>76</v>
       </c>
@@ -16896,7 +16898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>76</v>
       </c>
@@ -16919,7 +16921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>76</v>
       </c>
@@ -16942,7 +16944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>76</v>
       </c>
@@ -16965,7 +16967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>76</v>
       </c>
@@ -16988,7 +16990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>76</v>
       </c>
@@ -17011,7 +17013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>76</v>
       </c>
@@ -17034,7 +17036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>76</v>
       </c>
@@ -17057,7 +17059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>76</v>
       </c>
@@ -17080,7 +17082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>76</v>
       </c>
@@ -17103,7 +17105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>76</v>
       </c>
@@ -17126,7 +17128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>76</v>
       </c>
@@ -17149,7 +17151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>76</v>
       </c>
@@ -17172,7 +17174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>76</v>
       </c>
@@ -17195,7 +17197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>76</v>
       </c>
@@ -17218,7 +17220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>76</v>
       </c>
@@ -17241,7 +17243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>76</v>
       </c>
@@ -17264,7 +17266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>76</v>
       </c>
@@ -17287,7 +17289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>76</v>
       </c>
@@ -17310,7 +17312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>76</v>
       </c>
@@ -17333,7 +17335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>76</v>
       </c>
@@ -17356,7 +17358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>76</v>
       </c>
@@ -17379,7 +17381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>76</v>
       </c>
@@ -17402,7 +17404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>76</v>
       </c>
@@ -17425,7 +17427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>76</v>
       </c>
@@ -17448,7 +17450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>76</v>
       </c>
@@ -17471,7 +17473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>76</v>
       </c>
@@ -17494,7 +17496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>76</v>
       </c>
@@ -17517,7 +17519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>76</v>
       </c>
@@ -17540,7 +17542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>76</v>
       </c>
@@ -17563,7 +17565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>76</v>
       </c>
@@ -17586,7 +17588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>76</v>
       </c>
@@ -17609,7 +17611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>76</v>
       </c>
@@ -17632,7 +17634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>76</v>
       </c>
@@ -17655,7 +17657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>76</v>
       </c>
@@ -17678,7 +17680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>76</v>
       </c>
@@ -17701,7 +17703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>76</v>
       </c>
@@ -17724,7 +17726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>76</v>
       </c>
@@ -17747,7 +17749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>76</v>
       </c>
@@ -17770,7 +17772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>76</v>
       </c>
@@ -17793,7 +17795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>76</v>
       </c>
@@ -17816,7 +17818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>76</v>
       </c>
@@ -17839,7 +17841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>76</v>
       </c>
@@ -17862,7 +17864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>76</v>
       </c>
@@ -17885,7 +17887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>76</v>
       </c>
@@ -17908,7 +17910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>76</v>
       </c>
@@ -17931,7 +17933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>76</v>
       </c>
@@ -17954,7 +17956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>76</v>
       </c>
@@ -17977,7 +17979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>76</v>
       </c>
@@ -18000,7 +18002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>76</v>
       </c>
@@ -18023,7 +18025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>76</v>
       </c>
@@ -18046,7 +18048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>76</v>
       </c>
@@ -18069,7 +18071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>76</v>
       </c>
@@ -18092,7 +18094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>76</v>
       </c>
@@ -18115,7 +18117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>76</v>
       </c>
@@ -18138,7 +18140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>76</v>
       </c>
@@ -18161,7 +18163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>76</v>
       </c>
@@ -18184,7 +18186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>76</v>
       </c>
@@ -18207,7 +18209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>76</v>
       </c>
@@ -18230,7 +18232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>76</v>
       </c>
@@ -18253,7 +18255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>76</v>
       </c>
@@ -18276,7 +18278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>76</v>
       </c>
@@ -18299,7 +18301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>76</v>
       </c>
@@ -18322,7 +18324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>76</v>
       </c>
@@ -18345,7 +18347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>76</v>
       </c>
@@ -18368,7 +18370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>76</v>
       </c>
@@ -18391,7 +18393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>76</v>
       </c>
@@ -18414,7 +18416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>76</v>
       </c>
@@ -18437,7 +18439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>76</v>
       </c>
@@ -18460,7 +18462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>76</v>
       </c>
@@ -18483,7 +18485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>76</v>
       </c>
@@ -18506,7 +18508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>76</v>
       </c>
@@ -18529,7 +18531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>76</v>
       </c>
@@ -18552,7 +18554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>76</v>
       </c>
@@ -18575,7 +18577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>76</v>
       </c>
@@ -18598,7 +18600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>76</v>
       </c>
@@ -18621,7 +18623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>76</v>
       </c>
@@ -18644,7 +18646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>76</v>
       </c>
@@ -18667,7 +18669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>76</v>
       </c>
@@ -18690,7 +18692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>76</v>
       </c>
@@ -18713,7 +18715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>76</v>
       </c>
@@ -18736,7 +18738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>76</v>
       </c>
@@ -18759,7 +18761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>76</v>
       </c>
@@ -18782,7 +18784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>76</v>
       </c>
@@ -18805,7 +18807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>76</v>
       </c>
@@ -18828,7 +18830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>76</v>
       </c>
@@ -18851,7 +18853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>76</v>
       </c>
@@ -18874,7 +18876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>76</v>
       </c>
@@ -18897,7 +18899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>76</v>
       </c>
@@ -18920,7 +18922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>76</v>
       </c>
@@ -18943,7 +18945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>76</v>
       </c>
@@ -18966,7 +18968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>76</v>
       </c>
@@ -18989,7 +18991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>76</v>
       </c>
@@ -19012,7 +19014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>76</v>
       </c>
@@ -19035,7 +19037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>76</v>
       </c>
@@ -19058,7 +19060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>76</v>
       </c>
@@ -19081,7 +19083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>76</v>
       </c>
@@ -19104,7 +19106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>76</v>
       </c>
@@ -19127,7 +19129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>76</v>
       </c>
@@ -19150,7 +19152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>76</v>
       </c>
@@ -19173,7 +19175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>76</v>
       </c>
@@ -19196,7 +19198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>76</v>
       </c>
@@ -19219,7 +19221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>76</v>
       </c>
@@ -19242,7 +19244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>76</v>
       </c>
@@ -19265,7 +19267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>76</v>
       </c>
@@ -19288,7 +19290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>76</v>
       </c>
@@ -19311,7 +19313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>76</v>
       </c>
@@ -19334,7 +19336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>76</v>
       </c>
@@ -19357,7 +19359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>76</v>
       </c>
@@ -19380,7 +19382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>76</v>
       </c>
@@ -19403,7 +19405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>76</v>
       </c>
@@ -19426,7 +19428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>76</v>
       </c>
@@ -19449,7 +19451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>76</v>
       </c>
@@ -19472,7 +19474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>76</v>
       </c>
@@ -19495,7 +19497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>76</v>
       </c>
@@ -19518,7 +19520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>76</v>
       </c>
@@ -19541,7 +19543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>76</v>
       </c>
@@ -19564,7 +19566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>76</v>
       </c>
@@ -19587,7 +19589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>76</v>
       </c>
@@ -19610,7 +19612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>76</v>
       </c>
@@ -19633,7 +19635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>76</v>
       </c>
@@ -19656,7 +19658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>76</v>
       </c>
@@ -19679,7 +19681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>76</v>
       </c>
@@ -19702,7 +19704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>76</v>
       </c>
@@ -19725,7 +19727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>76</v>
       </c>
@@ -19748,7 +19750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>76</v>
       </c>
@@ -19771,7 +19773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>76</v>
       </c>
@@ -19794,7 +19796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
         <v>76</v>
       </c>
@@ -19817,7 +19819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>76</v>
       </c>
@@ -19840,7 +19842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>76</v>
       </c>
@@ -19863,7 +19865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>76</v>
       </c>
@@ -19886,7 +19888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>76</v>
       </c>
@@ -19909,7 +19911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>76</v>
       </c>
@@ -19932,7 +19934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>76</v>
       </c>
@@ -19955,7 +19957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>76</v>
       </c>
@@ -19978,7 +19980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>76</v>
       </c>
@@ -20001,7 +20003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>76</v>
       </c>
@@ -20024,7 +20026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>76</v>
       </c>
@@ -20047,7 +20049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>76</v>
       </c>
@@ -20070,7 +20072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>76</v>
       </c>
@@ -20093,7 +20095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>76</v>
       </c>
@@ -20116,7 +20118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>76</v>
       </c>
@@ -20139,7 +20141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>76</v>
       </c>
@@ -20162,7 +20164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>76</v>
       </c>
@@ -20185,7 +20187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>76</v>
       </c>
@@ -20208,7 +20210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>76</v>
       </c>
@@ -20231,7 +20233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>76</v>
       </c>
@@ -20254,7 +20256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>76</v>
       </c>
@@ -20277,7 +20279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>76</v>
       </c>
@@ -20300,7 +20302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>76</v>
       </c>
@@ -20323,7 +20325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>76</v>
       </c>
@@ -20346,7 +20348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>76</v>
       </c>
@@ -20369,7 +20371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>76</v>
       </c>
@@ -20392,7 +20394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>76</v>
       </c>
@@ -20415,7 +20417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>76</v>
       </c>
@@ -20438,7 +20440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>76</v>
       </c>
@@ -20461,7 +20463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>76</v>
       </c>
@@ -20484,7 +20486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>76</v>
       </c>
@@ -20507,7 +20509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>76</v>
       </c>
@@ -20530,7 +20532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>76</v>
       </c>
@@ -20553,7 +20555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>76</v>
       </c>
@@ -20576,7 +20578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>76</v>
       </c>
@@ -20599,7 +20601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>76</v>
       </c>
@@ -20622,7 +20624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>76</v>
       </c>
@@ -20645,7 +20647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>76</v>
       </c>
@@ -20668,7 +20670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>76</v>
       </c>
@@ -20691,7 +20693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>76</v>
       </c>
@@ -20714,7 +20716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>76</v>
       </c>
@@ -20737,7 +20739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>76</v>
       </c>
@@ -20760,7 +20762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>76</v>
       </c>
@@ -20783,7 +20785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>76</v>
       </c>
@@ -20806,7 +20808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>76</v>
       </c>
@@ -20829,7 +20831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>76</v>
       </c>
@@ -20852,7 +20854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>76</v>
       </c>
@@ -20875,7 +20877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>76</v>
       </c>
@@ -20898,7 +20900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>76</v>
       </c>
@@ -20921,7 +20923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>76</v>
       </c>
@@ -20944,7 +20946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>76</v>
       </c>
@@ -20967,7 +20969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>76</v>
       </c>
@@ -20990,7 +20992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>76</v>
       </c>
@@ -21013,7 +21015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>76</v>
       </c>
@@ -21036,7 +21038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>76</v>
       </c>
@@ -21059,7 +21061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>76</v>
       </c>
@@ -21082,7 +21084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>76</v>
       </c>
@@ -21105,7 +21107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>76</v>
       </c>
@@ -21128,7 +21130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>76</v>
       </c>
@@ -21151,7 +21153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>76</v>
       </c>
@@ -21174,7 +21176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
         <v>76</v>
       </c>
@@ -21197,7 +21199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
         <v>76</v>
       </c>
@@ -21220,7 +21222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>76</v>
       </c>
@@ -21243,7 +21245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>76</v>
       </c>
@@ -21266,7 +21268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
         <v>76</v>
       </c>
@@ -21289,7 +21291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
         <v>76</v>
       </c>
@@ -21312,7 +21314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
         <v>76</v>
       </c>
@@ -21335,7 +21337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
         <v>76</v>
       </c>
@@ -21358,7 +21360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
         <v>76</v>
       </c>
@@ -21381,7 +21383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A837" t="s">
         <v>76</v>
       </c>
@@ -21404,7 +21406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
         <v>76</v>
       </c>
@@ -21427,7 +21429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
         <v>76</v>
       </c>
@@ -21450,7 +21452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
         <v>76</v>
       </c>
@@ -21473,7 +21475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
         <v>76</v>
       </c>
@@ -21496,7 +21498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
         <v>76</v>
       </c>
@@ -21519,7 +21521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
         <v>76</v>
       </c>
@@ -21542,7 +21544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A844" t="s">
         <v>76</v>
       </c>
@@ -21565,7 +21567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A845" t="s">
         <v>76</v>
       </c>
@@ -21588,7 +21590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A846" t="s">
         <v>76</v>
       </c>
@@ -21611,7 +21613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A847" t="s">
         <v>76</v>
       </c>
@@ -21634,7 +21636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A848" t="s">
         <v>76</v>
       </c>
@@ -21657,7 +21659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A849" t="s">
         <v>76</v>
       </c>
@@ -21680,7 +21682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A850" t="s">
         <v>76</v>
       </c>
@@ -21703,7 +21705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A851" t="s">
         <v>76</v>
       </c>
@@ -21726,7 +21728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A852" t="s">
         <v>76</v>
       </c>
@@ -21749,7 +21751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A853" t="s">
         <v>76</v>
       </c>
@@ -21772,7 +21774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
         <v>76</v>
       </c>
@@ -21795,7 +21797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A855" t="s">
         <v>76</v>
       </c>
@@ -21818,7 +21820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A856" t="s">
         <v>76</v>
       </c>
@@ -21841,7 +21843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A857" t="s">
         <v>76</v>
       </c>
@@ -21864,7 +21866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A858" t="s">
         <v>76</v>
       </c>
@@ -21887,7 +21889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
         <v>76</v>
       </c>
@@ -21910,7 +21912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
         <v>76</v>
       </c>
@@ -21933,7 +21935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
         <v>76</v>
       </c>
@@ -21956,7 +21958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
         <v>76</v>
       </c>
@@ -21979,7 +21981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A863" t="s">
         <v>76</v>
       </c>
@@ -22002,7 +22004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A864" t="s">
         <v>76</v>
       </c>
@@ -22025,7 +22027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A865" t="s">
         <v>76</v>
       </c>
@@ -22048,7 +22050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
         <v>76</v>
       </c>
@@ -22071,7 +22073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
         <v>76</v>
       </c>
@@ -22094,7 +22096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
         <v>76</v>
       </c>

--- a/data/graduation_requirements.xlsx
+++ b/data/graduation_requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3A0CD-07D6-41B3-8D53-F3874F861184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D86FE4B-313C-4C5D-ADD8-9AAC85770DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$868</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$868</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -645,25 +645,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M868"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +694,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -725,7 +723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -754,7 +752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -783,7 +781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -812,7 +810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -841,7 +839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -870,7 +868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -899,7 +897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -928,7 +926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -957,7 +955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -986,7 +984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1015,7 +1013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1131,7 +1129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1160,7 +1158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1189,7 +1187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1218,7 +1216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1276,7 +1274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1305,7 +1303,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1363,7 +1361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1421,7 +1419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1479,7 +1477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1537,7 +1535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1566,7 +1564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1595,7 +1593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1682,7 +1680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1711,7 +1709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1769,7 +1767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1798,7 +1796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1914,7 +1912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1972,7 +1970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2001,7 +1999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -2030,7 +2028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -2146,7 +2144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2175,7 +2173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -2204,7 +2202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2233,7 +2231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -2291,7 +2289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -2320,7 +2318,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -2378,7 +2376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -2407,7 +2405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -2465,7 +2463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -2494,7 +2492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -2552,7 +2550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -2610,7 +2608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -2668,7 +2666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -2726,7 +2724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -2755,7 +2753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -2784,7 +2782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -2813,7 +2811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -2842,7 +2840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -2900,7 +2898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -2929,7 +2927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -2987,7 +2985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -3045,7 +3043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -3074,7 +3072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -3103,7 +3101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -3132,7 +3130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -3161,7 +3159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -3190,7 +3188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -3277,7 +3275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -3306,7 +3304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -3393,7 +3391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -3451,7 +3449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -3480,7 +3478,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>42</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>42</v>
       </c>
@@ -3538,7 +3536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -3567,7 +3565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -3596,7 +3594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -3625,7 +3623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>42</v>
       </c>
@@ -3654,7 +3652,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>42</v>
       </c>
@@ -3683,7 +3681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>42</v>
       </c>
@@ -3712,7 +3710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -3770,7 +3768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -3799,7 +3797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>42</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>42</v>
       </c>
@@ -3857,7 +3855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>42</v>
       </c>
@@ -3886,7 +3884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>42</v>
       </c>
@@ -3915,7 +3913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>42</v>
       </c>
@@ -3944,7 +3942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -4002,7 +4000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>42</v>
       </c>
@@ -4031,7 +4029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>42</v>
       </c>
@@ -4060,7 +4058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>42</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>42</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>42</v>
       </c>
@@ -4176,7 +4174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -4205,7 +4203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -4234,7 +4232,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -4263,7 +4261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -4321,7 +4319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -4350,7 +4348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>42</v>
       </c>
@@ -4379,7 +4377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -4408,7 +4406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>42</v>
       </c>
@@ -4437,7 +4435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -4466,7 +4464,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -4495,7 +4493,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>42</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>42</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>42</v>
       </c>
@@ -4582,7 +4580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>42</v>
       </c>
@@ -4611,7 +4609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -4640,7 +4638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>42</v>
       </c>
@@ -4669,7 +4667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -4727,7 +4725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -4756,7 +4754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>42</v>
       </c>
@@ -4785,7 +4783,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -4814,7 +4812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -4843,7 +4841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -4872,7 +4870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -4930,7 +4928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>42</v>
       </c>
@@ -4959,7 +4957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -5017,7 +5015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -5046,7 +5044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -5075,7 +5073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>42</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>42</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -5220,7 +5218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -5249,7 +5247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -5278,7 +5276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -5307,7 +5305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -5365,7 +5363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -5394,7 +5392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -5452,7 +5450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -5481,7 +5479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -5510,7 +5508,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -5539,7 +5537,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>42</v>
       </c>
@@ -5597,7 +5595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -5626,7 +5624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -5655,7 +5653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -5684,7 +5682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -5713,7 +5711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -5742,7 +5740,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -5771,7 +5769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -5800,7 +5798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>42</v>
       </c>
@@ -5829,7 +5827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -5858,7 +5856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>42</v>
       </c>
@@ -5887,7 +5885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -5916,7 +5914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -5945,7 +5943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -6003,7 +6001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -6032,7 +6030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>42</v>
       </c>
@@ -6061,7 +6059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -6090,7 +6088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>42</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>42</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>42</v>
       </c>
@@ -6177,7 +6175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>42</v>
       </c>
@@ -6206,7 +6204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>42</v>
       </c>
@@ -6235,7 +6233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>42</v>
       </c>
@@ -6264,7 +6262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>42</v>
       </c>
@@ -6293,7 +6291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -6322,7 +6320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>42</v>
       </c>
@@ -6351,7 +6349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -6380,7 +6378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>42</v>
       </c>
@@ -6409,7 +6407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>42</v>
       </c>
@@ -6438,7 +6436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -6467,7 +6465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -6496,7 +6494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>42</v>
       </c>
@@ -6525,7 +6523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -6554,7 +6552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -6583,7 +6581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>42</v>
       </c>
@@ -6612,7 +6610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -6641,7 +6639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>42</v>
       </c>
@@ -6670,7 +6668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>42</v>
       </c>
@@ -6699,7 +6697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>42</v>
       </c>
@@ -6728,7 +6726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>42</v>
       </c>
@@ -6757,7 +6755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -6786,7 +6784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>42</v>
       </c>
@@ -6815,7 +6813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>42</v>
       </c>
@@ -6844,7 +6842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>42</v>
       </c>
@@ -6873,7 +6871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -6902,7 +6900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>42</v>
       </c>
@@ -6931,7 +6929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -6960,7 +6958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>42</v>
       </c>
@@ -6989,7 +6987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -7018,7 +7016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>42</v>
       </c>
@@ -7047,7 +7045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -7076,7 +7074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>42</v>
       </c>
@@ -7105,7 +7103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -7134,7 +7132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>42</v>
       </c>
@@ -7163,7 +7161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -7192,7 +7190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -7221,7 +7219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>42</v>
       </c>
@@ -7250,7 +7248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>42</v>
       </c>
@@ -7279,7 +7277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>42</v>
       </c>
@@ -7308,7 +7306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>42</v>
       </c>
@@ -7337,7 +7335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>42</v>
       </c>
@@ -7366,7 +7364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -7395,7 +7393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>42</v>
       </c>
@@ -7424,7 +7422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>42</v>
       </c>
@@ -7453,7 +7451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>42</v>
       </c>
@@ -7482,7 +7480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>42</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>42</v>
       </c>
@@ -7540,7 +7538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>42</v>
       </c>
@@ -7569,7 +7567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -7598,7 +7596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>42</v>
       </c>
@@ -7627,7 +7625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>42</v>
       </c>
@@ -7656,7 +7654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>42</v>
       </c>
@@ -7685,7 +7683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>42</v>
       </c>
@@ -7714,7 +7712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>42</v>
       </c>
@@ -7743,7 +7741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>42</v>
       </c>
@@ -7772,7 +7770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>42</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>42</v>
       </c>
@@ -7830,7 +7828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>42</v>
       </c>
@@ -7859,7 +7857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>44</v>
       </c>
@@ -7882,7 +7880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>44</v>
       </c>
@@ -7905,7 +7903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>44</v>
       </c>
@@ -7928,7 +7926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>44</v>
       </c>
@@ -7951,7 +7949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>44</v>
       </c>
@@ -7974,7 +7972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>44</v>
       </c>
@@ -7997,7 +7995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>44</v>
       </c>
@@ -8020,7 +8018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -8043,7 +8041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>44</v>
       </c>
@@ -8066,7 +8064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>44</v>
       </c>
@@ -8089,7 +8087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>44</v>
       </c>
@@ -8112,7 +8110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>44</v>
       </c>
@@ -8135,7 +8133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>44</v>
       </c>
@@ -8158,7 +8156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>44</v>
       </c>
@@ -8181,7 +8179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -8204,7 +8202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>44</v>
       </c>
@@ -8227,7 +8225,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -8250,7 +8248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>44</v>
       </c>
@@ -8273,7 +8271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>44</v>
       </c>
@@ -8296,7 +8294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>44</v>
       </c>
@@ -8319,7 +8317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>44</v>
       </c>
@@ -8342,7 +8340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>44</v>
       </c>
@@ -8365,7 +8363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>44</v>
       </c>
@@ -8388,7 +8386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>44</v>
       </c>
@@ -8411,7 +8409,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>44</v>
       </c>
@@ -8434,7 +8432,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>44</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>44</v>
       </c>
@@ -8480,7 +8478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>44</v>
       </c>
@@ -8503,7 +8501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>44</v>
       </c>
@@ -8526,7 +8524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>44</v>
       </c>
@@ -8549,7 +8547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>44</v>
       </c>
@@ -8572,7 +8570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>44</v>
       </c>
@@ -8595,7 +8593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>44</v>
       </c>
@@ -8618,7 +8616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>44</v>
       </c>
@@ -8641,7 +8639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>44</v>
       </c>
@@ -8664,7 +8662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>44</v>
       </c>
@@ -8687,7 +8685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>44</v>
       </c>
@@ -8710,7 +8708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>44</v>
       </c>
@@ -8733,7 +8731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>44</v>
       </c>
@@ -8756,7 +8754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>44</v>
       </c>
@@ -8779,7 +8777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>44</v>
       </c>
@@ -8802,7 +8800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>44</v>
       </c>
@@ -8825,7 +8823,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>44</v>
       </c>
@@ -8848,7 +8846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>44</v>
       </c>
@@ -8871,7 +8869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>44</v>
       </c>
@@ -8894,7 +8892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>44</v>
       </c>
@@ -8917,7 +8915,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -8940,7 +8938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>44</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>44</v>
       </c>
@@ -8986,7 +8984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>44</v>
       </c>
@@ -9009,7 +9007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>44</v>
       </c>
@@ -9032,7 +9030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>44</v>
       </c>
@@ -9055,7 +9053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>44</v>
       </c>
@@ -9078,7 +9076,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>44</v>
       </c>
@@ -9101,7 +9099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>44</v>
       </c>
@@ -9124,7 +9122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>44</v>
       </c>
@@ -9147,7 +9145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>44</v>
       </c>
@@ -9170,7 +9168,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>44</v>
       </c>
@@ -9193,7 +9191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>44</v>
       </c>
@@ -9216,7 +9214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>44</v>
       </c>
@@ -9239,7 +9237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>44</v>
       </c>
@@ -9262,7 +9260,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>44</v>
       </c>
@@ -9285,7 +9283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>44</v>
       </c>
@@ -9308,7 +9306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>44</v>
       </c>
@@ -9331,7 +9329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>44</v>
       </c>
@@ -9354,7 +9352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>44</v>
       </c>
@@ -9377,7 +9375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>44</v>
       </c>
@@ -9400,7 +9398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>44</v>
       </c>
@@ -9423,7 +9421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -9446,7 +9444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>44</v>
       </c>
@@ -9469,7 +9467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>44</v>
       </c>
@@ -9492,7 +9490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>44</v>
       </c>
@@ -9515,7 +9513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>44</v>
       </c>
@@ -9538,7 +9536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>44</v>
       </c>
@@ -9561,7 +9559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>44</v>
       </c>
@@ -9584,7 +9582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>44</v>
       </c>
@@ -9607,7 +9605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>44</v>
       </c>
@@ -9630,7 +9628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>44</v>
       </c>
@@ -9653,7 +9651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -9676,7 +9674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>44</v>
       </c>
@@ -9699,7 +9697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>44</v>
       </c>
@@ -9722,7 +9720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>44</v>
       </c>
@@ -9745,7 +9743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>44</v>
       </c>
@@ -9768,7 +9766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>44</v>
       </c>
@@ -9791,7 +9789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>44</v>
       </c>
@@ -9814,7 +9812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>44</v>
       </c>
@@ -9837,7 +9835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>44</v>
       </c>
@@ -9860,7 +9858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>44</v>
       </c>
@@ -9883,7 +9881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>44</v>
       </c>
@@ -9906,7 +9904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>44</v>
       </c>
@@ -9929,7 +9927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>44</v>
       </c>
@@ -9952,7 +9950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>44</v>
       </c>
@@ -9975,7 +9973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>44</v>
       </c>
@@ -9998,7 +9996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>44</v>
       </c>
@@ -10021,7 +10019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>44</v>
       </c>
@@ -10044,7 +10042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>44</v>
       </c>
@@ -10067,7 +10065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>44</v>
       </c>
@@ -10090,7 +10088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>44</v>
       </c>
@@ -10113,7 +10111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>44</v>
       </c>
@@ -10136,7 +10134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>44</v>
       </c>
@@ -10159,7 +10157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>44</v>
       </c>
@@ -10182,7 +10180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>44</v>
       </c>
@@ -10205,7 +10203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>44</v>
       </c>
@@ -10228,7 +10226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>44</v>
       </c>
@@ -10251,7 +10249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>44</v>
       </c>
@@ -10274,7 +10272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>44</v>
       </c>
@@ -10297,7 +10295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>44</v>
       </c>
@@ -10320,7 +10318,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>44</v>
       </c>
@@ -10343,7 +10341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>44</v>
       </c>
@@ -10366,7 +10364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>44</v>
       </c>
@@ -10389,7 +10387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -10412,7 +10410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>44</v>
       </c>
@@ -10435,7 +10433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>44</v>
       </c>
@@ -10458,7 +10456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>44</v>
       </c>
@@ -10481,7 +10479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>44</v>
       </c>
@@ -10504,7 +10502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>44</v>
       </c>
@@ -10527,7 +10525,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>44</v>
       </c>
@@ -10550,7 +10548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>44</v>
       </c>
@@ -10573,7 +10571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>44</v>
       </c>
@@ -10596,7 +10594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>44</v>
       </c>
@@ -10619,7 +10617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>44</v>
       </c>
@@ -10642,7 +10640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>44</v>
       </c>
@@ -10665,7 +10663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>44</v>
       </c>
@@ -10688,7 +10686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>44</v>
       </c>
@@ -10711,7 +10709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>44</v>
       </c>
@@ -10734,7 +10732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>44</v>
       </c>
@@ -10757,7 +10755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>44</v>
       </c>
@@ -10780,7 +10778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>44</v>
       </c>
@@ -10803,7 +10801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>44</v>
       </c>
@@ -10826,7 +10824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>44</v>
       </c>
@@ -10849,7 +10847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>44</v>
       </c>
@@ -10872,7 +10870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>44</v>
       </c>
@@ -10895,7 +10893,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>44</v>
       </c>
@@ -10918,7 +10916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>44</v>
       </c>
@@ -10941,7 +10939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>44</v>
       </c>
@@ -10964,7 +10962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>44</v>
       </c>
@@ -10987,7 +10985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>44</v>
       </c>
@@ -11010,7 +11008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>44</v>
       </c>
@@ -11033,7 +11031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>44</v>
       </c>
@@ -11056,7 +11054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>44</v>
       </c>
@@ -11079,7 +11077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>44</v>
       </c>
@@ -11102,7 +11100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>44</v>
       </c>
@@ -11125,7 +11123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -11148,7 +11146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>44</v>
       </c>
@@ -11171,7 +11169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>44</v>
       </c>
@@ -11194,7 +11192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>44</v>
       </c>
@@ -11217,7 +11215,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>44</v>
       </c>
@@ -11240,7 +11238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>44</v>
       </c>
@@ -11263,7 +11261,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>44</v>
       </c>
@@ -11286,7 +11284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>44</v>
       </c>
@@ -11309,7 +11307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>44</v>
       </c>
@@ -11332,7 +11330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>44</v>
       </c>
@@ -11355,7 +11353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>44</v>
       </c>
@@ -11378,7 +11376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>44</v>
       </c>
@@ -11401,7 +11399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>44</v>
       </c>
@@ -11424,7 +11422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>44</v>
       </c>
@@ -11447,7 +11445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>44</v>
       </c>
@@ -11470,7 +11468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>44</v>
       </c>
@@ -11493,7 +11491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>44</v>
       </c>
@@ -11516,7 +11514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>44</v>
       </c>
@@ -11539,7 +11537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>44</v>
       </c>
@@ -11562,7 +11560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>44</v>
       </c>
@@ -11585,7 +11583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>44</v>
       </c>
@@ -11608,7 +11606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>44</v>
       </c>
@@ -11631,7 +11629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>44</v>
       </c>
@@ -11654,7 +11652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>44</v>
       </c>
@@ -11677,7 +11675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>44</v>
       </c>
@@ -11700,7 +11698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>44</v>
       </c>
@@ -11723,7 +11721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>44</v>
       </c>
@@ -11746,7 +11744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>44</v>
       </c>
@@ -11769,7 +11767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>44</v>
       </c>
@@ -11792,7 +11790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>44</v>
       </c>
@@ -11815,7 +11813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>44</v>
       </c>
@@ -11838,7 +11836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>44</v>
       </c>
@@ -11861,7 +11859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -11884,7 +11882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>44</v>
       </c>
@@ -11907,7 +11905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>44</v>
       </c>
@@ -11930,7 +11928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>44</v>
       </c>
@@ -11953,7 +11951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>44</v>
       </c>
@@ -11976,7 +11974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>44</v>
       </c>
@@ -11999,7 +11997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>44</v>
       </c>
@@ -12022,7 +12020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>44</v>
       </c>
@@ -12045,7 +12043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>44</v>
       </c>
@@ -12068,7 +12066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>44</v>
       </c>
@@ -12091,7 +12089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>44</v>
       </c>
@@ -12114,7 +12112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>44</v>
       </c>
@@ -12137,7 +12135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>44</v>
       </c>
@@ -12160,7 +12158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>44</v>
       </c>
@@ -12183,7 +12181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>44</v>
       </c>
@@ -12206,7 +12204,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>44</v>
       </c>
@@ -12229,7 +12227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>44</v>
       </c>
@@ -12252,7 +12250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>44</v>
       </c>
@@ -12275,7 +12273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>44</v>
       </c>
@@ -12298,7 +12296,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>44</v>
       </c>
@@ -12321,7 +12319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>44</v>
       </c>
@@ -12344,7 +12342,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>44</v>
       </c>
@@ -12367,7 +12365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>44</v>
       </c>
@@ -12390,7 +12388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>44</v>
       </c>
@@ -12413,7 +12411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>44</v>
       </c>
@@ -12436,7 +12434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>44</v>
       </c>
@@ -12459,7 +12457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>44</v>
       </c>
@@ -12482,7 +12480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>44</v>
       </c>
@@ -12505,7 +12503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>44</v>
       </c>
@@ -12528,7 +12526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>44</v>
       </c>
@@ -12551,7 +12549,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>44</v>
       </c>
@@ -12574,7 +12572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>44</v>
       </c>
@@ -12597,7 +12595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>44</v>
       </c>
@@ -12620,7 +12618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>44</v>
       </c>
@@ -12643,7 +12641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>44</v>
       </c>
@@ -12666,7 +12664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>44</v>
       </c>
@@ -12689,7 +12687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>44</v>
       </c>
@@ -12712,7 +12710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>44</v>
       </c>
@@ -12735,7 +12733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>44</v>
       </c>
@@ -12758,7 +12756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>44</v>
       </c>
@@ -12781,7 +12779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>44</v>
       </c>
@@ -12804,7 +12802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>44</v>
       </c>
@@ -12827,7 +12825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>44</v>
       </c>
@@ -12850,7 +12848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>44</v>
       </c>
@@ -12873,7 +12871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>44</v>
       </c>
@@ -12896,7 +12894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -12919,7 +12917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>44</v>
       </c>
@@ -12942,7 +12940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -12965,7 +12963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>44</v>
       </c>
@@ -12988,7 +12986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -13011,7 +13009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -13034,7 +13032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>44</v>
       </c>
@@ -13057,7 +13055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>44</v>
       </c>
@@ -13080,7 +13078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>44</v>
       </c>
@@ -13103,7 +13101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>44</v>
       </c>
@@ -13126,7 +13124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>44</v>
       </c>
@@ -13149,7 +13147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>44</v>
       </c>
@@ -13172,7 +13170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>44</v>
       </c>
@@ -13195,7 +13193,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>44</v>
       </c>
@@ -13218,7 +13216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>44</v>
       </c>
@@ -13241,7 +13239,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>44</v>
       </c>
@@ -13264,7 +13262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>44</v>
       </c>
@@ -13287,7 +13285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>44</v>
       </c>
@@ -13310,7 +13308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>44</v>
       </c>
@@ -13333,7 +13331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>44</v>
       </c>
@@ -13356,7 +13354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>44</v>
       </c>
@@ -13379,7 +13377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>44</v>
       </c>
@@ -13402,7 +13400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>44</v>
       </c>
@@ -13425,7 +13423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>44</v>
       </c>
@@ -13448,7 +13446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>44</v>
       </c>
@@ -13471,7 +13469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>44</v>
       </c>
@@ -13494,7 +13492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>44</v>
       </c>
@@ -13517,7 +13515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>44</v>
       </c>
@@ -13540,7 +13538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>57</v>
       </c>
@@ -13563,7 +13561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>57</v>
       </c>
@@ -13586,7 +13584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>57</v>
       </c>
@@ -13609,7 +13607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>57</v>
       </c>
@@ -13632,7 +13630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>57</v>
       </c>
@@ -13655,7 +13653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>57</v>
       </c>
@@ -13678,7 +13676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>57</v>
       </c>
@@ -13701,7 +13699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>58</v>
       </c>
@@ -13724,7 +13722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>58</v>
       </c>
@@ -13747,7 +13745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>58</v>
       </c>
@@ -13770,7 +13768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>58</v>
       </c>
@@ -13793,7 +13791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>58</v>
       </c>
@@ -13816,7 +13814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>58</v>
       </c>
@@ -13839,7 +13837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>58</v>
       </c>
@@ -13862,7 +13860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>57</v>
       </c>
@@ -13885,7 +13883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>57</v>
       </c>
@@ -13908,7 +13906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>57</v>
       </c>
@@ -13931,7 +13929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>57</v>
       </c>
@@ -13954,7 +13952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>57</v>
       </c>
@@ -13977,7 +13975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>57</v>
       </c>
@@ -14000,7 +13998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>57</v>
       </c>
@@ -14023,7 +14021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>58</v>
       </c>
@@ -14046,7 +14044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>58</v>
       </c>
@@ -14069,7 +14067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>58</v>
       </c>
@@ -14092,7 +14090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>58</v>
       </c>
@@ -14115,7 +14113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>58</v>
       </c>
@@ -14138,7 +14136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>58</v>
       </c>
@@ -14161,7 +14159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>58</v>
       </c>
@@ -14184,7 +14182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>57</v>
       </c>
@@ -14207,7 +14205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>57</v>
       </c>
@@ -14230,7 +14228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>57</v>
       </c>
@@ -14253,7 +14251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>57</v>
       </c>
@@ -14276,7 +14274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>57</v>
       </c>
@@ -14299,7 +14297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>57</v>
       </c>
@@ -14322,7 +14320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>57</v>
       </c>
@@ -14345,7 +14343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>58</v>
       </c>
@@ -14368,7 +14366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>58</v>
       </c>
@@ -14391,7 +14389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>58</v>
       </c>
@@ -14414,7 +14412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>58</v>
       </c>
@@ -14437,7 +14435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>58</v>
       </c>
@@ -14460,7 +14458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>58</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>58</v>
       </c>
@@ -14506,7 +14504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>57</v>
       </c>
@@ -14529,7 +14527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>57</v>
       </c>
@@ -14552,7 +14550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>57</v>
       </c>
@@ -14575,7 +14573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>57</v>
       </c>
@@ -14598,7 +14596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>57</v>
       </c>
@@ -14621,7 +14619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>57</v>
       </c>
@@ -14644,7 +14642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>57</v>
       </c>
@@ -14667,7 +14665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>58</v>
       </c>
@@ -14690,7 +14688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>58</v>
       </c>
@@ -14713,7 +14711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>58</v>
       </c>
@@ -14736,7 +14734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>58</v>
       </c>
@@ -14759,7 +14757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>58</v>
       </c>
@@ -14782,7 +14780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>58</v>
       </c>
@@ -14805,7 +14803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>58</v>
       </c>
@@ -14828,7 +14826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>57</v>
       </c>
@@ -14851,7 +14849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>57</v>
       </c>
@@ -14874,7 +14872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>57</v>
       </c>
@@ -14897,7 +14895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>57</v>
       </c>
@@ -14920,7 +14918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>57</v>
       </c>
@@ -14943,7 +14941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>57</v>
       </c>
@@ -14966,7 +14964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>57</v>
       </c>
@@ -14989,7 +14987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>58</v>
       </c>
@@ -15012,7 +15010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>58</v>
       </c>
@@ -15035,7 +15033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>58</v>
       </c>
@@ -15058,7 +15056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>58</v>
       </c>
@@ -15081,7 +15079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>58</v>
       </c>
@@ -15104,7 +15102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>58</v>
       </c>
@@ -15127,7 +15125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>58</v>
       </c>
@@ -15150,7 +15148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>57</v>
       </c>
@@ -15173,7 +15171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>57</v>
       </c>
@@ -15196,7 +15194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>57</v>
       </c>
@@ -15219,7 +15217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>57</v>
       </c>
@@ -15242,7 +15240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>57</v>
       </c>
@@ -15265,7 +15263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>57</v>
       </c>
@@ -15288,7 +15286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>57</v>
       </c>
@@ -15311,7 +15309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>58</v>
       </c>
@@ -15334,7 +15332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>58</v>
       </c>
@@ -15357,7 +15355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>58</v>
       </c>
@@ -15380,7 +15378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>58</v>
       </c>
@@ -15403,7 +15401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>58</v>
       </c>
@@ -15426,7 +15424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>58</v>
       </c>
@@ -15449,7 +15447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>58</v>
       </c>
@@ -15472,7 +15470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>76</v>
       </c>
@@ -15495,7 +15493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>76</v>
       </c>
@@ -15518,7 +15516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>76</v>
       </c>
@@ -15541,7 +15539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>76</v>
       </c>
@@ -15564,7 +15562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>76</v>
       </c>
@@ -15587,7 +15585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>76</v>
       </c>
@@ -15610,7 +15608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>76</v>
       </c>
@@ -15633,7 +15631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>76</v>
       </c>
@@ -15656,7 +15654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>76</v>
       </c>
@@ -15679,7 +15677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>76</v>
       </c>
@@ -15702,7 +15700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>76</v>
       </c>
@@ -15725,7 +15723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>76</v>
       </c>
@@ -15748,7 +15746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>76</v>
       </c>
@@ -15771,7 +15769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>76</v>
       </c>
@@ -15794,7 +15792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>76</v>
       </c>
@@ -15817,7 +15815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>76</v>
       </c>
@@ -15840,7 +15838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>76</v>
       </c>
@@ -15863,7 +15861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>76</v>
       </c>
@@ -15886,7 +15884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>76</v>
       </c>
@@ -15909,7 +15907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>76</v>
       </c>
@@ -15932,7 +15930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>76</v>
       </c>
@@ -15955,7 +15953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>76</v>
       </c>
@@ -15978,7 +15976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>76</v>
       </c>
@@ -16001,7 +15999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>76</v>
       </c>
@@ -16024,7 +16022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>76</v>
       </c>
@@ -16047,7 +16045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>76</v>
       </c>
@@ -16070,7 +16068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>76</v>
       </c>
@@ -16093,7 +16091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>76</v>
       </c>
@@ -16116,7 +16114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>76</v>
       </c>
@@ -16139,7 +16137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>76</v>
       </c>
@@ -16162,7 +16160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>76</v>
       </c>
@@ -16185,7 +16183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>76</v>
       </c>
@@ -16208,7 +16206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>76</v>
       </c>
@@ -16231,7 +16229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>76</v>
       </c>
@@ -16254,7 +16252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>76</v>
       </c>
@@ -16277,7 +16275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>76</v>
       </c>
@@ -16300,7 +16298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>76</v>
       </c>
@@ -16323,7 +16321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>76</v>
       </c>
@@ -16346,7 +16344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>76</v>
       </c>
@@ -16369,7 +16367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>76</v>
       </c>
@@ -16392,7 +16390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>76</v>
       </c>
@@ -16415,7 +16413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>76</v>
       </c>
@@ -16438,7 +16436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>76</v>
       </c>
@@ -16461,7 +16459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>76</v>
       </c>
@@ -16484,7 +16482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>76</v>
       </c>
@@ -16507,7 +16505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>76</v>
       </c>
@@ -16530,7 +16528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>76</v>
       </c>
@@ -16553,7 +16551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>76</v>
       </c>
@@ -16576,7 +16574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>76</v>
       </c>
@@ -16599,7 +16597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>76</v>
       </c>
@@ -16622,7 +16620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>76</v>
       </c>
@@ -16645,7 +16643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>76</v>
       </c>
@@ -16668,7 +16666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>76</v>
       </c>
@@ -16691,7 +16689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>76</v>
       </c>
@@ -16714,7 +16712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>76</v>
       </c>
@@ -16737,7 +16735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>76</v>
       </c>
@@ -16760,7 +16758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>76</v>
       </c>
@@ -16783,7 +16781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>76</v>
       </c>
@@ -16806,7 +16804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>76</v>
       </c>
@@ -16829,7 +16827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>76</v>
       </c>
@@ -16852,7 +16850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>76</v>
       </c>
@@ -16875,7 +16873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>76</v>
       </c>
@@ -16898,7 +16896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>76</v>
       </c>
@@ -16921,7 +16919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>76</v>
       </c>
@@ -16944,7 +16942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>76</v>
       </c>
@@ -16967,7 +16965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>76</v>
       </c>
@@ -16990,7 +16988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>76</v>
       </c>
@@ -17013,7 +17011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>76</v>
       </c>
@@ -17036,7 +17034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>76</v>
       </c>
@@ -17059,7 +17057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>76</v>
       </c>
@@ -17082,7 +17080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>76</v>
       </c>
@@ -17105,7 +17103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>76</v>
       </c>
@@ -17128,7 +17126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>76</v>
       </c>
@@ -17151,7 +17149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>76</v>
       </c>
@@ -17174,7 +17172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>76</v>
       </c>
@@ -17197,7 +17195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>76</v>
       </c>
@@ -17220,7 +17218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>76</v>
       </c>
@@ -17243,7 +17241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>76</v>
       </c>
@@ -17266,7 +17264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>76</v>
       </c>
@@ -17289,7 +17287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>76</v>
       </c>
@@ -17312,7 +17310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>76</v>
       </c>
@@ -17335,7 +17333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>76</v>
       </c>
@@ -17358,7 +17356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>76</v>
       </c>
@@ -17381,7 +17379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>76</v>
       </c>
@@ -17404,7 +17402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>76</v>
       </c>
@@ -17427,7 +17425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>76</v>
       </c>
@@ -17450,7 +17448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>76</v>
       </c>
@@ -17473,7 +17471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>76</v>
       </c>
@@ -17496,7 +17494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>76</v>
       </c>
@@ -17519,7 +17517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>76</v>
       </c>
@@ -17542,7 +17540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>76</v>
       </c>
@@ -17565,7 +17563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>76</v>
       </c>
@@ -17588,7 +17586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>76</v>
       </c>
@@ -17611,7 +17609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>76</v>
       </c>
@@ -17634,7 +17632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>76</v>
       </c>
@@ -17657,7 +17655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>76</v>
       </c>
@@ -17680,7 +17678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>76</v>
       </c>
@@ -17703,7 +17701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>76</v>
       </c>
@@ -17726,7 +17724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>76</v>
       </c>
@@ -17749,7 +17747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>76</v>
       </c>
@@ -17772,7 +17770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>76</v>
       </c>
@@ -17795,7 +17793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>76</v>
       </c>
@@ -17818,7 +17816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>76</v>
       </c>
@@ -17841,7 +17839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>76</v>
       </c>
@@ -17864,7 +17862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>76</v>
       </c>
@@ -17887,7 +17885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>76</v>
       </c>
@@ -17910,7 +17908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>76</v>
       </c>
@@ -17933,7 +17931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>76</v>
       </c>
@@ -17956,7 +17954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>76</v>
       </c>
@@ -17979,7 +17977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>76</v>
       </c>
@@ -18002,7 +18000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>76</v>
       </c>
@@ -18025,7 +18023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>76</v>
       </c>
@@ -18048,7 +18046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>76</v>
       </c>
@@ -18071,7 +18069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>76</v>
       </c>
@@ -18094,7 +18092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>76</v>
       </c>
@@ -18117,7 +18115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>76</v>
       </c>
@@ -18140,7 +18138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>76</v>
       </c>
@@ -18163,7 +18161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>76</v>
       </c>
@@ -18186,7 +18184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>76</v>
       </c>
@@ -18209,7 +18207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>76</v>
       </c>
@@ -18232,7 +18230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>76</v>
       </c>
@@ -18255,7 +18253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>76</v>
       </c>
@@ -18278,7 +18276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>76</v>
       </c>
@@ -18301,7 +18299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>76</v>
       </c>
@@ -18324,7 +18322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>76</v>
       </c>
@@ -18347,7 +18345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>76</v>
       </c>
@@ -18370,7 +18368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>76</v>
       </c>
@@ -18393,7 +18391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>76</v>
       </c>
@@ -18416,7 +18414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>76</v>
       </c>
@@ -18439,7 +18437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>76</v>
       </c>
@@ -18462,7 +18460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>76</v>
       </c>
@@ -18485,7 +18483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>76</v>
       </c>
@@ -18508,7 +18506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>76</v>
       </c>
@@ -18531,7 +18529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>76</v>
       </c>
@@ -18554,7 +18552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>76</v>
       </c>
@@ -18577,7 +18575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>76</v>
       </c>
@@ -18600,7 +18598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>76</v>
       </c>
@@ -18623,7 +18621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>76</v>
       </c>
@@ -18646,7 +18644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>76</v>
       </c>
@@ -18669,7 +18667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>76</v>
       </c>
@@ -18692,7 +18690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>76</v>
       </c>
@@ -18715,7 +18713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>76</v>
       </c>
@@ -18738,7 +18736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>76</v>
       </c>
@@ -18761,7 +18759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>76</v>
       </c>
@@ -18784,7 +18782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>76</v>
       </c>
@@ -18807,7 +18805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>76</v>
       </c>
@@ -18830,7 +18828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>76</v>
       </c>
@@ -18853,7 +18851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>76</v>
       </c>
@@ -18876,7 +18874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>76</v>
       </c>
@@ -18899,7 +18897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>76</v>
       </c>
@@ -18922,7 +18920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>76</v>
       </c>
@@ -18945,7 +18943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>76</v>
       </c>
@@ -18968,7 +18966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>76</v>
       </c>
@@ -18991,7 +18989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>76</v>
       </c>
@@ -19014,7 +19012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>76</v>
       </c>
@@ -19037,7 +19035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>76</v>
       </c>
@@ -19060,7 +19058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>76</v>
       </c>
@@ -19083,7 +19081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>76</v>
       </c>
@@ -19106,7 +19104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>76</v>
       </c>
@@ -19129,7 +19127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>76</v>
       </c>
@@ -19152,7 +19150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>76</v>
       </c>
@@ -19175,7 +19173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>76</v>
       </c>
@@ -19198,7 +19196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>76</v>
       </c>
@@ -19221,7 +19219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>76</v>
       </c>
@@ -19244,7 +19242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>76</v>
       </c>
@@ -19267,7 +19265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>76</v>
       </c>
@@ -19290,7 +19288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>76</v>
       </c>
@@ -19313,7 +19311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>76</v>
       </c>
@@ -19336,7 +19334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>76</v>
       </c>
@@ -19359,7 +19357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>76</v>
       </c>
@@ -19382,7 +19380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>76</v>
       </c>
@@ -19405,7 +19403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>76</v>
       </c>
@@ -19428,7 +19426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>76</v>
       </c>
@@ -19451,7 +19449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>76</v>
       </c>
@@ -19474,7 +19472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>76</v>
       </c>
@@ -19497,7 +19495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>76</v>
       </c>
@@ -19520,7 +19518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>76</v>
       </c>
@@ -19543,7 +19541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>76</v>
       </c>
@@ -19566,7 +19564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>76</v>
       </c>
@@ -19589,7 +19587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>76</v>
       </c>
@@ -19612,7 +19610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>76</v>
       </c>
@@ -19635,7 +19633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>76</v>
       </c>
@@ -19658,7 +19656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>76</v>
       </c>
@@ -19681,7 +19679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>76</v>
       </c>
@@ -19704,7 +19702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>76</v>
       </c>
@@ -19727,7 +19725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>76</v>
       </c>
@@ -19750,7 +19748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>76</v>
       </c>
@@ -19773,7 +19771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>76</v>
       </c>
@@ -19796,7 +19794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>76</v>
       </c>
@@ -19819,7 +19817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>76</v>
       </c>
@@ -19842,7 +19840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>76</v>
       </c>
@@ -19865,7 +19863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>76</v>
       </c>
@@ -19888,7 +19886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>76</v>
       </c>
@@ -19911,7 +19909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>76</v>
       </c>
@@ -19934,7 +19932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>76</v>
       </c>
@@ -19957,7 +19955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>76</v>
       </c>
@@ -19980,7 +19978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>76</v>
       </c>
@@ -20003,7 +20001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>76</v>
       </c>
@@ -20026,7 +20024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>76</v>
       </c>
@@ -20049,7 +20047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>76</v>
       </c>
@@ -20072,7 +20070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>76</v>
       </c>
@@ -20095,7 +20093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>76</v>
       </c>
@@ -20118,7 +20116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>76</v>
       </c>
@@ -20141,7 +20139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>76</v>
       </c>
@@ -20164,7 +20162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>76</v>
       </c>
@@ -20187,7 +20185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>76</v>
       </c>
@@ -20210,7 +20208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>76</v>
       </c>
@@ -20233,7 +20231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>76</v>
       </c>
@@ -20256,7 +20254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>76</v>
       </c>
@@ -20279,7 +20277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>76</v>
       </c>
@@ -20302,7 +20300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>76</v>
       </c>
@@ -20325,7 +20323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>76</v>
       </c>
@@ -20348,7 +20346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>76</v>
       </c>
@@ -20371,7 +20369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>76</v>
       </c>
@@ -20394,7 +20392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>76</v>
       </c>
@@ -20417,7 +20415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>76</v>
       </c>
@@ -20440,7 +20438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>76</v>
       </c>
@@ -20463,7 +20461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>76</v>
       </c>
@@ -20486,7 +20484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>76</v>
       </c>
@@ -20509,7 +20507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>76</v>
       </c>
@@ -20532,7 +20530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>76</v>
       </c>
@@ -20555,7 +20553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>76</v>
       </c>
@@ -20578,7 +20576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>76</v>
       </c>
@@ -20601,7 +20599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>76</v>
       </c>
@@ -20624,7 +20622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>76</v>
       </c>
@@ -20647,7 +20645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>76</v>
       </c>
@@ -20670,7 +20668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>76</v>
       </c>
@@ -20693,7 +20691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>76</v>
       </c>
@@ -20716,7 +20714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>76</v>
       </c>
@@ -20739,7 +20737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>76</v>
       </c>
@@ -20762,7 +20760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>76</v>
       </c>
@@ -20785,7 +20783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>76</v>
       </c>
@@ -20808,7 +20806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>76</v>
       </c>
@@ -20831,7 +20829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>76</v>
       </c>
@@ -20854,7 +20852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>76</v>
       </c>
@@ -20877,7 +20875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>76</v>
       </c>
@@ -20900,7 +20898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>76</v>
       </c>
@@ -20923,7 +20921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>76</v>
       </c>
@@ -20946,7 +20944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>76</v>
       </c>
@@ -20969,7 +20967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>76</v>
       </c>
@@ -20992,7 +20990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>76</v>
       </c>
@@ -21015,7 +21013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>76</v>
       </c>
@@ -21038,7 +21036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>76</v>
       </c>
@@ -21061,7 +21059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>76</v>
       </c>
@@ -21084,7 +21082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>76</v>
       </c>
@@ -21107,7 +21105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>76</v>
       </c>
@@ -21130,7 +21128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>76</v>
       </c>
@@ -21153,7 +21151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>76</v>
       </c>
@@ -21176,7 +21174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>76</v>
       </c>
@@ -21199,7 +21197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>76</v>
       </c>
@@ -21222,7 +21220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>76</v>
       </c>
@@ -21245,7 +21243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>76</v>
       </c>
@@ -21268,7 +21266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>76</v>
       </c>
@@ -21291,7 +21289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>76</v>
       </c>
@@ -21314,7 +21312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>76</v>
       </c>
@@ -21337,7 +21335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>76</v>
       </c>
@@ -21360,7 +21358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>76</v>
       </c>
@@ -21383,7 +21381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>76</v>
       </c>
@@ -21406,7 +21404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>76</v>
       </c>
@@ -21429,7 +21427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>76</v>
       </c>
@@ -21452,7 +21450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>76</v>
       </c>
@@ -21475,7 +21473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>76</v>
       </c>
@@ -21498,7 +21496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>76</v>
       </c>
@@ -21521,7 +21519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>76</v>
       </c>
@@ -21544,7 +21542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>76</v>
       </c>
@@ -21567,7 +21565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>76</v>
       </c>
@@ -21590,7 +21588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>76</v>
       </c>
@@ -21613,7 +21611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>76</v>
       </c>
@@ -21636,7 +21634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>76</v>
       </c>
@@ -21659,7 +21657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>76</v>
       </c>
@@ -21682,7 +21680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>76</v>
       </c>
@@ -21705,7 +21703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>76</v>
       </c>
@@ -21728,7 +21726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>76</v>
       </c>
@@ -21751,7 +21749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>76</v>
       </c>
@@ -21774,7 +21772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>76</v>
       </c>
@@ -21797,7 +21795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>76</v>
       </c>
@@ -21820,7 +21818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>76</v>
       </c>
@@ -21843,7 +21841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>76</v>
       </c>
@@ -21866,7 +21864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>76</v>
       </c>
@@ -21889,7 +21887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>76</v>
       </c>
@@ -21912,7 +21910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>76</v>
       </c>
@@ -21935,7 +21933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>76</v>
       </c>
@@ -21958,7 +21956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>76</v>
       </c>
@@ -21981,7 +21979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>76</v>
       </c>
@@ -22004,7 +22002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>76</v>
       </c>
@@ -22027,7 +22025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>76</v>
       </c>
@@ -22050,7 +22048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>76</v>
       </c>
@@ -22073,7 +22071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>76</v>
       </c>
@@ -22096,7 +22094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>76</v>
       </c>
